--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,7 +812,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="튜토리얼" sheetId="5" r:id="rId3"/>
-    <sheet name="미션(방어)" sheetId="2" r:id="rId4"/>
-    <sheet name="미션(섬멸)" sheetId="3" r:id="rId5"/>
-    <sheet name="미션(별 받기)" sheetId="4" r:id="rId6"/>
+    <sheet name="튜토리얼" sheetId="5" r:id="rId2"/>
+    <sheet name="첫 미션 입장" sheetId="3" r:id="rId3"/>
+    <sheet name="보스방 입장가능" sheetId="2" r:id="rId4"/>
+    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId5"/>
+    <sheet name="미션횟수 최대" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력조건: 대화창을 뛰우는 조건</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -794,25 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -888,12 +877,165 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="95.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,15 +1184,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="95.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1081,106 +1224,33 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1196,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="튜토리얼" sheetId="5" r:id="rId2"/>
     <sheet name="첫 미션 입장" sheetId="3" r:id="rId3"/>
     <sheet name="보스방 입장가능" sheetId="2" r:id="rId4"/>
-    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId5"/>
-    <sheet name="미션횟수 최대" sheetId="4" r:id="rId6"/>
+    <sheet name="미션횟수 최대" sheetId="4" r:id="rId5"/>
+    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,6 +92,280 @@
   </si>
   <si>
     <t>출력조건: 대화창을 뛰우는 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 꿈에 떨어져 몬스터로부터 도망쳐 포탈에 들어가 나온상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공은 현재 어리둥절한 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지팡이를 이용 상황 설명이 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바, 방금 그건?...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 없으니 짧게 설명하겠다 꼬마!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 여긴 니 꿈속이다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 저녀석들은 너의 꿈을 뺏으러 온 침략자다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 내가 너를 도와 녀석들을 무찌른다! 이상!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기……상황은 대략 알겠는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 싸우죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 리리스란 악마녀석이 대장이다! 쓰러트리면 안전해진다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 적들의 위치로 이동시켜 줄테니 부하들을 처치해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈에 대한 영향력을 되찾아 침략자 놈들을 몰아내면 해결이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘에 대한 의문점 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데….꿈을 빼았기면 어떻게 되는거죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"꿈에 대한 권리"를 리리스에게 빼앗겨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권리? 허락받고 꿈을 꾸게 된다는 건가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 귀여운 거면 나같은게 있지도 않지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸워야만 하는이유 제공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 자아는 영원히 꿈속에 있게 되고 몸은 빼았기게 될거야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ, 네!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬, 꼬마?;;;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼을 이상황에 추가 변경 될 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져  리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗! 이정도면 리리스와 싸우기 충분한것 같군 특별히 꼬맹이로 승급 시켜주마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하…네…감사합니다;;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 리리스와 싸우기엔 충분한 힘이 모인 것 같지만……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 시간이 좀 더 있으니 영향력을 조금더 되찾고 이동해도 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스방 입장가능을 알림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 진행과 추가 진행에
+대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션과 보스에 대한 암시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 설명할 시간이 없다! 포탈을 만들테니 어서 움직여!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 포탈에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음… 더 이상은 시간이 없을것 같구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은건가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하! 꼬맹아! 니가 영향력을 다 찾았으면 리리스같은건 손짓 한방이면 된단다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 꿈에 대한 영향력이니까 말이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 리리스를 처치하지 않으면 서로 서로 영향력 땅따먹기나 하고 있을거고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스는 하수인도 부리고 있으니 후엔 더욱 밀리게 된다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사내용 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈" 이야 대항하기 위해 악과 싸우는 이미지로 힘이 구현화 되있을거다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스와 전투 할정도의 힘을 찾아 약간의 여유있는 말투로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하고 강하게 내용전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영향력에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지팡이는 주인공을 이끌어 가 주는 존재로 마지막 전투를 앞두고 약간 걱정하는 모습을 표현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요! 지금 이라면 누구에게도 질 것 같지 않아요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 진행 할수 없는 이유에
+대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 지금 이상의 시간소비는 좋지않을 것 같구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하! 맘에드는구나 꼬맹이!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋다! 준비가 되면 포탈로 가거라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공과 리리스가 만난 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -99,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +414,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -161,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -246,13 +529,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +620,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +940,7 @@
   <dimension ref="B2:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,9 +983,15 @@
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4">
+        <v>43728</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -879,303 +1241,473 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>10</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="7">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="7">
+        <v>14</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="7">
+        <v>16</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="24"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="7">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="7">
+        <v>18</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="7">
+        <v>19</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="7">
+        <v>20</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="5">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="92.875" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="3">
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,78 +1716,203 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="92.875" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
+  <mergeCells count="4">
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,150 +1921,185 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="92.875" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="7">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시간이 없으니 짧게 설명하겠다 꼬마!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -139,42 +131,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 여긴 니 꿈속이다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 저녀석들은 너의 꿈을 뺏으러 온 침략자다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 내가 너를 도와 녀석들을 무찌른다! 이상!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기……상황은 대략 알겠는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>어떻게 싸우죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 리리스란 악마녀석이 대장이다! 쓰러트리면 안전해진다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 적들의 위치로 이동시켜 줄테니 부하들을 처치해서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈에 대한 영향력을 되찾아 침략자 놈들을 몰아내면 해결이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상황 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,34 +147,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>근데….꿈을 빼았기면 어떻게 되는거죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"꿈에 대한 권리"를 리리스에게 빼앗겨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권리? 허락받고 꿈을 꾸게 된다는 건가요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 귀여운 거면 나같은게 있지도 않지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>싸워야만 하는이유 제공</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>너의 자아는 영원히 꿈속에 있게 되고 몸은 빼았기게 될거야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>!!!!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,22 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>훗! 이정도면 리리스와 싸우기 충분한것 같군 특별히 꼬맹이로 승급 시켜주마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하…네…감사합니다;;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 리리스와 싸우기엔 충분한 힘이 모인 것 같지만……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 시간이 좀 더 있으니 영향력을 조금더 되찾고 이동해도 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -272,38 +196,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>더 이상 설명할 시간이 없다! 포탈을 만들테니 어서 움직여!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이동 포탈에 대한 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음… 더 이상은 시간이 없을것 같구나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 영향력을 다 찾은건가요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하! 꼬맹아! 니가 영향력을 다 찾았으면 리리스같은건 손짓 한방이면 된단다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너의 꿈에 대한 영향력이니까 말이야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 리리스를 처치하지 않으면 서로 서로 영향력 땅따먹기나 하고 있을거고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>리리스는 하수인도 부리고 있으니 후엔 더욱 밀리게 된다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -312,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여긴 "너의 꿈" 이야 대항하기 위해 악과 싸우는 이미지로 힘이 구현화 되있을거다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 보스와 전투 할정도의 힘을 찾아 약간의 여유있는 말투로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -329,10 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 지팡이는 주인공을 이끌어 가 주는 존재로 마지막 전투를 앞두고 약간 걱정하는 모습을 표현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아요! 지금 이라면 누구에게도 질 것 같지 않아요!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -341,22 +229,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그러니 지금 이상의 시간소비는 좋지않을 것 같구나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하! 맘에드는구나 꼬맹이!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>좋다! 준비가 되면 포탈로 가거라!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -366,6 +242,206 @@
   </si>
   <si>
     <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아…네…감사합니다;;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸워야 하는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 주인공에 꼭 전달해야 하는 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스에 대한 인식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시스템, 그래픽 연출에 관한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 넵!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 없으니 짧게 설명하겠다 꼬마!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 여긴 너의 꿈속이다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 저 녀석들은 너의 꿈을 뺏으러 온 침략자다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 리리스란 악마 녀석이 대장이다! 쓰러트리면 안전해진다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 내가 너를 도와 녀석들을 무찌른다! 이상!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기……상황은 대략 알겠는데…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 싸우죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈"이야 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 적들의 위치로 이동시켜 줄 테니 부하들을 처치해서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈에 대한 영향력을 되찾아 침략자 놈들을 몰아내면 해결이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데….꿈을 빼앗기면 어떻게 되는거죠?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"꿈에 대한 권리"를 리리스에게 빼앗겨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권리? 허락받고 꿈을 꾸게 된다는 건가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 귀여운 거면 나 같은 게 있지도 않지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 자아는 영원히 꿈속에 있게 되고 몸은 빼앗기게 될 거야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 설명할 시간이 없다! 포탈을 만들 테니 어서 움직여!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>훗! 이 정도면 리리스와 싸우기 충분한 것 같군 특별히 꼬맹이로 승급 시켜주마</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 리리스와 싸우기엔 충분한 힘이 모인 것 같지만……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 시간이 좀 더 있으니 영향력을 조금 더 되찾고 이동해도 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음… 더 이상은 시간이 없을 것 같구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은 건가요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하하! 꼬맹아! 네가 영향력을 다 찾았으면 리리스 같은 건 손짓 한방이면 된단다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너의 꿈에 대한 영향력이니까 말이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 리리스를 처치하지 않으면 서로 서로 영향력 땅따먹기나 하고 있을 거고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러니 지금 이상의 시간 소비는 좋지 않을 것 같구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아요! 지금이라면 누구에게도 질 것 같지 않아요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하! 마음에 드는구나 꼬맹이!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋다! 준비가 되면 포탈에 들어가라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬맹이! 이때까지 한대로만 하면 된다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 대화일 텐데 너무 짧게 하는 거 아닌가요? 후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇게 원하시면 최대한 빨리 끝내드리죠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메이플 루시드: https://www.youtube.com/watch?v=RLlU9tRqFTw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원한다면 차 한잔 정도는 드리고 싶지만</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자…그럼 시작해 볼까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스방 들어갔을때 대사내용 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -603,6 +679,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,6 +709,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,27 +729,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,7 +1024,7 @@
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="41.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
@@ -990,14 +1066,20 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="4">
+        <v>43729</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -1029,6 +1111,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
@@ -1104,20 +1187,18 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -1125,15 +1206,14 @@
       <c r="C26" s="8"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+    <row r="27" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="2:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H28" s="6"/>
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
@@ -1147,10 +1227,6 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H31" s="6"/>
       <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="H32" s="6"/>
-      <c r="K32" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1175,18 +1251,18 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -1241,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1253,328 +1329,348 @@
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20"/>
+      <c r="B5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
-        <v>49</v>
+      <c r="B9" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
-        <v>72</v>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>58</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>44</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="24"/>
+        <v>74</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="25"/>
+        <v>75</v>
+      </c>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
+        <v>16</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="7">
+        <v>17</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="7">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="7">
+        <v>19</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="7">
         <v>20</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1601,42 +1697,42 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>71</v>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1656,13 +1752,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
@@ -1670,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>53</v>
@@ -1682,13 +1778,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -1696,12 +1792,12 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1718,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1733,42 +1829,42 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="20"/>
+      <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>74</v>
+      <c r="B8" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1788,10 +1884,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1800,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1812,13 +1908,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>73</v>
+        <v>85</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
@@ -1826,25 +1922,25 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
@@ -1852,34 +1948,34 @@
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="26"/>
+        <v>88</v>
+      </c>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1888,10 +1984,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1900,10 +1996,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1921,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E23"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1936,47 +2032,53 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="26"/>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1988,113 +2090,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>4</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
-        <v>13</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="튜토리얼" sheetId="5" r:id="rId2"/>
     <sheet name="첫 미션 입장" sheetId="3" r:id="rId3"/>
-    <sheet name="보스방 입장가능" sheetId="2" r:id="rId4"/>
-    <sheet name="미션횟수 최대" sheetId="4" r:id="rId5"/>
-    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
+    <sheet name="첫 미션 입장후" sheetId="7" r:id="rId4"/>
+    <sheet name="보스방 입장가능" sheetId="2" r:id="rId5"/>
+    <sheet name="미션횟수 최대" sheetId="4" r:id="rId6"/>
+    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,7 +120,207 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>바, 방금 그건?...</t>
+    <t xml:space="preserve"> - 튜토리얼을 이상황에 추가 변경 될 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져  리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사내용 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공과 리리스가 만난 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸워야 하는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 주인공에 꼭 전달해야 하는 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스에 대한 인식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시스템, 그래픽 연출에 관한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스방 들어갔을때 대사내용 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 은하야! 만나서 반가워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이가…말을?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담소를 나누고 싶지만 아쉽게도 시간이 없어서 짧게 설명할게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 근처와 나를 보면 알겠지만 여긴 너의 꿈속이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[대충 근처를 둘러보며 놀라는 은하]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이….떠다니고 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아~ 그리고 지금 리리스란 악마가 와서 너의 꿈을 망치고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각내서 꿈의 주인인 너를 잡아 꿈을 차지하려고 하고있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈? 꿈이라면 그냥 주는 것도…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안되 은하야! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어째서?....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 빼앗기면 리리스가 꿈을 조종할 수 있게되! 그러면 리리스는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너를 영원히 꿈속에서 재우고 현실의 몸을 차지할 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!![놀람]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 괜찮아! 여긴 "너의 꿈"이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스가 뺏어가고 퍼트린 영향력을 되찾는다면! 충분히 이길수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가?....할수 있을까? 상대는 악마잖아?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아! 내가 있잖아! 그리고 너두!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출거야?.....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>….아니!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래! 여기에 있는동안 에도 리리스 는 영향력을 차지하고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 포탈을 열테니 어서 움직이자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 있게 말하긴 했는데…..어떻게…싸워?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈"이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀더 좋을거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 그리고 보니 내 모습을 본적이 없내 내 모습이…윽![옷을보고 부끄러워함]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 잘 모르는 거야? 은하가 어릴때 본 마법소ㄴ…….</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -127,321 +328,175 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도돼! 어서가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽게도 아니야 은하야~… 리리스는 부하를 부리기 때문에 점점 우리가 밀리게 될거야~ㅠ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로….이길수 있을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"있을까"가 아니야! 이길수"있어"! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 할수있어! 해야만해! 고마워 지팡아 이제 됬어 포탈을 열어줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>마법 지팡이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>리리스! 은하야! 저기있는 녀석이 바로 리리스야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스 어째서 내 꿈에 들어온거야?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음~~너무 당연한걸 질문 하시는 군요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈이 있길래 들어와서 "식사"를 하고 있을 뿐이예요~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 있어서 그런건 아니랍니다? 후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는게?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야~악마에게는 인간의 상식이 통하지않아….다른 방법이 없어보여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 준비해!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상황 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘에 대한 의문점 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸워야만 하는이유 제공</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ, 네!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬, 꼬마?;;;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 튜토리얼을 이상황에 추가 변경 될 수 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공이 어느정도 강해져  리리스와 대적이 가능한 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스방 입장가능을 알림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 진행과 추가 진행에
-대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션과 보스에 대한 암시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 포탈에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스는 하수인도 부리고 있으니 후엔 더욱 밀리게 된다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사내용 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스와 전투 할정도의 힘을 찾아 약간의 여유있는 말투로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하고 강하게 내용전달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영향력에 대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 지팡이는 주인공을 이끌어 가 주는 존재로 마지막 전투를 앞두고 약간 걱정하는 모습을 표현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 진행 할수 없는 이유에
-대한 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공과 리리스가 만난 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아…네…감사합니다;;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 싸워야 하는 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 주인공에 꼭 전달해야 하는 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 텍스트 출력 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스에 대한 인식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시스템, 그래픽 연출에 관한 설명</t>
+    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하게 내용전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 트라우마로 인해 은하의 소심하고 자존감이 낮은 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸우는 방식과 그래픽 연출에 관한 정보 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 힘에 대한 의문점 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스와 전투 할 정도의 힘을 찾아 약간의 여유있고 자신감있는 말투로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아! 넵!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간이 없으니 짧게 설명하겠다 꼬마!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 여긴 너의 꿈속이다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 저 녀석들은 너의 꿈을 뺏으러 온 침략자다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 리리스란 악마 녀석이 대장이다! 쓰러트리면 안전해진다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 내가 너를 도와 녀석들을 무찌른다! 이상!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저기……상황은 대략 알겠는데…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게 싸우죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 "너의 꿈"이야 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 적들의 위치로 이동시켜 줄 테니 부하들을 처치해서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈에 대한 영향력을 되찾아 침략자 놈들을 몰아내면 해결이다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데….꿈을 빼앗기면 어떻게 되는거죠?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"꿈에 대한 권리"를 리리스에게 빼앗겨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권리? 허락받고 꿈을 꾸게 된다는 건가요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 귀여운 거면 나 같은 게 있지도 않지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너의 자아는 영원히 꿈속에 있게 되고 몸은 빼앗기게 될 거야</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 이상 설명할 시간이 없다! 포탈을 만들 테니 어서 움직여!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>훗! 이 정도면 리리스와 싸우기 충분한 것 같군 특별히 꼬맹이로 승급 시켜주마</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 리리스와 싸우기엔 충분한 힘이 모인 것 같지만……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직 시간이 좀 더 있으니 영향력을 조금 더 되찾고 이동해도 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음… 더 이상은 시간이 없을 것 같구나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 영향력을 다 찾은 건가요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하! 꼬맹아! 네가 영향력을 다 찾았으면 리리스 같은 건 손짓 한방이면 된단다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너의 꿈에 대한 영향력이니까 말이야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 리리스를 처치하지 않으면 서로 서로 영향력 땅따먹기나 하고 있을 거고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러니 지금 이상의 시간 소비는 좋지 않을 것 같구나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아요! 지금이라면 누구에게도 질 것 같지 않아요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하! 마음에 드는구나 꼬맹이!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋다! 준비가 되면 포탈에 들어가라!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬맹이! 이때까지 한대로만 하면 된다!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마지막 대화일 텐데 너무 짧게 하는 거 아닌가요? 후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇게 원하시면 최대한 빨리 끝내드리죠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메이플 루시드: https://www.youtube.com/watch?v=RLlU9tRqFTw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원한다면 차 한잔 정도는 드리고 싶지만</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자…그럼 시작해 볼까요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스방 들어갔을때 대사내용 입력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -605,50 +660,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,9 +706,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,15 +724,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -729,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,7 +1069,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1075,10 +1078,10 @@
         <v>43729</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1251,18 +1254,18 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
@@ -1317,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E36"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,345 +1335,373 @@
     <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="C17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>26</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="22"/>
+        <v>46</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="21"/>
+        <v>48</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="22"/>
+        <v>55</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" s="22"/>
+        <v>57</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="22"/>
+        <v>58</v>
+      </c>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="21"/>
+        <v>59</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
+        <v>19</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="7">
         <v>20</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>21</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="7">
+        <v>22</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>23</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E34"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1680,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1697,16 +1728,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1720,19 +1751,19 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1740,9 +1771,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1752,28 +1785,26 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>3</v>
       </c>
@@ -1781,41 +1812,63 @@
         <v>18</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>38</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1829,16 +1882,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1852,19 +1905,19 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -1872,9 +1925,11 @@
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1887,7 +1942,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1896,26 +1951,24 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
@@ -1925,90 +1978,14 @@
         <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="E14" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E15:E16"/>
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2017,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F18"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2032,133 +2009,129 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25" t="s">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="F4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2167,10 +2140,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2179,12 +2152,237 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="92.875" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7">
+        <v>9</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7">
+        <v>10</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="7">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="튜토리얼" sheetId="5" r:id="rId2"/>
-    <sheet name="첫 미션 입장" sheetId="3" r:id="rId3"/>
-    <sheet name="첫 미션 입장후" sheetId="7" r:id="rId4"/>
-    <sheet name="보스방 입장가능" sheetId="2" r:id="rId5"/>
-    <sheet name="미션횟수 최대" sheetId="4" r:id="rId6"/>
-    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId7"/>
+    <sheet name="첫 미션 입장" sheetId="3" r:id="rId2"/>
+    <sheet name="튜토리얼 입장" sheetId="7" r:id="rId3"/>
+    <sheet name="보스방 입장가능" sheetId="2" r:id="rId4"/>
+    <sheet name="미션횟수 최대" sheetId="4" r:id="rId5"/>
+    <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,27 +63,387 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서: 대화가 나오는 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출력조건: 대화창을 뛰우는 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 꿈에 떨어져 몬스터로부터 도망쳐 포탈에 들어가 나온상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공은 현재 어리둥절한 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 지팡이를 이용 상황 설명이 필요함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼을 이상황에 추가 변경 될 수 있음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져  리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사내용 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 주인공과 리리스가 만난 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸워야 하는 이유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 주인공에 꼭 전달해야 하는 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 텍스트 출력 상황</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스에 대한 인식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시스템, 그래픽 연출에 관한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스방 들어갔을때 대사내용 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>대상</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>안녕 은하야! 만나서 반가워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이가…말을?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담소를 나누고 싶지만 아쉽게도 시간이 없어서 짧게 설명할게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 근처와 나를 보면 알겠지만 여긴 너의 꿈속이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[대충 근처를 둘러보며 놀라는 은하]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이….떠다니고 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아~ 그리고 지금 리리스란 악마가 와서 너의 꿈을 망치고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각내서 꿈의 주인인 너를 잡아 꿈을 차지하려고 하고있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈? 꿈이라면 그냥 주는 것도…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안되 은하야! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어째서?....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 빼앗기면 리리스가 꿈을 조종할 수 있게되! 그러면 리리스는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너를 영원히 꿈속에서 재우고 현실의 몸을 차지할 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!![놀람]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 괜찮아! 여긴 "너의 꿈"이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스가 뺏어가고 퍼트린 영향력을 되찾는다면! 충분히 이길수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가?....할수 있을까? 상대는 악마잖아?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아! 내가 있잖아! 그리고 너두!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출거야?.....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>….아니!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래! 여기에 있는동안 에도 리리스 는 영향력을 차지하고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 포탈을 열테니 어서 움직이자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 있게 말하긴 했는데…..어떻게…싸워?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈"이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀더 좋을거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 그리고 보니 내 모습을 본적이 없내 내 모습이…윽![옷을보고 부끄러워함]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 잘 모르는 거야? 은하가 어릴때 본 마법소ㄴ…….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도돼! 어서가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>비고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽게도 아니야 은하야~… 리리스는 부하를 부리기 때문에 점점 우리가 밀리게 될거야~ㅠ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로….이길수 있을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"있을까"가 아니야! 이길수"있어"! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 할수있어! 해야만해! 고마워 지팡아 이제 됬어 포탈을 열어줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>순서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호: 몇번째 스테이지 인지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서: 대화가 나오는 순서</t>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스! 은하야! 저기있는 녀석이 바로 리리스야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스 어째서 내 꿈에 들어온거야?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음~~너무 당연한걸 질문 하시는 군요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈이 있길래 들어와서 "식사"를 하고 있을 뿐이예요~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 있어서 그런건 아니랍니다? 후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는게?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야~악마에게는 인간의 상식이 통하지않아….다른 방법이 없어보여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 준비해!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -92,91 +451,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출력조건: 대화창을 뛰우는 조건</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 꿈에 떨어져 몬스터로부터 도망쳐 포탈에 들어가 나온상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공은 현재 어리둥절한 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 지팡이를 이용 상황 설명이 필요함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 튜토리얼을 이상황에 추가 변경 될 수 있음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공이 어느정도 강해져  리리스와 대적이 가능한 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스방 진입이 가능한것에 대한 암시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1. 텍스트 출력 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사내용 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스방 진입을 해야하는 것을 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공이 어느정도 강해져 리리스와 대적이 가능한 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 주인공과 리리스가 만난 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스인 리리스의 성격과 악역임을 보여주는 대사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 싸워야 하는 이유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 주인공에 꼭 전달해야 하는 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 텍스트 출력 상황</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스에 대한 인식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 시스템, 그래픽 연출에 관한 설명</t>
+    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하게 내용전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 트라우마로 인해 은하의 소심하고 자존감이 낮은 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸우는 방식과 그래픽 연출에 관한 정보 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 힘에 대한 의문점 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스와 전투 할 정도의 힘을 찾아 약간의 여유있고 자신감있는 말투로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -184,319 +475,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강동민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스방 들어갔을때 대사내용 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 은하야! 만나서 반가워!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지팡이가…말을?!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담소를 나누고 싶지만 아쉽게도 시간이 없어서 짧게 설명할게!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 근처와 나를 보면 알겠지만 여긴 너의 꿈속이야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[대충 근처를 둘러보며 놀라는 은하]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬이….떠다니고 있어?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아~ 그리고 지금 리리스란 악마가 와서 너의 꿈을 망치고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조각내서 꿈의 주인인 너를 잡아 꿈을 차지하려고 하고있어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈? 꿈이라면 그냥 주는 것도…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">안되 은하야! </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어째서?....</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈을 빼앗기면 리리스가 꿈을 조종할 수 있게되! 그러면 리리스는</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너를 영원히 꿈속에서 재우고 현실의 몸을 차지할 거야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!![놀람]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 괜찮아! 여긴 "너의 꿈"이야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스가 뺏어가고 퍼트린 영향력을 되찾는다면! 충분히 이길수 있어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가?....할수 있을까? 상대는 악마잖아?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮아! 내가 있잖아! 그리고 너두!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출거야?.....</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>….아니!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래! 여기에 있는동안 에도 리리스 는 영향력을 차지하고 있어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 포탈을 열테니 어서 움직이자!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>응!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>응!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 있게 말하긴 했는데…..어떻게…싸워?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 "너의 꿈"이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀더 좋을거야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어? 그리고 보니 내 모습을 본적이 없내 내 모습이…윽![옷을보고 부끄러워함]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라? 잘 모르는 거야? 은하가 어릴때 본 마법소ㄴ…….</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도돼! 어서가자!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워 지팡아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 영향력을 다 찾은거야?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아쉽게도 아니야 은하야~… 리리스는 부하를 부리기 때문에 점점 우리가 밀리게 될거야~ㅠ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금의 나로….이길수 있을까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"있을까"가 아니야! 이길수"있어"! </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 할수있어! 해야만해! 고마워 지팡아 이제 됬어 포탈을 열어줘!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스! 은하야! 저기있는 녀석이 바로 리리스야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스 어째서 내 꿈에 들어온거야?!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음~~너무 당연한걸 질문 하시는 군요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>틈이 있길래 들어와서 "식사"를 하고 있을 뿐이예요~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악의가 있어서 그런건 아니랍니다? 후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는게?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야~악마에게는 인간의 상식이 통하지않아….다른 방법이 없어보여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야! 준비해!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하게 내용전달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 트라우마로 인해 은하의 소심하고 자존감이 낮은 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 싸우는 방식과 그래픽 연출에 관한 정보 전달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 힘에 대한 의문점 해결</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스와 전투 할 정도의 힘을 찾아 약간의 여유있고 자신감있는 말투로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
+    <t xml:space="preserve"> - 의문 해결후 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -611,15 +590,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -633,15 +603,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -666,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -707,33 +668,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1078,10 +1021,10 @@
         <v>43729</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1239,90 +1182,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="95.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1337,16 +1199,16 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1354,68 +1216,68 @@
     </row>
     <row r="5" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>2</v>
@@ -1429,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1441,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1453,10 +1315,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -1465,10 +1327,10 @@
         <v>4</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E21" s="7"/>
     </row>
@@ -1478,7 +1340,7 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E22" s="7"/>
     </row>
@@ -1487,10 +1349,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E23" s="7"/>
     </row>
@@ -1499,10 +1361,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E24" s="7"/>
     </row>
@@ -1511,10 +1373,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E25" s="7"/>
     </row>
@@ -1523,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E26" s="7"/>
     </row>
@@ -1535,10 +1397,10 @@
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E27" s="7"/>
     </row>
@@ -1547,10 +1409,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -1559,10 +1421,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E29" s="7"/>
     </row>
@@ -1571,10 +1433,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E30" s="7"/>
     </row>
@@ -1583,10 +1445,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -1595,10 +1457,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -1607,10 +1469,10 @@
         <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -1619,10 +1481,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -1631,10 +1493,10 @@
         <v>18</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -1643,10 +1505,10 @@
         <v>19</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -1655,10 +1517,10 @@
         <v>20</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -1667,10 +1529,10 @@
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -1679,10 +1541,10 @@
         <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -1691,10 +1553,10 @@
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -1709,12 +1571,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1728,16 +1590,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1745,33 +1607,33 @@
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
@@ -1785,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1797,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1809,10 +1671,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1821,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1833,10 +1695,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1845,10 +1707,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1863,7 +1725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E14"/>
   <sheetViews>
@@ -1882,16 +1744,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -1899,33 +1761,33 @@
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
@@ -1939,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -1951,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1963,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1975,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1992,7 +1854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
@@ -2011,16 +1873,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -2028,39 +1890,39 @@
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -2068,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2080,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -2092,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2104,10 +1966,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2116,10 +1978,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2128,10 +1990,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2140,10 +2002,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2152,10 +2014,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -2169,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E22"/>
   <sheetViews>
@@ -2188,16 +2050,16 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="B3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
@@ -2205,39 +2067,39 @@
     </row>
     <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -2245,10 +2107,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E11" s="7"/>
     </row>
@@ -2257,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -2269,10 +2131,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -2281,10 +2143,10 @@
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -2293,10 +2155,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -2305,10 +2167,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2317,10 +2179,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E17" s="7"/>
     </row>
@@ -2329,10 +2191,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -2341,10 +2203,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -2353,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="7"/>
     </row>
@@ -2365,10 +2227,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" s="7"/>
     </row>
@@ -2377,10 +2239,10 @@
         <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E22" s="7"/>
     </row>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="첫 미션 입장" sheetId="3" r:id="rId2"/>
+    <sheet name="컷씬후 대사" sheetId="3" r:id="rId2"/>
     <sheet name="튜토리얼 입장" sheetId="7" r:id="rId3"/>
     <sheet name="보스방 입장가능" sheetId="2" r:id="rId4"/>
     <sheet name="미션횟수 최대" sheetId="4" r:id="rId5"/>
     <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
+    <sheet name="CVS" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="188">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -259,10 +260,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>….아니!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그래! 여기에 있는동안 에도 리리스 는 영향력을 차지하고 있어!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>어? 그리고 보니 내 모습을 본적이 없내 내 모습이…윽![옷을보고 부끄러워함]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>마법 지팡이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -307,51 +300,357 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로….이길수 있을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"있을까"가 아니야! 이길수"있어"! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 할수있어! 해야만해! 고마워 지팡아 이제 됬어 포탈을 열어줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스! 은하야! 저기있는 녀석이 바로 리리스야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스 어째서 내 꿈에 들어온거야?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음~~너무 당연한걸 질문 하시는 군요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈이 있길래 들어와서 "식사"를 하고 있을 뿐이예요~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 있어서 그런건 아니랍니다? 후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는게?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야~악마에게는 인간의 상식이 통하지않아….다른 방법이 없어보여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 준비해!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하게 내용전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 트라우마로 인해 은하의 소심하고 자존감이 낮은 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 싸우는 방식과 그래픽 연출에 관한 정보 전달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 힘에 대한 의문점 해결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스와 전투 할 정도의 힘을 찾아 약간의 여유있고 자신감있는 말투로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 의문 해결후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도돼! 어서가자!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인것 같아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 아직 조금더 영향력을 모을 시간이 있을것 같으니 조금더 힘을 모아도 좋아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>은하</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고마워 지팡아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떻게 할지 결정된다면 미션을 선택해줘!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야! 이제 더 이상 영향력을 못 모을것같아!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 영향력을 다 찾은거야?</t>
+    <t>그럼 간단한 하게 조작과 전투에 대해 설명해 줄게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 진짜 마법을 쓸수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들을 표시하고 조작과 대쉬, 평타 사용한 튜토리얼 후 다음으로 이동]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들 을 표시하고 스킬 1,2,3 사용후 튜토리얼 종료를 위한 텍스트 표시로 이동]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음은 스킬을 사용해 보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">마법 지팡이 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하 고마워 지팡아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대단해 은하야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 방금 사용한 것들을 활용하여 싸우면 돼!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제 영향력을 찾으러 가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 스탠딩_ 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_surprisal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_MagicStick_01</t>
+  </si>
+  <si>
+    <t>Character_Standing_MagicStick_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_doubt_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_doubt_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_doubt_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_No confidence_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_shyness_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_shyness_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어? 그리고 보니 내 모습을 본적이 없내 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 모습이…윽![옷을보고 부끄러워함]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미를 소환해줄테니 먼저 이동과 대쉬 그리고 공격을 사용해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_smile_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_smile_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_smile_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_MagicStick_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_doubt_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 스탠딩 이미지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,123 +658,126 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 그렇게 되기전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금의 나로….이길수 있을까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">"있을까"가 아니야! 이길수"있어"! </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아 할수있어! 해야만해! 고마워 지팡아 이제 됬어 포탈을 열어줘!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 지팡이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스! 은하야! 저기있는 녀석이 바로 리리스야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스 어째서 내 꿈에 들어온거야?!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리리스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음~~너무 당연한걸 질문 하시는 군요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>틈이 있길래 들어와서 "식사"를 하고 있을 뿐이예요~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악의가 있어서 그런건 아니랍니다? 후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는게?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야~악마에게는 인간의 상식이 통하지않아….다른 방법이 없어보여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하야! 준비해!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 급한 상황임을 알리기위해 급하게 내용전달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 트라우마로 인해 은하의 소심하고 자존감이 낮은 상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 싸우는 방식과 그래픽 연출에 관한 정보 전달</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 힘에 대한 의문점 해결</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 보스와 전투 할 정도의 힘을 찾아 약간의 여유있고 자신감있는 말투로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 의문 해결후 </t>
+    <t>Character_Standing_doubt_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_surprisal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 스탠딩 이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Riris_02</t>
+  </si>
+  <si>
+    <t>Character_Standing_MagicStick_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Riris_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Riris_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Riris_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Riris_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">튜토리얼 입장시 내용추가, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 이벤트 실행 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 컷씬 종료후 실행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료후 튜토리얼 스테이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. 이벤트 실행 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼 스테이지 입장시 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 중간 단계마다 멈추고 실행되고를 반복함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1~9번까지 최초 실행시 출력후 종료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 10~12번 까지 조작,대쉬, 공격 튜토리얼 종료후 출력하고 스킬 튜토리얼로 이동하며 출력종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 13~18번 까지 스킬튜토리얼 완료후 출력하고 출력이 끝나고 난후 미션 선택으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. 이벤트 출력 조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스테이지 3회를 진행하고 미션 클리어 후 바로 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 이벤트 추력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션을7회 진행후 완료시 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. 이벤트 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 보스방 입장후 연출이 끝나면 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +979,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,9 +1334,15 @@
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4">
+        <v>43751</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
@@ -1182,388 +1493,654 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="6" max="6" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+    <row r="16" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="E23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+      <c r="F25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7">
         <v>3</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
+      <c r="F26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
+      <c r="F27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="7" t="s">
+      <c r="D28" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="7">
+      <c r="F28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7">
+      <c r="F29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7">
+      <c r="F30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
         <v>8</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="D31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
         <v>9</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7">
+      <c r="F32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
         <v>10</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="D33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7">
+      <c r="F33" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
         <v>11</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7">
+      <c r="F34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="7">
         <v>12</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7">
-        <v>13</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7">
+      <c r="F36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7">
         <v>14</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7">
+      <c r="F37" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="7">
         <v>15</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7">
+      <c r="F38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="7">
         <v>16</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7">
+      <c r="F39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7">
         <v>17</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7">
+      <c r="F40" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7">
         <v>18</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="D41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7">
+      <c r="F41" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7">
         <v>19</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="D42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="7">
+      <c r="F42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7">
         <v>20</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="E43" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7">
+        <v>21</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7">
+        <v>22</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="7">
-        <v>21</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="F45" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="7">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7">
-        <v>23</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="F46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="7">
+        <v>24</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1573,151 +2150,491 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="92.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="80.5" customWidth="1"/>
+    <col min="6" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="9" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C12" s="17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="F24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="5">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>11</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7">
         <v>12</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="D29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="C30" s="7">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="5">
+        <v>5</v>
+      </c>
+      <c r="C31" s="7">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7">
+        <v>15</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="5">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7">
+        <v>18</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1727,127 +2644,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="92.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="92.875" customWidth="1"/>
+    <col min="6" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,175 +2860,272 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="92.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="92.875" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
+    <col min="7" max="7" width="28.75" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>7</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="F17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>7</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>7</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2033,225 +3134,1770 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="92.875" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="75.5" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="15" t="s">
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="F16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>8</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>3</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="F18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>8</v>
+      </c>
+      <c r="C20" s="7">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="F21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="F23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7">
-        <v>9</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
-        <v>10</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7">
-        <v>11</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>3</v>
+      </c>
+      <c r="B36" s="7">
+        <v>9</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7">
+        <v>12</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="미션횟수 최대" sheetId="4" r:id="rId5"/>
     <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
     <sheet name="CVS" sheetId="8" r:id="rId7"/>
+    <sheet name="1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="197">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -778,6 +779,42 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">텍스트 창 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_MagicStick_Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_MagicStick_Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Eunha_Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Riris_Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_MagicStick_Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Riris_Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Eunha_Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_MagicStick_Right</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -923,13 +960,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +1017,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -981,8 +1032,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H47"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H47"/>
+      <selection activeCell="B23" sqref="B23:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1507,22 +1561,22 @@
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
     <col min="6" max="6" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="7" max="8" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -1587,30 +1641,30 @@
       </c>
     </row>
     <row r="16" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C21" s="12"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>186</v>
       </c>
@@ -1630,10 +1684,13 @@
         <v>123</v>
       </c>
       <c r="H23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>1</v>
       </c>
@@ -1652,9 +1709,12 @@
       <c r="G24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>1</v>
       </c>
@@ -1673,9 +1733,12 @@
       <c r="G25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>1</v>
       </c>
@@ -1694,9 +1757,12 @@
       <c r="G26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>1</v>
       </c>
@@ -1715,9 +1781,12 @@
       <c r="G27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>1</v>
       </c>
@@ -1736,9 +1805,9 @@
       <c r="G28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>2</v>
       </c>
@@ -1757,9 +1826,12 @@
       <c r="G29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>2</v>
       </c>
@@ -1778,9 +1850,12 @@
       <c r="G30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>2</v>
       </c>
@@ -1799,9 +1874,12 @@
       <c r="G31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -1820,9 +1898,12 @@
       <c r="G32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>2</v>
       </c>
@@ -1841,9 +1922,12 @@
       <c r="G33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>2</v>
       </c>
@@ -1862,9 +1946,12 @@
       <c r="G34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>2</v>
       </c>
@@ -1883,9 +1970,12 @@
       <c r="G35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>2</v>
       </c>
@@ -1904,9 +1994,12 @@
       <c r="G36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>2</v>
       </c>
@@ -1925,9 +2018,12 @@
       <c r="G37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>2</v>
       </c>
@@ -1946,9 +2042,12 @@
       <c r="G38" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>2</v>
       </c>
@@ -1967,9 +2066,12 @@
       <c r="G39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>2</v>
       </c>
@@ -1988,9 +2090,12 @@
       <c r="G40" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>2</v>
       </c>
@@ -2009,9 +2114,12 @@
       <c r="G41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>2</v>
       </c>
@@ -2030,9 +2138,12 @@
       <c r="G42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>2</v>
       </c>
@@ -2051,9 +2162,12 @@
       <c r="G43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>2</v>
       </c>
@@ -2072,9 +2186,12 @@
       <c r="G44" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>2</v>
       </c>
@@ -2093,9 +2210,12 @@
       <c r="G45" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>2</v>
       </c>
@@ -2114,9 +2234,12 @@
       <c r="G46" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>2</v>
       </c>
@@ -2135,7 +2258,10 @@
       <c r="G47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2150,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H35"/>
+  <dimension ref="B1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H35"/>
+      <selection activeCell="B18" sqref="B18:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2163,22 +2289,22 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="80.5" customWidth="1"/>
-    <col min="6" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="6" max="8" width="29.5" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -2208,7 +2334,7 @@
       </c>
     </row>
     <row r="9" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2223,7 +2349,7 @@
       </c>
     </row>
     <row r="12" spans="3:4" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2242,7 +2368,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>186</v>
       </c>
@@ -2262,10 +2388,13 @@
         <v>138</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -2284,9 +2413,12 @@
       <c r="G18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2305,9 +2437,12 @@
       <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>3</v>
       </c>
@@ -2326,9 +2461,12 @@
       <c r="G20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>3</v>
       </c>
@@ -2347,9 +2485,12 @@
       <c r="G21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>3</v>
       </c>
@@ -2368,9 +2509,12 @@
       <c r="G22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>3</v>
       </c>
@@ -2389,9 +2533,12 @@
       <c r="G23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -2410,9 +2557,12 @@
       <c r="G24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -2431,9 +2581,12 @@
       <c r="G25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>3</v>
       </c>
@@ -2452,9 +2605,12 @@
       <c r="G26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>4</v>
       </c>
@@ -2468,8 +2624,9 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>4</v>
       </c>
@@ -2488,9 +2645,12 @@
       <c r="G28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>4</v>
       </c>
@@ -2509,9 +2669,12 @@
       <c r="G29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>5</v>
       </c>
@@ -2525,8 +2688,9 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>5</v>
       </c>
@@ -2545,9 +2709,12 @@
       <c r="G31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>5</v>
       </c>
@@ -2566,9 +2733,12 @@
       <c r="G32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>5</v>
       </c>
@@ -2587,9 +2757,12 @@
       <c r="G33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>5</v>
       </c>
@@ -2608,9 +2781,12 @@
       <c r="G34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>5</v>
       </c>
@@ -2629,7 +2805,10 @@
       <c r="G35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2644,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H20"/>
+      <selection activeCell="B16" sqref="B16:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2657,70 +2836,70 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="92.875" customWidth="1"/>
-    <col min="6" max="7" width="31.375" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="6" max="8" width="31.375" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="15" t="s">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C13" s="12"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>186</v>
       </c>
@@ -2740,10 +2919,13 @@
         <v>150</v>
       </c>
       <c r="H15" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>6</v>
       </c>
@@ -2757,14 +2939,17 @@
         <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>6</v>
       </c>
@@ -2778,14 +2963,17 @@
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>6</v>
       </c>
@@ -2799,14 +2987,17 @@
         <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>6</v>
       </c>
@@ -2820,14 +3011,17 @@
         <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>6</v>
       </c>
@@ -2841,12 +3035,15 @@
         <v>152</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2855,15 +3052,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2874,64 +3072,64 @@
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="92.875" customWidth="1"/>
     <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="7" width="28.75" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="7" max="8" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="15" t="s">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>186</v>
       </c>
@@ -2951,10 +3149,13 @@
         <v>155</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -2973,9 +3174,12 @@
       <c r="G14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>7</v>
       </c>
@@ -2994,9 +3198,12 @@
       <c r="G15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -3015,9 +3222,12 @@
       <c r="G16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>7</v>
       </c>
@@ -3036,9 +3246,12 @@
       <c r="G17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>7</v>
       </c>
@@ -3057,9 +3270,12 @@
       <c r="G18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>7</v>
       </c>
@@ -3078,9 +3294,12 @@
       <c r="G19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>7</v>
       </c>
@@ -3099,9 +3318,12 @@
       <c r="G20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>7</v>
       </c>
@@ -3120,7 +3342,10 @@
       <c r="G21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3134,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H25"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3148,64 +3373,64 @@
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="75.5" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="7" max="8" width="25" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C2" s="13" t="s">
+    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="15" t="s">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
+    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>186</v>
       </c>
@@ -3225,10 +3450,13 @@
         <v>161</v>
       </c>
       <c r="H13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>8</v>
       </c>
@@ -3247,9 +3475,12 @@
       <c r="G14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -3268,9 +3499,12 @@
       <c r="G15" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>8</v>
       </c>
@@ -3289,9 +3523,12 @@
       <c r="G16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -3310,9 +3547,12 @@
       <c r="G17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>8</v>
       </c>
@@ -3331,9 +3571,12 @@
       <c r="G18" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>8</v>
       </c>
@@ -3352,9 +3595,12 @@
       <c r="G19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>8</v>
       </c>
@@ -3373,9 +3619,12 @@
       <c r="G20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>8</v>
       </c>
@@ -3394,9 +3643,12 @@
       <c r="G21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>8</v>
       </c>
@@ -3415,9 +3667,12 @@
       <c r="G22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>8</v>
       </c>
@@ -3436,9 +3691,12 @@
       <c r="G23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>8</v>
       </c>
@@ -3457,9 +3715,12 @@
       <c r="G24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>8</v>
       </c>
@@ -3478,7 +3739,10 @@
       <c r="G25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3492,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G68"/>
+  <dimension ref="A3:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3506,9 +3770,10 @@
     <col min="4" max="4" width="90.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>186</v>
       </c>
@@ -3528,10 +3793,13 @@
         <v>123</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -3550,9 +3818,12 @@
       <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3571,9 +3842,12 @@
       <c r="F5" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -3592,9 +3866,12 @@
       <c r="F6" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -3613,9 +3890,12 @@
       <c r="F7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3634,9 +3914,9 @@
       <c r="F8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -3655,9 +3935,12 @@
       <c r="F9" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3676,9 +3959,12 @@
       <c r="F10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -3697,9 +3983,12 @@
       <c r="F11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3718,9 +4007,12 @@
       <c r="F12" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -3739,9 +4031,12 @@
       <c r="F13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3760,9 +4055,12 @@
       <c r="F14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -3781,9 +4079,12 @@
       <c r="F15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -3802,9 +4103,12 @@
       <c r="F16" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -3823,9 +4127,12 @@
       <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -3844,9 +4151,12 @@
       <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -3865,9 +4175,12 @@
       <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -3886,9 +4199,12 @@
       <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -3907,9 +4223,12 @@
       <c r="F21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -3928,9 +4247,12 @@
       <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -3949,9 +4271,12 @@
       <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -3970,9 +4295,12 @@
       <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -3991,9 +4319,12 @@
       <c r="F25" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -4012,9 +4343,12 @@
       <c r="F26" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>2</v>
       </c>
@@ -4033,9 +4367,12 @@
       <c r="F27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -4054,9 +4391,12 @@
       <c r="F28" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -4075,9 +4415,12 @@
       <c r="F29" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -4096,9 +4439,12 @@
       <c r="F30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>3</v>
       </c>
@@ -4117,9 +4463,12 @@
       <c r="F31" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>3</v>
       </c>
@@ -4138,9 +4487,12 @@
       <c r="F32" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -4159,9 +4511,12 @@
       <c r="F33" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -4180,9 +4535,12 @@
       <c r="F34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>3</v>
       </c>
@@ -4201,9 +4559,12 @@
       <c r="F35" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>3</v>
       </c>
@@ -4222,9 +4583,12 @@
       <c r="F36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>4</v>
       </c>
@@ -4244,8 +4608,9 @@
         <v>126</v>
       </c>
       <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>4</v>
       </c>
@@ -4264,9 +4629,12 @@
       <c r="F38" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -4285,9 +4653,12 @@
       <c r="F39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -4307,8 +4678,9 @@
         <v>126</v>
       </c>
       <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -4327,9 +4699,12 @@
       <c r="F41" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
@@ -4348,9 +4723,12 @@
       <c r="F42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>5</v>
       </c>
@@ -4369,9 +4747,12 @@
       <c r="F43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>6</v>
       </c>
@@ -4390,9 +4771,12 @@
       <c r="F44" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -4411,9 +4795,12 @@
       <c r="F45" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>6</v>
       </c>
@@ -4433,8 +4820,9 @@
         <v>151</v>
       </c>
       <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -4454,8 +4842,9 @@
         <v>151</v>
       </c>
       <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>6</v>
       </c>
@@ -4475,8 +4864,9 @@
         <v>151</v>
       </c>
       <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>7</v>
       </c>
@@ -4496,8 +4886,9 @@
         <v>126</v>
       </c>
       <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>7</v>
       </c>
@@ -4517,8 +4908,9 @@
         <v>126</v>
       </c>
       <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -4538,8 +4930,9 @@
         <v>126</v>
       </c>
       <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>7</v>
       </c>
@@ -4559,8 +4952,9 @@
         <v>126</v>
       </c>
       <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -4580,8 +4974,9 @@
         <v>126</v>
       </c>
       <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>7</v>
       </c>
@@ -4601,8 +4996,9 @@
         <v>126</v>
       </c>
       <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -4622,8 +5018,9 @@
         <v>126</v>
       </c>
       <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>7</v>
       </c>
@@ -4643,8 +5040,9 @@
         <v>126</v>
       </c>
       <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>8</v>
       </c>
@@ -4664,8 +5062,9 @@
         <v>162</v>
       </c>
       <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>8</v>
       </c>
@@ -4685,8 +5084,9 @@
         <v>164</v>
       </c>
       <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -4706,8 +5106,9 @@
         <v>165</v>
       </c>
       <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>8</v>
       </c>
@@ -4727,8 +5128,9 @@
         <v>166</v>
       </c>
       <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -4748,8 +5150,9 @@
         <v>166</v>
       </c>
       <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>8</v>
       </c>
@@ -4769,8 +5172,9 @@
         <v>166</v>
       </c>
       <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -4790,8 +5194,9 @@
         <v>168</v>
       </c>
       <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>8</v>
       </c>
@@ -4811,8 +5216,9 @@
         <v>162</v>
       </c>
       <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -4832,8 +5238,9 @@
         <v>168</v>
       </c>
       <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>8</v>
       </c>
@@ -4853,8 +5260,9 @@
         <v>162</v>
       </c>
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>8</v>
       </c>
@@ -4874,8 +5282,9 @@
         <v>168</v>
       </c>
       <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>8</v>
       </c>
@@ -4895,6 +5304,1647 @@
         <v>168</v>
       </c>
       <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="7">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="7">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7">
+        <v>10</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="B36" s="7">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="7">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7">
+        <v>14</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>16</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="7">
+        <v>17</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>5</v>
+      </c>
+      <c r="B43" s="7">
+        <v>18</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G62" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7">
+        <v>12</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="199">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -798,23 +798,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Text_Riris_Left</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_MagicStick_Left</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Riris_Left</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_Eunha_Right</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text_MagicStick_Right</t>
+    <t>#ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1032,11 +1040,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,7 +1329,7 @@
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1549,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:I47"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1560,8 +1568,9 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="36.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1703,14 +1712,14 @@
       <c r="E24" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>189</v>
+      <c r="F24" s="5">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -1727,14 +1736,14 @@
       <c r="E25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>191</v>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -1751,14 +1760,14 @@
       <c r="E26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>190</v>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
       </c>
       <c r="I26" s="7"/>
     </row>
@@ -1775,14 +1784,14 @@
       <c r="E27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>190</v>
+      <c r="F27" s="5">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
       </c>
       <c r="I27" s="7"/>
     </row>
@@ -1799,11 +1808,11 @@
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>126</v>
+      <c r="F28" s="5">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6</v>
       </c>
       <c r="I28" s="7"/>
     </row>
@@ -1820,14 +1829,14 @@
       <c r="E29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>191</v>
+      <c r="F29" s="5">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -1844,14 +1853,14 @@
       <c r="E30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>190</v>
+      <c r="F30" s="5">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
       </c>
       <c r="I30" s="7"/>
     </row>
@@ -1868,14 +1877,14 @@
       <c r="E31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>190</v>
+      <c r="F31" s="5">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
       </c>
       <c r="I31" s="7"/>
     </row>
@@ -1892,14 +1901,14 @@
       <c r="E32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>191</v>
+      <c r="F32" s="5">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
       </c>
       <c r="I32" s="7"/>
     </row>
@@ -1916,14 +1925,14 @@
       <c r="E33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>190</v>
+      <c r="F33" s="5">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>3</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -1940,14 +1949,14 @@
       <c r="E34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>191</v>
+      <c r="F34" s="5">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
       </c>
       <c r="I34" s="7"/>
     </row>
@@ -1964,14 +1973,14 @@
       <c r="E35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>190</v>
+      <c r="F35" s="5">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
       </c>
       <c r="I35" s="7"/>
     </row>
@@ -1988,14 +1997,14 @@
       <c r="E36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>190</v>
+      <c r="F36" s="5">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
       </c>
       <c r="I36" s="7"/>
     </row>
@@ -2012,14 +2021,14 @@
       <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>191</v>
+      <c r="F37" s="5">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
       </c>
       <c r="I37" s="7"/>
     </row>
@@ -2036,14 +2045,14 @@
       <c r="E38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>190</v>
+      <c r="F38" s="5">
+        <v>8</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
       </c>
       <c r="I38" s="7"/>
     </row>
@@ -2060,14 +2069,14 @@
       <c r="E39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>190</v>
+      <c r="F39" s="5">
+        <v>8</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2</v>
       </c>
       <c r="I39" s="7"/>
     </row>
@@ -2084,14 +2093,14 @@
       <c r="E40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>191</v>
+      <c r="F40" s="5">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
       </c>
       <c r="I40" s="7"/>
     </row>
@@ -2108,14 +2117,14 @@
       <c r="E41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>190</v>
+      <c r="F41" s="5">
+        <v>8</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2</v>
       </c>
       <c r="I41" s="7"/>
     </row>
@@ -2132,14 +2141,14 @@
       <c r="E42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>190</v>
+      <c r="F42" s="5">
+        <v>8</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2</v>
       </c>
       <c r="I42" s="7"/>
     </row>
@@ -2156,14 +2165,14 @@
       <c r="E43" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>191</v>
+      <c r="F43" s="5">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
       </c>
       <c r="I43" s="7"/>
     </row>
@@ -2180,14 +2189,14 @@
       <c r="E44" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>191</v>
+      <c r="F44" s="5">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
       </c>
       <c r="I44" s="7"/>
     </row>
@@ -2204,14 +2213,14 @@
       <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>190</v>
+      <c r="F45" s="5">
+        <v>8</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2</v>
       </c>
       <c r="I45" s="7"/>
     </row>
@@ -2228,14 +2237,14 @@
       <c r="E46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>190</v>
+      <c r="F46" s="5">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2</v>
       </c>
       <c r="I46" s="7"/>
     </row>
@@ -2252,14 +2261,14 @@
       <c r="E47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>191</v>
+      <c r="F47" s="5">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
       </c>
       <c r="I47" s="7"/>
     </row>
@@ -2270,7 +2279,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2278,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I35"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2289,7 +2298,9 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="80.5" customWidth="1"/>
-    <col min="6" max="8" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2407,14 +2418,14 @@
       <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>191</v>
+      <c r="F18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
       <c r="I18" s="7"/>
     </row>
@@ -2431,14 +2442,14 @@
       <c r="E19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>190</v>
+      <c r="F19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -2455,14 +2466,14 @@
       <c r="E20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>190</v>
+      <c r="F20" s="5">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -2479,14 +2490,14 @@
       <c r="E21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>191</v>
+      <c r="F21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -2503,14 +2514,14 @@
       <c r="E22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>191</v>
+      <c r="F22" s="5">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
       </c>
       <c r="I22" s="7"/>
     </row>
@@ -2527,14 +2538,14 @@
       <c r="E23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>189</v>
+      <c r="F23" s="5">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2</v>
       </c>
       <c r="I23" s="7"/>
     </row>
@@ -2551,14 +2562,14 @@
       <c r="E24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>191</v>
+      <c r="F24" s="5">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -2575,14 +2586,14 @@
       <c r="E25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>189</v>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -2599,14 +2610,14 @@
       <c r="E26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>189</v>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2</v>
       </c>
       <c r="I26" s="7"/>
     </row>
@@ -2621,9 +2632,9 @@
       <c r="E27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
@@ -2639,14 +2650,14 @@
       <c r="E28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>191</v>
+      <c r="F28" s="5">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
       </c>
       <c r="I28" s="7"/>
     </row>
@@ -2663,14 +2674,14 @@
       <c r="E29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>189</v>
+      <c r="F29" s="5">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -2685,9 +2696,9 @@
       <c r="E30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
@@ -2703,14 +2714,14 @@
       <c r="E31" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>189</v>
+      <c r="F31" s="5">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
       </c>
       <c r="I31" s="7"/>
     </row>
@@ -2727,14 +2738,14 @@
       <c r="E32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>191</v>
+      <c r="F32" s="5">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
       </c>
       <c r="I32" s="7"/>
     </row>
@@ -2751,14 +2762,14 @@
       <c r="E33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>189</v>
+      <c r="F33" s="5">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -2775,14 +2786,14 @@
       <c r="E34" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>189</v>
+      <c r="F34" s="5">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2</v>
       </c>
       <c r="I34" s="7"/>
     </row>
@@ -2799,14 +2810,14 @@
       <c r="E35" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>191</v>
+      <c r="F35" s="5">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
       </c>
       <c r="I35" s="7"/>
     </row>
@@ -2826,7 +2837,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:I20"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2836,7 +2847,9 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="92.875" customWidth="1"/>
-    <col min="6" max="8" width="31.375" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2938,14 +2951,14 @@
       <c r="E16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>189</v>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -2962,14 +2975,14 @@
       <c r="E17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>190</v>
+      <c r="F17" s="5">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
       </c>
       <c r="I17" s="7"/>
     </row>
@@ -2986,14 +2999,14 @@
       <c r="E18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>191</v>
+      <c r="F18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
       <c r="I18" s="7"/>
     </row>
@@ -3010,14 +3023,14 @@
       <c r="E19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>190</v>
+      <c r="F19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -3034,14 +3047,14 @@
       <c r="E20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>191</v>
+      <c r="F20" s="5">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -3071,8 +3084,9 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="92.875" customWidth="1"/>
-    <col min="6" max="6" width="31.25" customWidth="1"/>
-    <col min="7" max="8" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3168,14 +3182,14 @@
       <c r="E14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>189</v>
+      <c r="F14" s="5">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -3192,14 +3206,14 @@
       <c r="E15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>191</v>
+      <c r="F15" s="5">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -3216,14 +3230,14 @@
       <c r="E16" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>189</v>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -3240,14 +3254,14 @@
       <c r="E17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>189</v>
+      <c r="F17" s="5">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2</v>
       </c>
       <c r="I17" s="7"/>
     </row>
@@ -3264,14 +3278,14 @@
       <c r="E18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>191</v>
+      <c r="F18" s="5">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
       </c>
       <c r="I18" s="7"/>
     </row>
@@ -3288,14 +3302,14 @@
       <c r="E19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>190</v>
+      <c r="F19" s="5">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -3312,14 +3326,14 @@
       <c r="E20" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>191</v>
+      <c r="F20" s="5">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -3336,14 +3350,14 @@
       <c r="E21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>190</v>
+      <c r="F21" s="5">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -3372,8 +3386,9 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="75.5" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3469,14 +3484,14 @@
       <c r="E14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>192</v>
+      <c r="F14" s="5">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>3</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -3493,14 +3508,14 @@
       <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>189</v>
+      <c r="F15" s="5">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -3517,14 +3532,14 @@
       <c r="E16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>191</v>
+      <c r="F16" s="5">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
       </c>
       <c r="I16" s="7"/>
     </row>
@@ -3541,14 +3556,14 @@
       <c r="E17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>192</v>
+      <c r="F17" s="5">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3</v>
       </c>
       <c r="I17" s="7"/>
     </row>
@@ -3565,14 +3580,14 @@
       <c r="E18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>192</v>
+      <c r="F18" s="5">
+        <v>10</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>3</v>
       </c>
       <c r="I18" s="7"/>
     </row>
@@ -3589,14 +3604,14 @@
       <c r="E19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>192</v>
+      <c r="F19" s="5">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
       </c>
       <c r="I19" s="7"/>
     </row>
@@ -3613,14 +3628,14 @@
       <c r="E20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>191</v>
+      <c r="F20" s="5">
+        <v>9</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
       </c>
       <c r="I20" s="7"/>
     </row>
@@ -3637,14 +3652,14 @@
       <c r="E21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>192</v>
+      <c r="F21" s="5">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>3</v>
       </c>
       <c r="I21" s="7"/>
     </row>
@@ -3661,14 +3676,14 @@
       <c r="E22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>189</v>
+      <c r="F22" s="5">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
       </c>
       <c r="I22" s="7"/>
     </row>
@@ -3685,14 +3700,14 @@
       <c r="E23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>192</v>
+      <c r="F23" s="5">
+        <v>10</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>3</v>
       </c>
       <c r="I23" s="7"/>
     </row>
@@ -3709,14 +3724,14 @@
       <c r="E24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>189</v>
+      <c r="F24" s="5">
+        <v>9</v>
+      </c>
+      <c r="G24" s="5">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5">
+        <v>1</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -3733,14 +3748,14 @@
       <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>191</v>
+      <c r="F25" s="5">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
       </c>
       <c r="I25" s="7"/>
     </row>
@@ -3759,7 +3774,7 @@
   <dimension ref="A3:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A4" sqref="A4:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5314,10 +5329,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5331,33 +5346,30 @@
     <col min="7" max="7" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5370,18 +5382,17 @@
       <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5394,18 +5405,17 @@
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -5413,23 +5423,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -5442,18 +5451,17 @@
       <c r="D5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -5466,15 +5474,15 @@
       <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -5487,18 +5495,17 @@
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -5511,18 +5518,17 @@
       <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -5535,18 +5541,17 @@
       <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -5559,18 +5564,17 @@
       <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -5583,18 +5587,17 @@
       <c r="D11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -5607,18 +5610,17 @@
       <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -5631,18 +5633,17 @@
       <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -5655,18 +5656,17 @@
       <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -5679,18 +5679,17 @@
       <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -5703,18 +5702,17 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
@@ -5727,18 +5725,17 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -5751,18 +5748,17 @@
       <c r="D18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -5775,18 +5771,17 @@
       <c r="D19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -5799,18 +5794,17 @@
       <c r="D20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -5823,18 +5817,17 @@
       <c r="D21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -5847,18 +5840,17 @@
       <c r="D22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -5866,23 +5858,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>2</v>
       </c>
@@ -5890,23 +5881,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>2</v>
       </c>
@@ -5919,18 +5909,17 @@
       <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E25" s="5">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>3</v>
       </c>
@@ -5943,18 +5932,17 @@
       <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>3</v>
       </c>
@@ -5967,18 +5955,17 @@
       <c r="D27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E27" s="5">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>3</v>
       </c>
@@ -5991,18 +5978,17 @@
       <c r="D28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>3</v>
       </c>
@@ -6015,18 +6001,17 @@
       <c r="D29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -6039,18 +6024,17 @@
       <c r="D30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>3</v>
       </c>
@@ -6058,23 +6042,22 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>3</v>
       </c>
@@ -6082,23 +6065,22 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>3</v>
       </c>
@@ -6111,18 +6093,17 @@
       <c r="D33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -6135,18 +6116,17 @@
       <c r="D34" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>4</v>
       </c>
@@ -6157,12 +6137,11 @@
       <c r="D35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>4</v>
       </c>
@@ -6170,23 +6149,22 @@
         <v>11</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>4</v>
       </c>
@@ -6194,23 +6172,22 @@
         <v>12</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E37" s="5">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>5</v>
       </c>
@@ -6221,12 +6198,11 @@
       <c r="D38" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>5</v>
       </c>
@@ -6239,18 +6215,17 @@
       <c r="D39" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="5">
+        <v>8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>5</v>
       </c>
@@ -6258,23 +6233,22 @@
         <v>15</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="5">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>5</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>5</v>
       </c>
@@ -6287,18 +6261,17 @@
       <c r="D41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>5</v>
       </c>
@@ -6311,18 +6284,17 @@
       <c r="D42" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>5</v>
       </c>
@@ -6330,23 +6302,22 @@
         <v>18</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E43" s="5">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>6</v>
       </c>
@@ -6359,18 +6330,17 @@
       <c r="D44" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E44" s="5">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>6</v>
       </c>
@@ -6383,18 +6353,17 @@
       <c r="D45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E45" s="5">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>6</v>
       </c>
@@ -6402,23 +6371,22 @@
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E46" s="5">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>6</v>
       </c>
@@ -6431,18 +6399,17 @@
       <c r="D47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E47" s="5">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>6</v>
       </c>
@@ -6455,18 +6422,17 @@
       <c r="D48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E48" s="5">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>7</v>
       </c>
@@ -6474,23 +6440,22 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E49" s="5">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>7</v>
       </c>
@@ -6498,23 +6463,22 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E50" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="5">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>7</v>
       </c>
@@ -6522,23 +6486,22 @@
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="5">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>7</v>
       </c>
@@ -6551,18 +6514,17 @@
       <c r="D52" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="5">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>7</v>
       </c>
@@ -6575,18 +6537,17 @@
       <c r="D53" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E53" s="5">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>7</v>
       </c>
@@ -6594,23 +6555,22 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E54" s="5">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>7</v>
       </c>
@@ -6618,23 +6578,22 @@
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E55" s="5">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>7</v>
       </c>
@@ -6642,23 +6601,22 @@
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>8</v>
       </c>
@@ -6671,18 +6629,17 @@
       <c r="D57" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>8</v>
       </c>
@@ -6690,23 +6647,22 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E58" s="5">
+        <v>9</v>
+      </c>
+      <c r="F58" s="5">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>8</v>
       </c>
@@ -6719,18 +6675,17 @@
       <c r="D59" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E59" s="5">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>8</v>
       </c>
@@ -6743,18 +6698,17 @@
       <c r="D60" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E60" s="5">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>8</v>
       </c>
@@ -6767,18 +6721,17 @@
       <c r="D61" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E61" s="5">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>8</v>
       </c>
@@ -6791,18 +6744,17 @@
       <c r="D62" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E62" s="5">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>8</v>
       </c>
@@ -6815,18 +6767,17 @@
       <c r="D63" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E63" s="5">
+        <v>9</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>8</v>
       </c>
@@ -6839,18 +6790,17 @@
       <c r="D64" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>8</v>
       </c>
@@ -6858,23 +6808,22 @@
         <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E65" s="5">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5">
+        <v>7</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>8</v>
       </c>
@@ -6887,18 +6836,17 @@
       <c r="D66" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H66" s="7"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E66" s="5">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>8</v>
       </c>
@@ -6911,18 +6859,17 @@
       <c r="D67" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E67" s="5">
+        <v>9</v>
+      </c>
+      <c r="F67" s="5">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>8</v>
       </c>
@@ -6930,21 +6877,20 @@
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H68" s="7"/>
+      <c r="E68" s="5">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="보스방 들어갔을때" sheetId="6" r:id="rId6"/>
     <sheet name="CVS" sheetId="8" r:id="rId7"/>
     <sheet name="1" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="266">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -823,6 +825,274 @@
   </si>
   <si>
     <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 움직이자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 이동을 해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들을 표시하고 조작을 다 사용하면 다음 튜토리얼 로 이동]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아 다음은 대쉬를 사용해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들을 표시하고 대쉬을 사용하면 다음 튜토리얼 로 이동]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했어 은하야! 이제 아이템에 대해서 설명해줄게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 5가지 아이템이 있어 즉시회복, 지속회복, 실드, 쿨타임 감소, 변신 게이지 추가 가 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 캐릭터를 고정시키고 체력의50%감소 회복 아이템 즉시, 지속 아이템 배치]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 회복 아이템을 먹어보자! 아이템에 접촉하면 자동으로 흡수될거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 캐릭터를 실드아이템을 생성]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 캐릭터가 실드아이템 획득시 특정 위치에 고정 시키고 탄막 3회 생성후 타격]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 실드 아이템을 먹어보자! 실드는 대미지를 무효화 해줄거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대쉬는 한번에 짧은거리를 빠르게 이동할 수 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 대쉬는 총 3회 사용 가능하지만 연속으로 다 사용해 버리면 긴 시간을 기다려야해!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와! 신기해 내가 마법을 쓰고있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와~ 귀엽게 생긴 구름이다!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 하나도 안아파!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 다음으로 미션들을 설명해줄게 섬멸 미션은 지역내에 있는 대상을 모두 처치하면되!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 적들이 있는거 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 이제부턴 싸워야하니까 스킬도 함께 사용해보자 스킬은1번을 누르면 사용할수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[섬멸 미션 지역으로 이동시 텍스트 출력 스킬1번 3개 충전]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 활용하여 적을 처치해봐!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번 스킬은 적을 추적하여 공격하는 구체야 충전 시켜줄게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 미션진행 들어온 입구와 진행하는 길을 막아 유저의 이동을 제한]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했어 은하야! 이렇게 미션을 클리어 하면 영향력을 되찾아 강해질거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 미션은 방어 미션이야 이번엔 2번 스킬도 사용해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 스킬은 2번을 눌러 마우스로 방향을 지정한뒤 클릭하면 적을 가운데로 끌어오는 스킬이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 스킬을 활용하여 미션을 클리어 해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[길을 제한하고 있던 막 제거 다음 지역으로 이동시 텍스트 출력]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저건 꿈의 기둥이야 꿈을 유지할 수있게 지켜주고 있어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 저 기둥이 공격당해 파괴된다면 적에게 유리해질거야 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈의 기둥……..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 오고있는것 같아 준비해 은하야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[미션 클리어시 텍스트 출력]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와 잘 지켰어 은하야! 이제 이지역은 한동안 안전할거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼이제 마지막 미션 생존 미션을 해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생존 미션은 주어진 시간내에 하늘에서 떨어지는 별을 일정수 만큼 획득하면되!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번이 마지막 미션이니 이번엔 3번스킬과 변신도 사용해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벼,변신?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번 스킬은 직선상의 적을 모두 타격하니 변신과 다른 스킬들과 연계해서 미션을 클리어 해보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응….변신……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[길제한이 풀리고 다음 지역까지 이동시 미션진행하고 클리어시 텍스트 출력]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응 변신을 사용하면 모든 기술이 강화되고 4번을 눌러 궁극기를 사용할수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 이제 기초적인건 모두 알려줬어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 할수 있을거 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아! 그럼 이제 영향력을 찾으러 가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!!!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Standing_Nomal_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>막상 변신할 생각하니까 약간 부끄러운데..///</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1028,6 +1298,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1039,12 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:H47"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,16 +1846,16 @@
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -2235,7 +2505,7 @@
         <v>39</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="F46" s="5">
         <v>8</v>
@@ -2285,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I35"/>
+  <dimension ref="B1:I78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H35"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2306,16 +2576,16 @@
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -2409,7 +2679,7 @@
       <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -2433,7 +2703,7 @@
       <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -2457,7 +2727,7 @@
       <c r="B20" s="5">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>3</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -2481,7 +2751,7 @@
       <c r="B21" s="5">
         <v>3</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -2505,7 +2775,7 @@
       <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -2529,7 +2799,7 @@
       <c r="B23" s="5">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -2553,7 +2823,7 @@
       <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -2577,7 +2847,7 @@
       <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -2601,14 +2871,14 @@
       <c r="B26" s="5">
         <v>3</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>9</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="F26" s="5">
         <v>8</v>
@@ -2622,15 +2892,11 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-      <c r="C27" s="7">
-        <v>10</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -2641,23 +2907,23 @@
       <c r="B28" s="5">
         <v>4</v>
       </c>
-      <c r="C28" s="7">
-        <v>11</v>
+      <c r="C28" s="5">
+        <v>1</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="F28" s="5">
         <v>8</v>
       </c>
       <c r="G28" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="7"/>
     </row>
@@ -2665,14 +2931,14 @@
       <c r="B29" s="5">
         <v>4</v>
       </c>
-      <c r="C29" s="7">
-        <v>12</v>
+      <c r="C29" s="5">
+        <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="F29" s="5">
         <v>8</v>
@@ -2687,32 +2953,40 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
-        <v>5</v>
-      </c>
-      <c r="C30" s="7">
-        <v>13</v>
-      </c>
-      <c r="D30" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+        <v>212</v>
+      </c>
+      <c r="F30" s="5">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
-        <v>5</v>
-      </c>
-      <c r="C31" s="7">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>4</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="F31" s="5">
         <v>8</v>
@@ -2721,55 +2995,43 @@
         <v>5</v>
       </c>
       <c r="H31" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="5">
-        <v>5</v>
-      </c>
-      <c r="C32" s="7">
-        <v>15</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="5">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5">
-        <v>5</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="7">
-        <v>16</v>
+      <c r="C33" s="5">
+        <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="F33" s="5">
         <v>8</v>
       </c>
       <c r="G33" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="7"/>
     </row>
@@ -2777,20 +3039,20 @@
       <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" s="7">
-        <v>17</v>
+      <c r="C34" s="5">
+        <v>2</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="F34" s="5">
         <v>8</v>
       </c>
       <c r="G34" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
@@ -2801,25 +3063,958 @@
       <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="7">
-        <v>18</v>
+      <c r="C35" s="5">
+        <v>3</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="F35" s="5">
         <v>8</v>
       </c>
       <c r="G35" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="5">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="5">
+        <v>8</v>
+      </c>
+      <c r="G38" s="5">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="5">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5">
+        <v>3</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="5">
+        <v>8</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="5">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="5">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <v>8</v>
+      </c>
+      <c r="C45" s="5">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="5">
+        <v>8</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F47" s="5">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <v>9</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="5">
+        <v>8</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="5">
+        <v>8</v>
+      </c>
+      <c r="G49" s="5">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <v>10</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="5">
+        <v>8</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2</v>
+      </c>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="5">
+        <v>8</v>
+      </c>
+      <c r="G52" s="5">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>10</v>
+      </c>
+      <c r="C53" s="5">
+        <v>3</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="5">
+        <v>8</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2</v>
+      </c>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>10</v>
+      </c>
+      <c r="C54" s="5">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="5">
+        <v>8</v>
+      </c>
+      <c r="G54" s="5">
+        <v>3</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2</v>
+      </c>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>10</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="5">
+        <v>8</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2</v>
+      </c>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="5">
+        <v>11</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="5">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5">
+        <v>3</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="5">
+        <v>11</v>
+      </c>
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="5">
+        <v>8</v>
+      </c>
+      <c r="G58" s="5">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2</v>
+      </c>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="5">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5">
+        <v>3</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="5">
+        <v>8</v>
+      </c>
+      <c r="G59" s="5">
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="5">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F60" s="5">
+        <v>8</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F61" s="5">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>12</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="5">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5">
+        <v>3</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>12</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" s="5">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5">
+        <v>3</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="5">
+        <v>12</v>
+      </c>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F65" s="5">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5">
+        <v>5</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="5">
+        <v>12</v>
+      </c>
+      <c r="C66" s="5">
+        <v>4</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F66" s="5">
+        <v>8</v>
+      </c>
+      <c r="G66" s="5">
+        <v>3</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="5">
+        <v>12</v>
+      </c>
+      <c r="C67" s="5">
+        <v>5</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F67" s="5">
+        <v>8</v>
+      </c>
+      <c r="G67" s="5">
+        <v>3</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="5">
+        <v>12</v>
+      </c>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F68" s="5">
+        <v>8</v>
+      </c>
+      <c r="G68" s="5">
+        <v>4</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="5">
+        <v>12</v>
+      </c>
+      <c r="C69" s="5">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" s="5">
+        <v>8</v>
+      </c>
+      <c r="G69" s="5">
+        <v>4</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="5">
+        <v>12</v>
+      </c>
+      <c r="C70" s="5">
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F70" s="5">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5">
+        <v>4</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>12</v>
+      </c>
+      <c r="C71" s="5">
+        <v>9</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" s="5">
+        <v>8</v>
+      </c>
+      <c r="G71" s="5">
+        <v>4</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2</v>
+      </c>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="5">
+        <v>12</v>
+      </c>
+      <c r="C72" s="5">
+        <v>10</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F72" s="5">
+        <v>8</v>
+      </c>
+      <c r="G72" s="5">
+        <v>4</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0</v>
+      </c>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="5">
+        <v>13</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F74" s="5">
+        <v>8</v>
+      </c>
+      <c r="G74" s="5">
+        <v>5</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
+      </c>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="5">
+        <v>13</v>
+      </c>
+      <c r="C75" s="5">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="5">
+        <v>8</v>
+      </c>
+      <c r="G75" s="5">
+        <v>3</v>
+      </c>
+      <c r="H75" s="5">
+        <v>2</v>
+      </c>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="5">
+        <v>13</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="5">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5">
+        <v>5</v>
+      </c>
+      <c r="H76" s="5">
+        <v>0</v>
+      </c>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="5">
+        <v>13</v>
+      </c>
+      <c r="C77" s="5">
+        <v>4</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="5">
+        <v>8</v>
+      </c>
+      <c r="G77" s="5">
+        <v>3</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2</v>
+      </c>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="5">
+        <v>13</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="5">
+        <v>8</v>
+      </c>
+      <c r="G78" s="5">
+        <v>5</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0</v>
+      </c>
+      <c r="I78" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2837,7 +4032,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="B16" sqref="B16:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2855,16 +4050,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -2940,7 +4135,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2964,7 +4159,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -2988,7 +4183,7 @@
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -3012,7 +4207,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -3036,7 +4231,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -3074,7 +4269,7 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I21"/>
+      <selection activeCell="B14" sqref="B14:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3092,16 +4287,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -3171,7 +4366,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3195,7 +4390,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -3219,7 +4414,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -3243,7 +4438,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -3267,7 +4462,7 @@
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -3291,7 +4486,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -3315,7 +4510,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -3339,7 +4534,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -3376,7 +4571,7 @@
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I25"/>
+      <selection activeCell="B14" sqref="B14:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3394,16 +4589,16 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
@@ -3473,7 +4668,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -3490,14 +4685,14 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="14">
         <v>3</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -3521,7 +4716,7 @@
     </row>
     <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -3545,7 +4740,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -3562,14 +4757,14 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="15">
         <v>3</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -3586,14 +4781,14 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="15">
         <v>3</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -3610,14 +4805,14 @@
       <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="15">
         <v>3</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -3641,7 +4836,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -3658,14 +4853,14 @@
       <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="15">
         <v>3</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -3689,7 +4884,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>10</v>
@@ -3706,14 +4901,14 @@
       <c r="G23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="15">
         <v>3</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -3737,7 +4932,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -3774,7 +4969,7 @@
   <dimension ref="A3:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:H27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3828,7 +5023,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>126</v>
@@ -5331,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6635,7 +7830,7 @@
       <c r="F57" s="5">
         <v>1</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="14">
         <v>3</v>
       </c>
     </row>
@@ -6704,7 +7899,7 @@
       <c r="F60" s="5">
         <v>1</v>
       </c>
-      <c r="G60" s="19">
+      <c r="G60" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6727,7 +7922,7 @@
       <c r="F61" s="5">
         <v>1</v>
       </c>
-      <c r="G61" s="19">
+      <c r="G61" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6750,7 +7945,7 @@
       <c r="F62" s="5">
         <v>1</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6796,7 +7991,7 @@
       <c r="F64" s="5">
         <v>1</v>
       </c>
-      <c r="G64" s="19">
+      <c r="G64" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6842,7 +8037,7 @@
       <c r="F66" s="5">
         <v>1</v>
       </c>
-      <c r="G66" s="19">
+      <c r="G66" s="15">
         <v>3</v>
       </c>
     </row>
@@ -6889,6 +8084,2351 @@
         <v>2</v>
       </c>
       <c r="G68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="74.125" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="5">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="5">
+        <v>8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="5">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>6</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E44" s="5">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5">
+        <v>5</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="5">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5">
+        <v>3</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>8</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="5">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E48" s="5">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>9</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E49" s="5">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5">
+        <v>2</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>9</v>
+      </c>
+      <c r="B51" s="5">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" s="5">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>10</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" s="5">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>10</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="5">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>10</v>
+      </c>
+      <c r="B54" s="5">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5">
+        <v>4</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="5">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>10</v>
+      </c>
+      <c r="B56" s="5">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>11</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5">
+        <v>6</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>11</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" s="5">
+        <v>8</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>11</v>
+      </c>
+      <c r="B60" s="5">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="5">
+        <v>8</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>11</v>
+      </c>
+      <c r="B61" s="5">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>12</v>
+      </c>
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>12</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E63" s="5">
+        <v>8</v>
+      </c>
+      <c r="F63" s="5">
+        <v>3</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>12</v>
+      </c>
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="5">
+        <v>8</v>
+      </c>
+      <c r="F64" s="5">
+        <v>5</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>12</v>
+      </c>
+      <c r="B65" s="5">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E65" s="5">
+        <v>8</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>12</v>
+      </c>
+      <c r="B66" s="5">
+        <v>5</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E66" s="5">
+        <v>8</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>12</v>
+      </c>
+      <c r="B67" s="5">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E67" s="5">
+        <v>8</v>
+      </c>
+      <c r="F67" s="5">
+        <v>4</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>12</v>
+      </c>
+      <c r="B68" s="5">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="5">
+        <v>8</v>
+      </c>
+      <c r="F68" s="5">
+        <v>4</v>
+      </c>
+      <c r="G68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>12</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E69" s="5">
+        <v>8</v>
+      </c>
+      <c r="F69" s="5">
+        <v>4</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>12</v>
+      </c>
+      <c r="B70" s="5">
+        <v>9</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" s="5">
+        <v>8</v>
+      </c>
+      <c r="F70" s="5">
+        <v>4</v>
+      </c>
+      <c r="G70" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>12</v>
+      </c>
+      <c r="B71" s="5">
+        <v>10</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="5">
+        <v>8</v>
+      </c>
+      <c r="F71" s="5">
+        <v>4</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>13</v>
+      </c>
+      <c r="B72" s="5">
+        <v>1</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="5">
+        <v>8</v>
+      </c>
+      <c r="F72" s="5">
+        <v>5</v>
+      </c>
+      <c r="G72" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>13</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" s="5">
+        <v>8</v>
+      </c>
+      <c r="F73" s="5">
+        <v>3</v>
+      </c>
+      <c r="G73" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
+        <v>13</v>
+      </c>
+      <c r="B74" s="5">
+        <v>3</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" s="5">
+        <v>8</v>
+      </c>
+      <c r="F74" s="5">
+        <v>5</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
+        <v>13</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="5">
+        <v>8</v>
+      </c>
+      <c r="F75" s="5">
+        <v>3</v>
+      </c>
+      <c r="G75" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
+        <v>13</v>
+      </c>
+      <c r="B76" s="5">
+        <v>5</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8</v>
+      </c>
+      <c r="F76" s="5">
+        <v>5</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>14</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
+        <v>14</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E78" s="5">
+        <v>8</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3</v>
+      </c>
+      <c r="G78" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>14</v>
+      </c>
+      <c r="B79" s="5">
+        <v>3</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="5">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5">
+        <v>5</v>
+      </c>
+      <c r="G79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>14</v>
+      </c>
+      <c r="B80" s="5">
+        <v>4</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+      <c r="G80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>14</v>
+      </c>
+      <c r="B81" s="5">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8</v>
+      </c>
+      <c r="F81" s="5">
+        <v>5</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>15</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8</v>
+      </c>
+      <c r="F82" s="5">
+        <v>3</v>
+      </c>
+      <c r="G82" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>15</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="5">
+        <v>8</v>
+      </c>
+      <c r="F83" s="5">
+        <v>6</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>15</v>
+      </c>
+      <c r="B84" s="5">
+        <v>3</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E84" s="5">
+        <v>8</v>
+      </c>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>15</v>
+      </c>
+      <c r="B85" s="5">
+        <v>4</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="5">
+        <v>8</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>15</v>
+      </c>
+      <c r="B86" s="5">
+        <v>5</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" s="5">
+        <v>8</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>15</v>
+      </c>
+      <c r="B87" s="5">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="5">
+        <v>8</v>
+      </c>
+      <c r="F87" s="5">
+        <v>3</v>
+      </c>
+      <c r="G87" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>15</v>
+      </c>
+      <c r="B88" s="5">
+        <v>7</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="5">
+        <v>8</v>
+      </c>
+      <c r="F88" s="5">
+        <v>2</v>
+      </c>
+      <c r="G88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>15</v>
+      </c>
+      <c r="B89" s="5">
+        <v>8</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="5">
+        <v>8</v>
+      </c>
+      <c r="F89" s="5">
+        <v>1</v>
+      </c>
+      <c r="G89" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>16</v>
+      </c>
+      <c r="B90" s="5">
+        <v>1</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E90" s="5">
+        <v>10</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>16</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="5">
+        <v>9</v>
+      </c>
+      <c r="F91" s="5">
+        <v>7</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>16</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="5">
+        <v>9</v>
+      </c>
+      <c r="F92" s="5">
+        <v>2</v>
+      </c>
+      <c r="G92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>16</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="5">
+        <v>10</v>
+      </c>
+      <c r="F93" s="5">
+        <v>1</v>
+      </c>
+      <c r="G93" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>16</v>
+      </c>
+      <c r="B94" s="5">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="5">
+        <v>10</v>
+      </c>
+      <c r="F94" s="5">
+        <v>1</v>
+      </c>
+      <c r="G94" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>16</v>
+      </c>
+      <c r="B95" s="5">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="5">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>16</v>
+      </c>
+      <c r="B96" s="5">
+        <v>7</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="5">
+        <v>9</v>
+      </c>
+      <c r="F96" s="5">
+        <v>1</v>
+      </c>
+      <c r="G96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>16</v>
+      </c>
+      <c r="B97" s="5">
+        <v>8</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="5">
+        <v>10</v>
+      </c>
+      <c r="F97" s="5">
+        <v>1</v>
+      </c>
+      <c r="G97" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>16</v>
+      </c>
+      <c r="B98" s="5">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" s="5">
+        <v>9</v>
+      </c>
+      <c r="F98" s="5">
+        <v>7</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
+        <v>16</v>
+      </c>
+      <c r="B99" s="5">
+        <v>10</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="5">
+        <v>10</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1</v>
+      </c>
+      <c r="G99" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
+        <v>16</v>
+      </c>
+      <c r="B100" s="5">
+        <v>11</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="5">
+        <v>9</v>
+      </c>
+      <c r="F100" s="5">
+        <v>7</v>
+      </c>
+      <c r="G100" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
+        <v>16</v>
+      </c>
+      <c r="B101" s="5">
+        <v>12</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="5">
+        <v>9</v>
+      </c>
+      <c r="F101" s="5">
+        <v>2</v>
+      </c>
+      <c r="G101" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1828,7 +1827,7 @@
   <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2557,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:H78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8097,7 +8096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="278">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1092,6 +1092,54 @@
   </si>
   <si>
     <t>막상 변신할 생각하니까 약간 부끄러운데..///</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 간단한 하게 조작에 대해 설명해 줄게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 표시된 키들을 눌러 이동과 대쉬를 사용해봐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했어 은하야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 전투를 배워보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미를 만들어 줄테니 마음껏 공격해봐!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들을 표시하고 조작을 다 사용하면 포탈 활성화]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했어 은하야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 싸우기에 충분한거 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 연습하고 싶다면 남아서 더 연습해도 괜찮아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비가 끝나면 포탈로 들어가 영향력을 찾으러 가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아~</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2554,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I78"/>
+  <dimension ref="B1:I139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2853,7 +2901,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="F25" s="5">
         <v>8</v>
@@ -2877,7 +2925,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>200</v>
+        <v>267</v>
       </c>
       <c r="F26" s="5">
         <v>8</v>
@@ -2913,7 +2961,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="F28" s="5">
         <v>8</v>
@@ -2937,7 +2985,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F29" s="5">
         <v>8</v>
@@ -2961,7 +3009,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="F30" s="5">
         <v>8</v>
@@ -2975,77 +3023,77 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="5">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C31" s="5">
-        <v>4</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="5">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5">
-        <v>5</v>
-      </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="F32" s="5">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
+        <v>3</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="F33" s="5">
         <v>8</v>
       </c>
       <c r="G33" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="F34" s="5">
         <v>8</v>
@@ -3060,960 +3108,1188 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="5">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="5">
-        <v>3</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F35" s="5">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5">
-        <v>3</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="F36" s="5">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5">
         <v>6</v>
       </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
       <c r="D37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="5">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
+        <v>3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="5">
+        <v>4</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F89" s="5">
+        <v>8</v>
+      </c>
+      <c r="G89" s="5">
+        <v>3</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2</v>
+      </c>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="5">
+        <v>4</v>
+      </c>
+      <c r="C90" s="5">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" s="5">
+        <v>8</v>
+      </c>
+      <c r="G90" s="5">
+        <v>3</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2</v>
+      </c>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="5">
+        <v>4</v>
+      </c>
+      <c r="C91" s="5">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="5">
+        <v>8</v>
+      </c>
+      <c r="G91" s="5">
+        <v>3</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2</v>
+      </c>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="5">
+        <v>4</v>
+      </c>
+      <c r="C92" s="5">
+        <v>4</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="5">
+        <v>8</v>
+      </c>
+      <c r="G92" s="5">
+        <v>5</v>
+      </c>
+      <c r="H92" s="5">
+        <v>0</v>
+      </c>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="5">
+        <v>5</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="5">
+        <v>8</v>
+      </c>
+      <c r="G94" s="5">
+        <v>5</v>
+      </c>
+      <c r="H94" s="5">
+        <v>0</v>
+      </c>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="5">
+        <v>5</v>
+      </c>
+      <c r="C95" s="5">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F95" s="5">
+        <v>8</v>
+      </c>
+      <c r="G95" s="5">
+        <v>3</v>
+      </c>
+      <c r="H95" s="5">
+        <v>2</v>
+      </c>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="5">
+        <v>5</v>
+      </c>
+      <c r="C96" s="5">
+        <v>3</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" s="5">
+        <v>8</v>
+      </c>
+      <c r="G96" s="5">
+        <v>3</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="5">
+        <v>6</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="5">
-        <v>8</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F98" s="5">
+        <v>8</v>
+      </c>
+      <c r="G98" s="5">
         <v>5</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H98" s="5">
         <v>0</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="5">
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="5">
         <v>6</v>
       </c>
-      <c r="C38" s="5">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F38" s="5">
-        <v>8</v>
-      </c>
-      <c r="G38" s="5">
-        <v>3</v>
-      </c>
-      <c r="H38" s="5">
-        <v>2</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7" t="s">
+      <c r="F99" s="5">
+        <v>8</v>
+      </c>
+      <c r="G99" s="5">
+        <v>3</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="5">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="5">
         <v>7</v>
       </c>
-      <c r="C40" s="5">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F40" s="5">
-        <v>8</v>
-      </c>
-      <c r="G40" s="5">
-        <v>3</v>
-      </c>
-      <c r="H40" s="5">
-        <v>2</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="7" t="s">
+      <c r="F101" s="5">
+        <v>8</v>
+      </c>
+      <c r="G101" s="5">
+        <v>3</v>
+      </c>
+      <c r="H101" s="5">
+        <v>2</v>
+      </c>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="E102" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="5">
-        <v>8</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="5">
+        <v>8</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="5">
-        <v>8</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F103" s="5">
+        <v>8</v>
+      </c>
+      <c r="G103" s="5">
         <v>5</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H103" s="5">
         <v>0</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="5">
-        <v>8</v>
-      </c>
-      <c r="C43" s="5">
-        <v>2</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="5">
+        <v>8</v>
+      </c>
+      <c r="C104" s="5">
+        <v>2</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F43" s="5">
-        <v>8</v>
-      </c>
-      <c r="G43" s="5">
-        <v>3</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="5">
-        <v>8</v>
-      </c>
-      <c r="C44" s="5">
-        <v>3</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="F104" s="5">
+        <v>8</v>
+      </c>
+      <c r="G104" s="5">
+        <v>3</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2</v>
+      </c>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="5">
+        <v>8</v>
+      </c>
+      <c r="C105" s="5">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="5">
-        <v>8</v>
-      </c>
-      <c r="G44" s="5">
-        <v>3</v>
-      </c>
-      <c r="H44" s="5">
-        <v>2</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="5">
-        <v>8</v>
-      </c>
-      <c r="C45" s="5">
+      <c r="F105" s="5">
+        <v>8</v>
+      </c>
+      <c r="G105" s="5">
+        <v>3</v>
+      </c>
+      <c r="H105" s="5">
+        <v>2</v>
+      </c>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="5">
+        <v>8</v>
+      </c>
+      <c r="C106" s="5">
         <v>4</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D106" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F45" s="5">
-        <v>8</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F106" s="5">
+        <v>8</v>
+      </c>
+      <c r="G106" s="5">
         <v>5</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H106" s="5">
         <v>0</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7" t="s">
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="5">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="5">
         <v>9</v>
       </c>
-      <c r="C47" s="5">
-        <v>1</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F47" s="5">
-        <v>8</v>
-      </c>
-      <c r="G47" s="5">
-        <v>2</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="5">
+      <c r="F108" s="5">
+        <v>8</v>
+      </c>
+      <c r="G108" s="5">
+        <v>2</v>
+      </c>
+      <c r="H108" s="5">
+        <v>2</v>
+      </c>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="5">
         <v>9</v>
       </c>
-      <c r="C48" s="5">
-        <v>2</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="C109" s="5">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="5">
-        <v>8</v>
-      </c>
-      <c r="G48" s="5">
-        <v>2</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="5">
+      <c r="F109" s="5">
+        <v>8</v>
+      </c>
+      <c r="G109" s="5">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5">
+        <v>2</v>
+      </c>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="5">
         <v>9</v>
       </c>
-      <c r="C49" s="5">
-        <v>3</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="C110" s="5">
+        <v>3</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F49" s="5">
-        <v>8</v>
-      </c>
-      <c r="G49" s="5">
-        <v>1</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2</v>
-      </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7" t="s">
+      <c r="F110" s="5">
+        <v>8</v>
+      </c>
+      <c r="G110" s="5">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5">
+        <v>2</v>
+      </c>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="5">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
         <v>10</v>
       </c>
-      <c r="C51" s="5">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C112" s="5">
+        <v>1</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E112" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="5">
-        <v>8</v>
-      </c>
-      <c r="G51" s="5">
-        <v>3</v>
-      </c>
-      <c r="H51" s="5">
-        <v>2</v>
-      </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="5">
+      <c r="F112" s="5">
+        <v>8</v>
+      </c>
+      <c r="G112" s="5">
+        <v>3</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2</v>
+      </c>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
         <v>10</v>
       </c>
-      <c r="C52" s="5">
-        <v>2</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C113" s="5">
+        <v>2</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E113" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F52" s="5">
-        <v>8</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="F113" s="5">
+        <v>8</v>
+      </c>
+      <c r="G113" s="5">
         <v>5</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H113" s="5">
         <v>0</v>
       </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="5">
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
         <v>10</v>
       </c>
-      <c r="C53" s="5">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C114" s="5">
+        <v>3</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E114" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F53" s="5">
-        <v>8</v>
-      </c>
-      <c r="G53" s="5">
-        <v>3</v>
-      </c>
-      <c r="H53" s="5">
-        <v>2</v>
-      </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" s="5">
+      <c r="F114" s="5">
+        <v>8</v>
+      </c>
+      <c r="G114" s="5">
+        <v>3</v>
+      </c>
+      <c r="H114" s="5">
+        <v>2</v>
+      </c>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
         <v>10</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C115" s="5">
         <v>4</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E115" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F54" s="5">
-        <v>8</v>
-      </c>
-      <c r="G54" s="5">
-        <v>3</v>
-      </c>
-      <c r="H54" s="5">
-        <v>2</v>
-      </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="5">
+      <c r="F115" s="5">
+        <v>8</v>
+      </c>
+      <c r="G115" s="5">
+        <v>3</v>
+      </c>
+      <c r="H115" s="5">
+        <v>2</v>
+      </c>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
         <v>10</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C116" s="5">
         <v>5</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D116" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E116" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F55" s="5">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2</v>
-      </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7" t="s">
+      <c r="F116" s="5">
+        <v>8</v>
+      </c>
+      <c r="G116" s="5">
+        <v>3</v>
+      </c>
+      <c r="H116" s="5">
+        <v>2</v>
+      </c>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="5">
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
         <v>11</v>
       </c>
-      <c r="C57" s="5">
-        <v>1</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E118" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F57" s="5">
-        <v>8</v>
-      </c>
-      <c r="G57" s="5">
-        <v>3</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2</v>
-      </c>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="5">
+      <c r="F118" s="5">
+        <v>8</v>
+      </c>
+      <c r="G118" s="5">
+        <v>3</v>
+      </c>
+      <c r="H118" s="5">
+        <v>2</v>
+      </c>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
         <v>11</v>
       </c>
-      <c r="C58" s="5">
-        <v>2</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C119" s="5">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E119" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F58" s="5">
-        <v>8</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="F119" s="5">
+        <v>8</v>
+      </c>
+      <c r="G119" s="5">
         <v>6</v>
       </c>
-      <c r="H58" s="5">
-        <v>2</v>
-      </c>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="5">
+      <c r="H119" s="5">
+        <v>2</v>
+      </c>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
         <v>11</v>
       </c>
-      <c r="C59" s="5">
-        <v>3</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C120" s="5">
+        <v>3</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E120" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F59" s="5">
-        <v>8</v>
-      </c>
-      <c r="G59" s="5">
-        <v>1</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="F120" s="5">
+        <v>8</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1</v>
+      </c>
+      <c r="H120" s="5">
         <v>0</v>
       </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="5">
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
         <v>11</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C121" s="5">
         <v>4</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D121" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E121" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="5">
-        <v>8</v>
-      </c>
-      <c r="G60" s="5">
-        <v>1</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2</v>
-      </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="5">
+      <c r="F121" s="5">
+        <v>8</v>
+      </c>
+      <c r="G121" s="5">
+        <v>1</v>
+      </c>
+      <c r="H121" s="5">
+        <v>2</v>
+      </c>
+      <c r="I121" s="7"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
         <v>11</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C122" s="5">
         <v>5</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D122" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E122" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F61" s="5">
-        <v>8</v>
-      </c>
-      <c r="G61" s="5">
-        <v>1</v>
-      </c>
-      <c r="H61" s="5">
+      <c r="F122" s="5">
+        <v>8</v>
+      </c>
+      <c r="G122" s="5">
+        <v>1</v>
+      </c>
+      <c r="H122" s="5">
         <v>0</v>
       </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="7" t="s">
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="5">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
         <v>12</v>
       </c>
-      <c r="C63" s="5">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C124" s="5">
+        <v>1</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E124" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="5">
-        <v>8</v>
-      </c>
-      <c r="G63" s="5">
-        <v>3</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2</v>
-      </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="5">
+      <c r="F124" s="5">
+        <v>8</v>
+      </c>
+      <c r="G124" s="5">
+        <v>3</v>
+      </c>
+      <c r="H124" s="5">
+        <v>2</v>
+      </c>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
         <v>12</v>
       </c>
-      <c r="C64" s="5">
-        <v>2</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C125" s="5">
+        <v>2</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E125" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="5">
-        <v>8</v>
-      </c>
-      <c r="G64" s="5">
-        <v>3</v>
-      </c>
-      <c r="H64" s="5">
-        <v>2</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="5">
+      <c r="F125" s="5">
+        <v>8</v>
+      </c>
+      <c r="G125" s="5">
+        <v>3</v>
+      </c>
+      <c r="H125" s="5">
+        <v>2</v>
+      </c>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
         <v>12</v>
       </c>
-      <c r="C65" s="5">
-        <v>3</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C126" s="5">
+        <v>3</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E126" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F65" s="5">
-        <v>8</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F126" s="5">
+        <v>8</v>
+      </c>
+      <c r="G126" s="5">
         <v>5</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H126" s="5">
         <v>0</v>
       </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="5">
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
         <v>12</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C127" s="5">
         <v>4</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D127" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E127" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F66" s="5">
-        <v>8</v>
-      </c>
-      <c r="G66" s="5">
-        <v>3</v>
-      </c>
-      <c r="H66" s="5">
-        <v>2</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="5">
+      <c r="F127" s="5">
+        <v>8</v>
+      </c>
+      <c r="G127" s="5">
+        <v>3</v>
+      </c>
+      <c r="H127" s="5">
+        <v>2</v>
+      </c>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
         <v>12</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C128" s="5">
         <v>5</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E128" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F67" s="5">
-        <v>8</v>
-      </c>
-      <c r="G67" s="5">
-        <v>3</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="5">
+      <c r="F128" s="5">
+        <v>8</v>
+      </c>
+      <c r="G128" s="5">
+        <v>3</v>
+      </c>
+      <c r="H128" s="5">
+        <v>2</v>
+      </c>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
         <v>12</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C129" s="5">
         <v>6</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E129" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F68" s="5">
-        <v>8</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="F129" s="5">
+        <v>8</v>
+      </c>
+      <c r="G129" s="5">
         <v>4</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H129" s="5">
         <v>0</v>
       </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="5">
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
         <v>12</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C130" s="5">
         <v>7</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E130" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F69" s="5">
-        <v>8</v>
-      </c>
-      <c r="G69" s="5">
+      <c r="F130" s="5">
+        <v>8</v>
+      </c>
+      <c r="G130" s="5">
         <v>4</v>
       </c>
-      <c r="H69" s="5">
-        <v>2</v>
-      </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="5">
+      <c r="H130" s="5">
+        <v>2</v>
+      </c>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
         <v>12</v>
       </c>
-      <c r="C70" s="5">
-        <v>8</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C131" s="5">
+        <v>8</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E131" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="5">
-        <v>8</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F131" s="5">
+        <v>8</v>
+      </c>
+      <c r="G131" s="5">
         <v>4</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H131" s="5">
         <v>0</v>
       </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="5">
+      <c r="I131" s="7"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
         <v>12</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C132" s="5">
         <v>9</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D132" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E132" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="5">
-        <v>8</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="F132" s="5">
+        <v>8</v>
+      </c>
+      <c r="G132" s="5">
         <v>4</v>
       </c>
-      <c r="H71" s="5">
-        <v>2</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="5">
+      <c r="H132" s="5">
+        <v>2</v>
+      </c>
+      <c r="I132" s="7"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
         <v>12</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C133" s="5">
         <v>10</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D133" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E133" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F72" s="5">
-        <v>8</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="F133" s="5">
+        <v>8</v>
+      </c>
+      <c r="G133" s="5">
         <v>4</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H133" s="5">
         <v>0</v>
       </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="7" t="s">
+      <c r="I133" s="7"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" s="5">
-        <v>13</v>
-      </c>
-      <c r="C74" s="5">
-        <v>1</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="7" t="s">
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="7"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="5">
+        <v>13</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F74" s="5">
-        <v>8</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="F135" s="5">
+        <v>8</v>
+      </c>
+      <c r="G135" s="5">
         <v>5</v>
       </c>
-      <c r="H74" s="5">
-        <v>2</v>
-      </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" s="5">
-        <v>13</v>
-      </c>
-      <c r="C75" s="5">
-        <v>2</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="7" t="s">
+      <c r="H135" s="5">
+        <v>2</v>
+      </c>
+      <c r="I135" s="7"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="5">
+        <v>13</v>
+      </c>
+      <c r="C136" s="5">
+        <v>2</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="5">
-        <v>8</v>
-      </c>
-      <c r="G75" s="5">
-        <v>3</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2</v>
-      </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="5">
-        <v>13</v>
-      </c>
-      <c r="C76" s="5">
-        <v>3</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="F136" s="5">
+        <v>8</v>
+      </c>
+      <c r="G136" s="5">
+        <v>3</v>
+      </c>
+      <c r="H136" s="5">
+        <v>2</v>
+      </c>
+      <c r="I136" s="7"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="5">
+        <v>13</v>
+      </c>
+      <c r="C137" s="5">
+        <v>3</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E137" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="5">
-        <v>8</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="F137" s="5">
+        <v>8</v>
+      </c>
+      <c r="G137" s="5">
         <v>5</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H137" s="5">
         <v>0</v>
       </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="5">
-        <v>13</v>
-      </c>
-      <c r="C77" s="5">
+      <c r="I137" s="7"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="5">
+        <v>13</v>
+      </c>
+      <c r="C138" s="5">
         <v>4</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="7" t="s">
+      <c r="D138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F77" s="5">
-        <v>8</v>
-      </c>
-      <c r="G77" s="5">
-        <v>3</v>
-      </c>
-      <c r="H77" s="5">
-        <v>2</v>
-      </c>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="5">
-        <v>13</v>
-      </c>
-      <c r="C78" s="5">
+      <c r="F138" s="5">
+        <v>8</v>
+      </c>
+      <c r="G138" s="5">
+        <v>3</v>
+      </c>
+      <c r="H138" s="5">
+        <v>2</v>
+      </c>
+      <c r="I138" s="7"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>13</v>
+      </c>
+      <c r="C139" s="5">
         <v>5</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D139" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E139" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F78" s="5">
-        <v>8</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="F139" s="5">
+        <v>8</v>
+      </c>
+      <c r="G139" s="5">
         <v>5</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H139" s="5">
         <v>0</v>
       </c>
-      <c r="I78" s="7"/>
+      <c r="I139" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="CVS" sheetId="8" r:id="rId7"/>
     <sheet name="1" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1140,6 +1141,14 @@
   </si>
   <si>
     <t>고마워 지팡아~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1870,12 +1879,1798 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="73.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7">
+        <v>14</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="5">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="5">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="5">
+        <v>8</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="5">
+        <v>8</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5">
+        <v>8</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="5">
+        <v>8</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="5">
+        <v>8</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="5">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="5">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>8</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>3</v>
+      </c>
+      <c r="B34" s="5">
+        <v>9</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="5">
+        <v>8</v>
+      </c>
+      <c r="F34" s="5">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8</v>
+      </c>
+      <c r="F35" s="5">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8</v>
+      </c>
+      <c r="F36" s="5">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E37" s="5">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>5</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="5">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E39" s="5">
+        <v>8</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
+      <c r="H39" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>5</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E40" s="5">
+        <v>8</v>
+      </c>
+      <c r="F40" s="5">
+        <v>3</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+      <c r="H40" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>5</v>
+      </c>
+      <c r="B41" s="5">
+        <v>4</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="5">
+        <v>8</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E42" s="5">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>5</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="5">
+        <v>8</v>
+      </c>
+      <c r="F43" s="5">
+        <v>3</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>6</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="5">
+        <v>8</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>6</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="5">
+        <v>8</v>
+      </c>
+      <c r="F45" s="5">
+        <v>3</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>6</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="5">
+        <v>8</v>
+      </c>
+      <c r="F46" s="5">
+        <v>5</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="5">
+        <v>8</v>
+      </c>
+      <c r="F47" s="5">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2</v>
+      </c>
+      <c r="H47" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="5">
+        <v>8</v>
+      </c>
+      <c r="F48" s="5">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
+        <v>7</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="5">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5">
+        <v>3</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2</v>
+      </c>
+      <c r="H49" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
+        <v>7</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E50" s="5">
+        <v>8</v>
+      </c>
+      <c r="F50" s="5">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
+        <v>7</v>
+      </c>
+      <c r="B51" s="7">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="5">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
+        <v>7</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="5">
+        <v>8</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="5">
+        <v>8</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8</v>
+      </c>
+      <c r="F54" s="5">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>7</v>
+      </c>
+      <c r="B55" s="7">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="5">
+        <v>8</v>
+      </c>
+      <c r="F55" s="5">
+        <v>2</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>8</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="5">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14">
+        <v>3</v>
+      </c>
+      <c r="H57" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>8</v>
+      </c>
+      <c r="B58" s="7">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="5">
+        <v>9</v>
+      </c>
+      <c r="F58" s="5">
+        <v>7</v>
+      </c>
+      <c r="G58" s="5">
+        <v>1</v>
+      </c>
+      <c r="H58" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>8</v>
+      </c>
+      <c r="B59" s="7">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="5">
+        <v>9</v>
+      </c>
+      <c r="F59" s="5">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>8</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="5">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>3</v>
+      </c>
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>8</v>
+      </c>
+      <c r="B61" s="7">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="5">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>3</v>
+      </c>
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>8</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="5">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
+        <v>3</v>
+      </c>
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>8</v>
+      </c>
+      <c r="B63" s="7">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="5">
+        <v>9</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>8</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="5">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>3</v>
+      </c>
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>8</v>
+      </c>
+      <c r="B65" s="7">
+        <v>9</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="5">
+        <v>9</v>
+      </c>
+      <c r="F65" s="5">
+        <v>7</v>
+      </c>
+      <c r="G65" s="5">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="5">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="15">
+        <v>3</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>8</v>
+      </c>
+      <c r="B67" s="7">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="5">
+        <v>9</v>
+      </c>
+      <c r="F67" s="5">
+        <v>7</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>8</v>
+      </c>
+      <c r="B68" s="7">
+        <v>12</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="5">
+        <v>9</v>
+      </c>
+      <c r="F68" s="5">
+        <v>2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I47"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1888,7 +3683,8 @@
     <col min="6" max="6" width="17.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1971,26 +3767,26 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C18" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="12"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>186</v>
       </c>
@@ -2013,10 +3809,13 @@
         <v>188</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>1</v>
       </c>
@@ -2038,9 +3837,12 @@
       <c r="H24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
+        <v>9</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>1</v>
       </c>
@@ -2062,9 +3864,12 @@
       <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <v>6</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>1</v>
       </c>
@@ -2086,9 +3891,12 @@
       <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>1</v>
       </c>
@@ -2110,9 +3918,12 @@
       <c r="H27" s="5">
         <v>2</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>1</v>
       </c>
@@ -2131,14 +3942,16 @@
       <c r="G28" s="5">
         <v>6</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>12</v>
@@ -2155,14 +3968,17 @@
       <c r="H29" s="5">
         <v>0</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>13</v>
@@ -2179,14 +3995,17 @@
       <c r="H30" s="5">
         <v>2</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>11</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>13</v>
@@ -2203,14 +4022,17 @@
       <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>2</v>
       </c>
       <c r="C32" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>12</v>
@@ -2227,14 +4049,17 @@
       <c r="H32" s="5">
         <v>0</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>2</v>
       </c>
       <c r="C33" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>13</v>
@@ -2251,14 +4076,17 @@
       <c r="H33" s="5">
         <v>2</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="5">
+        <v>10</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>2</v>
       </c>
       <c r="C34" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>12</v>
@@ -2275,14 +4103,17 @@
       <c r="H34" s="5">
         <v>0</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>2</v>
       </c>
       <c r="C35" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>13</v>
@@ -2299,14 +4130,17 @@
       <c r="H35" s="5">
         <v>2</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <v>11</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>13</v>
@@ -2323,14 +4157,17 @@
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>2</v>
       </c>
       <c r="C37" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>12</v>
@@ -2347,14 +4184,17 @@
       <c r="H37" s="5">
         <v>0</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>2</v>
       </c>
       <c r="C38" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>13</v>
@@ -2371,14 +4211,17 @@
       <c r="H38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="5">
+        <v>8</v>
+      </c>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>2</v>
       </c>
       <c r="C39" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>13</v>
@@ -2395,14 +4238,17 @@
       <c r="H39" s="5">
         <v>2</v>
       </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>2</v>
       </c>
       <c r="C40" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>12</v>
@@ -2419,14 +4265,17 @@
       <c r="H40" s="5">
         <v>0</v>
       </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>2</v>
       </c>
       <c r="C41" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
@@ -2443,14 +4292,17 @@
       <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="5">
+        <v>8</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>2</v>
       </c>
       <c r="C42" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
@@ -2467,14 +4319,17 @@
       <c r="H42" s="5">
         <v>2</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="5">
+        <v>7</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>2</v>
       </c>
       <c r="C43" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>12</v>
@@ -2491,14 +4346,17 @@
       <c r="H43" s="5">
         <v>0</v>
       </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>2</v>
       </c>
       <c r="C44" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>12</v>
@@ -2515,14 +4373,17 @@
       <c r="H44" s="5">
         <v>0</v>
       </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>2</v>
       </c>
       <c r="C45" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
@@ -2539,14 +4400,17 @@
       <c r="H45" s="5">
         <v>2</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="5">
+        <v>11</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>2</v>
       </c>
       <c r="C46" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>39</v>
@@ -2563,14 +4427,17 @@
       <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>2</v>
       </c>
       <c r="C47" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>12</v>
@@ -2587,7 +4454,10 @@
       <c r="H47" s="5">
         <v>0</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2602,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I139"/>
+  <dimension ref="B1:J139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2618,7 +4488,8 @@
     <col min="6" max="6" width="18.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2696,7 +4567,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
         <v>186</v>
       </c>
@@ -2719,10 +4590,13 @@
         <v>188</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>3</v>
       </c>
@@ -2744,9 +4618,12 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>3</v>
       </c>
@@ -2768,9 +4645,12 @@
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>8</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>3</v>
       </c>
@@ -2792,9 +4672,12 @@
       <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>3</v>
       </c>
@@ -2816,9 +4699,12 @@
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>3</v>
       </c>
@@ -2840,9 +4726,12 @@
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>6</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>3</v>
       </c>
@@ -2864,9 +4753,12 @@
       <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>3</v>
       </c>
@@ -2888,9 +4780,12 @@
       <c r="H24" s="5">
         <v>0</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
+        <v>6</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>3</v>
       </c>
@@ -2912,9 +4807,12 @@
       <c r="H25" s="5">
         <v>2</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <v>9</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>3</v>
       </c>
@@ -2936,9 +4834,12 @@
       <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -2948,9 +4849,10 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="5"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>4</v>
       </c>
@@ -2972,9 +4874,12 @@
       <c r="H28" s="5">
         <v>2</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
+        <v>9</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>4</v>
       </c>
@@ -2996,9 +4901,12 @@
       <c r="H29" s="5">
         <v>2</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>4</v>
       </c>
@@ -3020,9 +4928,12 @@
       <c r="H30" s="5">
         <v>2</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
@@ -3032,11 +4943,12 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="5"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
@@ -3056,11 +4968,14 @@
       <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="5">
+        <v>10</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="5">
         <v>2</v>
@@ -3080,11 +4995,14 @@
       <c r="H33" s="5">
         <v>2</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="5">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="5">
         <v>3</v>
@@ -3104,11 +5022,14 @@
       <c r="H34" s="5">
         <v>2</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="5">
+        <v>8</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="5">
         <v>4</v>
@@ -3128,11 +5049,14 @@
       <c r="H35" s="5">
         <v>2</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5">
         <v>5</v>
@@ -3152,11 +5076,14 @@
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="5">
         <v>6</v>
@@ -3176,9 +5103,12 @@
       <c r="H37" s="5">
         <v>2</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" s="5">
         <v>4</v>
       </c>
@@ -3200,9 +5130,10 @@
       <c r="H89" s="5">
         <v>2</v>
       </c>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="5"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" s="5">
         <v>4</v>
       </c>
@@ -3224,9 +5155,10 @@
       <c r="H90" s="5">
         <v>2</v>
       </c>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="5"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" s="5">
         <v>4</v>
       </c>
@@ -3248,9 +5180,10 @@
       <c r="H91" s="5">
         <v>2</v>
       </c>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="5"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="5">
         <v>4</v>
       </c>
@@ -3272,9 +5205,10 @@
       <c r="H92" s="5">
         <v>0</v>
       </c>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="5"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -3284,9 +5218,10 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="5"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" s="5">
         <v>5</v>
       </c>
@@ -3308,9 +5243,10 @@
       <c r="H94" s="5">
         <v>0</v>
       </c>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="5"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95" s="5">
         <v>5</v>
       </c>
@@ -3332,9 +5268,10 @@
       <c r="H95" s="5">
         <v>2</v>
       </c>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="5"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B96" s="5">
         <v>5</v>
       </c>
@@ -3356,9 +5293,10 @@
       <c r="H96" s="5">
         <v>2</v>
       </c>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="5"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3367,9 +5305,10 @@
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="5"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B98" s="5">
         <v>6</v>
       </c>
@@ -3391,9 +5330,10 @@
       <c r="H98" s="5">
         <v>0</v>
       </c>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="5"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B99" s="5">
         <v>6</v>
       </c>
@@ -3415,9 +5355,10 @@
       <c r="H99" s="5">
         <v>2</v>
       </c>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="5"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3427,9 +5368,10 @@
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="5"/>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B101" s="5">
         <v>7</v>
       </c>
@@ -3451,9 +5393,10 @@
       <c r="H101" s="5">
         <v>2</v>
       </c>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="5"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="E102" s="7" t="s">
@@ -3462,9 +5405,10 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="5"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B103" s="5">
         <v>8</v>
       </c>
@@ -3486,9 +5430,10 @@
       <c r="H103" s="5">
         <v>0</v>
       </c>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="5"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B104" s="5">
         <v>8</v>
       </c>
@@ -3510,9 +5455,10 @@
       <c r="H104" s="5">
         <v>2</v>
       </c>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="5"/>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="5">
         <v>8</v>
       </c>
@@ -3534,9 +5480,10 @@
       <c r="H105" s="5">
         <v>2</v>
       </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="5"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B106" s="5">
         <v>8</v>
       </c>
@@ -3558,9 +5505,10 @@
       <c r="H106" s="5">
         <v>0</v>
       </c>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="5"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3570,9 +5518,10 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="5"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B108" s="5">
         <v>9</v>
       </c>
@@ -3594,9 +5543,10 @@
       <c r="H108" s="5">
         <v>2</v>
       </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="5"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B109" s="5">
         <v>9</v>
       </c>
@@ -3618,9 +5568,10 @@
       <c r="H109" s="5">
         <v>2</v>
       </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I109" s="5"/>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B110" s="5">
         <v>9</v>
       </c>
@@ -3642,9 +5593,10 @@
       <c r="H110" s="5">
         <v>2</v>
       </c>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I110" s="5"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3654,9 +5606,10 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="5"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B112" s="5">
         <v>10</v>
       </c>
@@ -3678,9 +5631,10 @@
       <c r="H112" s="5">
         <v>2</v>
       </c>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I112" s="5"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="5">
         <v>10</v>
       </c>
@@ -3702,9 +5656,10 @@
       <c r="H113" s="5">
         <v>0</v>
       </c>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="5"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="5">
         <v>10</v>
       </c>
@@ -3726,9 +5681,10 @@
       <c r="H114" s="5">
         <v>2</v>
       </c>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="5"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" s="5">
         <v>10</v>
       </c>
@@ -3750,9 +5706,10 @@
       <c r="H115" s="5">
         <v>2</v>
       </c>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="5"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" s="5">
         <v>10</v>
       </c>
@@ -3774,9 +5731,10 @@
       <c r="H116" s="5">
         <v>2</v>
       </c>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I116" s="5"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3785,9 +5743,10 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="5"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" s="5">
         <v>11</v>
       </c>
@@ -3809,9 +5768,10 @@
       <c r="H118" s="5">
         <v>2</v>
       </c>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="5"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" s="5">
         <v>11</v>
       </c>
@@ -3833,9 +5793,10 @@
       <c r="H119" s="5">
         <v>2</v>
       </c>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="5"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" s="5">
         <v>11</v>
       </c>
@@ -3857,9 +5818,10 @@
       <c r="H120" s="5">
         <v>0</v>
       </c>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="5"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B121" s="5">
         <v>11</v>
       </c>
@@ -3881,9 +5843,10 @@
       <c r="H121" s="5">
         <v>2</v>
       </c>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I121" s="5"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="5">
         <v>11</v>
       </c>
@@ -3905,9 +5868,10 @@
       <c r="H122" s="5">
         <v>0</v>
       </c>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="5"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
@@ -3917,9 +5881,10 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="5"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="5">
         <v>12</v>
       </c>
@@ -3941,9 +5906,10 @@
       <c r="H124" s="5">
         <v>2</v>
       </c>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="5"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" s="5">
         <v>12</v>
       </c>
@@ -3965,9 +5931,10 @@
       <c r="H125" s="5">
         <v>2</v>
       </c>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I125" s="5"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" s="5">
         <v>12</v>
       </c>
@@ -3989,9 +5956,10 @@
       <c r="H126" s="5">
         <v>0</v>
       </c>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="5"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" s="5">
         <v>12</v>
       </c>
@@ -4013,9 +5981,10 @@
       <c r="H127" s="5">
         <v>2</v>
       </c>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I127" s="5"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" s="5">
         <v>12</v>
       </c>
@@ -4037,9 +6006,10 @@
       <c r="H128" s="5">
         <v>2</v>
       </c>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I128" s="5"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" s="5">
         <v>12</v>
       </c>
@@ -4061,9 +6031,10 @@
       <c r="H129" s="5">
         <v>0</v>
       </c>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="5"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" s="5">
         <v>12</v>
       </c>
@@ -4085,9 +6056,10 @@
       <c r="H130" s="5">
         <v>2</v>
       </c>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="5"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" s="5">
         <v>12</v>
       </c>
@@ -4109,9 +6081,10 @@
       <c r="H131" s="5">
         <v>0</v>
       </c>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="5"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" s="5">
         <v>12</v>
       </c>
@@ -4133,9 +6106,10 @@
       <c r="H132" s="5">
         <v>2</v>
       </c>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="5"/>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" s="5">
         <v>12</v>
       </c>
@@ -4157,9 +6131,10 @@
       <c r="H133" s="5">
         <v>0</v>
       </c>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="5"/>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4169,9 +6144,10 @@
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="5"/>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" s="5">
         <v>13</v>
       </c>
@@ -4193,9 +6169,10 @@
       <c r="H135" s="5">
         <v>2</v>
       </c>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="5"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" s="5">
         <v>13</v>
       </c>
@@ -4217,9 +6194,10 @@
       <c r="H136" s="5">
         <v>2</v>
       </c>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="5"/>
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" s="5">
         <v>13</v>
       </c>
@@ -4241,9 +6219,10 @@
       <c r="H137" s="5">
         <v>0</v>
       </c>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="5"/>
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" s="5">
         <v>13</v>
       </c>
@@ -4265,9 +6244,10 @@
       <c r="H138" s="5">
         <v>2</v>
       </c>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="5"/>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" s="5">
         <v>13</v>
       </c>
@@ -4289,7 +6269,8 @@
       <c r="H139" s="5">
         <v>0</v>
       </c>
-      <c r="I139" s="7"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4304,10 +6285,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I20"/>
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H20"/>
+      <selection activeCell="B16" sqref="B16:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4320,69 +6301,70 @@
     <col min="6" max="6" width="17.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C13" s="12"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>186</v>
       </c>
@@ -4405,12 +6387,15 @@
         <v>188</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -4430,11 +6415,14 @@
       <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>8</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -4454,11 +6442,14 @@
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -4478,11 +6469,14 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C19" s="7">
         <v>4</v>
@@ -4502,11 +6496,14 @@
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>9</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -4526,7 +6523,10 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4541,10 +6541,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H21"/>
+      <selection activeCell="B14" sqref="B14:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4557,63 +6557,64 @@
     <col min="6" max="6" width="18.75" style="8" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="8" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>186</v>
       </c>
@@ -4636,12 +6637,15 @@
         <v>188</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -4661,11 +6665,14 @@
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
+        <v>9</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -4685,11 +6692,14 @@
       <c r="H15" s="5">
         <v>0</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -4709,11 +6719,14 @@
       <c r="H16" s="5">
         <v>2</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -4733,11 +6746,14 @@
       <c r="H17" s="5">
         <v>2</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4757,11 +6773,14 @@
       <c r="H18" s="5">
         <v>0</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -4781,11 +6800,14 @@
       <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>11</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -4805,11 +6827,14 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -4829,7 +6854,10 @@
       <c r="H21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="5">
+        <v>8</v>
+      </c>
+      <c r="J21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4843,10 +6871,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H25"/>
+      <selection activeCell="B14" sqref="B14:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4859,63 +6887,64 @@
     <col min="6" max="6" width="18.625" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="17"/>
     </row>
-    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="2:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C11" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>186</v>
       </c>
@@ -4938,12 +6967,15 @@
         <v>188</v>
       </c>
       <c r="I13" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -4963,11 +6995,14 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" s="7">
         <v>2</v>
@@ -4987,11 +7022,14 @@
       <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="5">
+        <v>10</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C16" s="7">
         <v>3</v>
@@ -5011,11 +7049,14 @@
       <c r="H16" s="5">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" s="7">
         <v>4</v>
@@ -5035,11 +7076,14 @@
       <c r="H17" s="15">
         <v>3</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -5059,11 +7103,14 @@
       <c r="H18" s="15">
         <v>3</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
         <v>6</v>
@@ -5083,11 +7130,14 @@
       <c r="H19" s="15">
         <v>3</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" s="7">
         <v>7</v>
@@ -5107,11 +7157,14 @@
       <c r="H20" s="5">
         <v>0</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C21" s="7">
         <v>8</v>
@@ -5131,11 +7184,14 @@
       <c r="H21" s="15">
         <v>3</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" s="7">
         <v>9</v>
@@ -5155,11 +7211,14 @@
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>7</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C23" s="7">
         <v>10</v>
@@ -5179,11 +7238,14 @@
       <c r="H23" s="15">
         <v>3</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -5203,11 +7265,14 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="5">
+        <v>8</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C25" s="7">
         <v>12</v>
@@ -5227,7 +7292,10 @@
       <c r="H25" s="5">
         <v>0</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8373,7 +10441,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1096,27 +1096,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>화면에 표시된 키들을 눌러 이동과 대쉬를 사용해봐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 전투를 배워보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[텍스트 후 화면에 키들을 표시하고 조작을 다 사용하면 포탈 활성화]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>응!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Voice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이가…말을?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담소를 나누고 싶지만 아쉽게도 시간이 없어서 짧게 설명할게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 근처와 나를 보면 알겠지만 여긴 너의 꿈속이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이…. 떠다니고 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각내서 꿈의 주인인 너를 잡아 꿈을 차지하려고 하고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈? 꿈이라면 그냥 주는 것도…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안돼 은하야! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어째서?....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 빼앗기면 리리스가 꿈을 조종할 수 있게돼! 그러면 리리스는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너를 영원히 꿈속에서 재우고 현실의 몸을 차지할 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 괜찮아! 여긴 "너의 꿈"이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스가 뺏어가고 퍼트린 영향력을 되찾는다면! 충분히 이길 수 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가?....할 수 있을까? 상대는 악마잖아?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아! 내가 있잖아! 그리고 너두!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출거야?.....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래! 여기에 있는 동안에도 리리스 는 영향력을 차지하고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈"이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀 더 좋을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어? 그리고 보니 내 모습을 본 적이 없네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 모습이…윽! [옷을 보고 부끄러워함]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라? 잘 모르는 거야? 은하가 어릴 때 본 마법소ㄴ…….</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>으아아아아아아ㅏ앙! 알겠어! 거기까지만 해도 돼! 어서 가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>그럼 간단한 하게 조작에 대해 설명해 줄게</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>화면에 표시된 키들을 눌러 이동과 대쉬를 사용해봐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>잘했어 은하야!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이번엔 전투를 배워보자!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>더미를 만들어 줄테니 마음껏 공격해봐!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[텍스트 후 화면에 키들을 표시하고 조작을 다 사용하면 포탈 활성화]</t>
+    <t>더미를 만들어 줄 테니 마음껏 공격해봐!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1124,7 +1228,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이제 싸우기에 충분한거 같아!</t>
+    <t>이제 싸우기에 충분한 거 같아!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1136,19 +1240,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>응!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고마워 지팡아~</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목소리</t>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인 것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금 더 영향력을 모을 시간이 있을 것 같으니 조금 더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을 것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은 거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쉽게도 아니야 은하야~… 리리스는 부하를 부리기 때문에 점점 우리가 밀리게 될 거야~ㅠ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 되기 전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로….이길 수 있을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 할 수 있어! 해야만 해! 고마워 지팡아 이제 됐어 포탈을 열어줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스! 은하야! 저기 있는 녀석이 바로 리리스야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스 어째서 내 꿈에 들어온 거야?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음~~너무 당연한 걸 질문 하시는군요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈이 있길래 들어와서 '식사'를 하고 있을 뿐이에요~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 있어서 그런 건 아니랍니다? 후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>악의가 아니라고? 사람의 자아를 뺏어 몸을 조종하는 게?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후후.. 식사를 하는데 이유가 필요하나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야~악마에게는 인간의 상식이 통하지 않아….다른 방법이 없어 보여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1883,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1918,7 +2086,7 @@
         <v>198</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1958,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="E3" s="5">
         <v>8</v>
@@ -1981,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E4" s="5">
         <v>8</v>
@@ -2010,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="E5" s="5">
         <v>8</v>
@@ -2058,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="E7" s="5">
         <v>8</v>
@@ -2110,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="E9" s="5">
         <v>8</v>
@@ -2136,7 +2304,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -2162,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>
@@ -2188,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="E12" s="5">
         <v>8</v>
@@ -2214,7 +2382,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="E13" s="5">
         <v>8</v>
@@ -2240,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="E14" s="5">
         <v>8</v>
@@ -2292,7 +2460,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -2318,7 +2486,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="E17" s="5">
         <v>8</v>
@@ -2344,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="E18" s="5">
         <v>8</v>
@@ -2370,7 +2538,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -2396,7 +2564,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
@@ -2448,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="E22" s="5">
         <v>8</v>
@@ -2471,10 +2639,10 @@
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="E23" s="5">
         <v>8</v>
@@ -2497,7 +2665,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>199</v>
@@ -2578,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="E27" s="5">
         <v>8</v>
@@ -2604,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="E28" s="5">
         <v>8</v>
@@ -2630,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="E29" s="5">
         <v>8</v>
@@ -2656,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="E30" s="5">
         <v>8</v>
@@ -2679,10 +2847,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="E31" s="5">
         <v>8</v>
@@ -2705,10 +2873,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="E32" s="5">
         <v>8</v>
@@ -2734,7 +2902,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="E33" s="5">
         <v>8</v>
@@ -2760,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="5">
         <v>8</v>
@@ -2786,7 +2954,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="E35" s="5">
         <v>8</v>
@@ -2812,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E36" s="5">
         <v>8</v>
@@ -2838,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E37" s="5">
         <v>8</v>
@@ -2864,7 +3032,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="E38" s="5">
         <v>8</v>
@@ -2887,10 +3055,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="E39" s="5">
         <v>8</v>
@@ -2916,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="E40" s="5">
         <v>8</v>
@@ -2942,7 +3110,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="E41" s="5">
         <v>8</v>
@@ -2968,7 +3136,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="E42" s="5">
         <v>8</v>
@@ -2991,10 +3159,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="E43" s="5">
         <v>8</v>
@@ -3020,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="E44" s="5">
         <v>8</v>
@@ -3046,7 +3214,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="E45" s="5">
         <v>8</v>
@@ -3069,10 +3237,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="E46" s="5">
         <v>8</v>
@@ -3124,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="E48" s="5">
         <v>8</v>
@@ -3147,10 +3315,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="E49" s="5">
         <v>8</v>
@@ -3173,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="E50" s="5">
         <v>8</v>
@@ -3199,10 +3367,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="E51" s="5">
         <v>8</v>
@@ -3228,7 +3396,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="E52" s="5">
         <v>8</v>
@@ -3254,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="E53" s="5">
         <v>8</v>
@@ -3277,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>80</v>
@@ -3303,10 +3471,10 @@
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="E55" s="5">
         <v>8</v>
@@ -3329,10 +3497,10 @@
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E56" s="5">
         <v>8</v>
@@ -3358,7 +3526,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="E57" s="5">
         <v>10</v>
@@ -3381,10 +3549,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="E58" s="5">
         <v>9</v>
@@ -3410,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="E59" s="5">
         <v>9</v>
@@ -3436,7 +3604,7 @@
         <v>91</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="E60" s="5">
         <v>10</v>
@@ -3462,7 +3630,7 @@
         <v>26</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="E61" s="5">
         <v>10</v>
@@ -3488,7 +3656,7 @@
         <v>26</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="E62" s="5">
         <v>10</v>
@@ -3514,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="E63" s="5">
         <v>9</v>
@@ -3540,7 +3708,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="E64" s="5">
         <v>10</v>
@@ -3566,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="E65" s="5">
         <v>9</v>
@@ -3592,7 +3760,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="E66" s="5">
         <v>10</v>
@@ -3641,7 +3809,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>59</v>
@@ -3670,7 +3838,7 @@
   <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B24" sqref="B24:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3809,7 +3977,7 @@
         <v>188</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>3</v>
@@ -3853,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="F25" s="5">
         <v>8</v>
@@ -3880,7 +4048,7 @@
         <v>39</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="F26" s="5">
         <v>8</v>
@@ -3907,7 +4075,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="F27" s="5">
         <v>8</v>
@@ -3957,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="F29" s="5">
         <v>8</v>
@@ -4011,7 +4179,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="F31" s="5">
         <v>8</v>
@@ -4038,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="F32" s="5">
         <v>8</v>
@@ -4065,7 +4233,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="F33" s="5">
         <v>8</v>
@@ -4092,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="F34" s="5">
         <v>8</v>
@@ -4119,7 +4287,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="F35" s="5">
         <v>8</v>
@@ -4146,7 +4314,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="F36" s="5">
         <v>8</v>
@@ -4200,7 +4368,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="F38" s="5">
         <v>8</v>
@@ -4227,7 +4395,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="F39" s="5">
         <v>8</v>
@@ -4254,7 +4422,7 @@
         <v>12</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="F40" s="5">
         <v>8</v>
@@ -4281,7 +4449,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="F41" s="5">
         <v>8</v>
@@ -4308,7 +4476,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="F42" s="5">
         <v>8</v>
@@ -4362,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>134</v>
+        <v>287</v>
       </c>
       <c r="F44" s="5">
         <v>8</v>
@@ -4389,7 +4557,7 @@
         <v>39</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="F45" s="5">
         <v>8</v>
@@ -4474,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J139"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:I37"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4590,7 +4758,7 @@
         <v>188</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>3</v>
@@ -4634,7 +4802,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="F19" s="5">
         <v>8</v>
@@ -4661,7 +4829,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="F20" s="5">
         <v>8</v>
@@ -4688,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="F21" s="5">
         <v>8</v>
@@ -4715,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="F22" s="5">
         <v>8</v>
@@ -4742,7 +4910,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="F23" s="5">
         <v>8</v>
@@ -4769,7 +4937,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="F24" s="5">
         <v>8</v>
@@ -4796,7 +4964,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="F25" s="5">
         <v>8</v>
@@ -4823,7 +4991,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F26" s="5">
         <v>8</v>
@@ -4863,7 +5031,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="F28" s="5">
         <v>8</v>
@@ -4890,7 +5058,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F29" s="5">
         <v>8</v>
@@ -4917,7 +5085,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F30" s="5">
         <v>8</v>
@@ -4938,7 +5106,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -4957,7 +5125,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="F32" s="5">
         <v>8</v>
@@ -4984,7 +5152,7 @@
         <v>66</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="F33" s="5">
         <v>8</v>
@@ -5011,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="F34" s="5">
         <v>8</v>
@@ -5038,7 +5206,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F35" s="5">
         <v>8</v>
@@ -5065,7 +5233,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="F36" s="5">
         <v>8</v>
@@ -5092,7 +5260,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F37" s="5">
         <v>8</v>
@@ -6387,7 +6555,7 @@
         <v>188</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>3</v>
@@ -6404,7 +6572,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="F16" s="5">
         <v>8</v>
@@ -6431,7 +6599,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="F17" s="5">
         <v>8</v>
@@ -6458,7 +6626,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="F18" s="5">
         <v>8</v>
@@ -6637,7 +6805,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>74</v>
@@ -6654,7 +6822,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="F14" s="5">
         <v>8</v>
@@ -6681,7 +6849,7 @@
         <v>76</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="F15" s="5">
         <v>8</v>
@@ -6708,7 +6876,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="F16" s="5">
         <v>8</v>
@@ -6735,7 +6903,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="F17" s="5">
         <v>8</v>
@@ -6762,7 +6930,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="F18" s="5">
         <v>8</v>
@@ -6816,7 +6984,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="F20" s="5">
         <v>8</v>
@@ -6843,7 +7011,7 @@
         <v>39</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="F21" s="5">
         <v>8</v>
@@ -6967,7 +7135,7 @@
         <v>188</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>86</v>
@@ -6984,7 +7152,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="F14" s="5">
         <v>10</v>
@@ -7011,7 +7179,7 @@
         <v>88</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="F15" s="5">
         <v>9</v>
@@ -7038,7 +7206,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="F16" s="5">
         <v>9</v>
@@ -7065,7 +7233,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="F17" s="5">
         <v>10</v>
@@ -7092,7 +7260,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="F18" s="5">
         <v>10</v>
@@ -7119,7 +7287,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="F19" s="5">
         <v>10</v>
@@ -7146,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="F20" s="5">
         <v>9</v>
@@ -7173,7 +7341,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="F21" s="5">
         <v>10</v>
@@ -7200,7 +7368,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="F22" s="5">
         <v>9</v>
@@ -7227,7 +7395,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="F23" s="5">
         <v>10</v>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H68" sqref="A1:H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2126,7 +2126,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>8</v>
@@ -2135,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>6</v>
@@ -2152,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5">
         <v>8</v>
@@ -2178,7 +2178,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5">
         <v>8</v>
@@ -2212,8 +2212,12 @@
       <c r="F6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -2235,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>6</v>
@@ -2304,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5">
         <v>8</v>
@@ -2313,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5">
         <v>0</v>
@@ -2356,7 +2360,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5">
         <v>8</v>
@@ -2365,7 +2369,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5">
         <v>0</v>
@@ -2408,7 +2412,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>281</v>
+        <v>50</v>
       </c>
       <c r="E14" s="5">
         <v>8</v>
@@ -2443,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5">
         <v>6</v>
@@ -2460,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -2521,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5">
         <v>3</v>
@@ -2538,7 +2542,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
         <v>8</v>
@@ -2564,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
@@ -2599,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -2616,7 +2620,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>287</v>
+        <v>134</v>
       </c>
       <c r="E22" s="5">
         <v>8</v>
@@ -2625,7 +2629,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
         <v>0</v>
@@ -2694,7 +2698,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5">
         <v>8</v>
@@ -2703,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
@@ -2729,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
@@ -2746,7 +2750,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="E27" s="5">
         <v>8</v>
@@ -2807,7 +2811,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
@@ -2830,10 +2834,10 @@
         <v>8</v>
       </c>
       <c r="F30" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="5">
         <v>6</v>
@@ -2856,7 +2860,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -2882,10 +2886,10 @@
         <v>8</v>
       </c>
       <c r="F32" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="5">
         <v>6</v>
@@ -3032,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E38" s="5">
         <v>8</v>
@@ -3240,7 +3244,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="E46" s="5">
         <v>8</v>
@@ -3249,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="5">
         <v>5</v>
@@ -3301,7 +3305,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="5">
         <v>0</v>
@@ -3353,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="G50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="5">
         <v>0</v>
@@ -3431,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" s="5">
         <v>3</v>
@@ -3483,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="5">
         <v>0</v>
@@ -3500,7 +3504,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="E56" s="5">
         <v>8</v>
@@ -3526,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="E57" s="5">
         <v>10</v>
@@ -3535,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H57" s="14">
         <v>0</v>
@@ -3561,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="5">
         <v>10</v>
@@ -3587,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="5">
         <v>2</v>
@@ -3601,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>315</v>
@@ -3613,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H60" s="15">
         <v>0</v>
@@ -3639,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61" s="15">
         <v>0</v>
@@ -3665,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" s="15">
         <v>0</v>
@@ -3691,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5">
         <v>2</v>
@@ -3708,7 +3712,7 @@
         <v>26</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="E64" s="5">
         <v>10</v>
@@ -3717,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H64" s="15">
         <v>0</v>
@@ -3731,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>320</v>
@@ -3743,7 +3747,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" s="5">
         <v>7</v>
@@ -3760,7 +3764,7 @@
         <v>26</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="E66" s="5">
         <v>10</v>
@@ -3769,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H66" s="15">
         <v>0</v>
@@ -3795,7 +3799,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" s="5">
         <v>8</v>
@@ -3821,7 +3825,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="5">
         <v>0</v>
@@ -4030,7 +4034,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5">
         <v>6</v>
@@ -4110,8 +4114,12 @@
       <c r="G28" s="5">
         <v>6</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="5">
+        <v>2</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
@@ -4134,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5">
         <v>6</v>
@@ -4215,7 +4223,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
@@ -4269,7 +4277,7 @@
         <v>6</v>
       </c>
       <c r="H34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
         <v>0</v>
@@ -4350,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5">
         <v>6</v>
@@ -4431,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
         <v>3</v>
@@ -4512,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="5">
         <v>0</v>
@@ -4539,7 +4547,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="5">
         <v>0</v>
@@ -4620,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="5">
         <v>0</v>
@@ -4784,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -4865,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -4889,10 +4897,10 @@
         <v>8</v>
       </c>
       <c r="G22" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H22" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <v>6</v>
@@ -4916,7 +4924,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
@@ -4943,10 +4951,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="5">
         <v>6</v>
@@ -6635,7 +6643,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <v>5</v>
@@ -6689,7 +6697,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -6712,7 +6720,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6858,7 +6866,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -6939,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <v>3</v>
@@ -6993,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <v>0</v>
@@ -7042,7 +7050,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7161,7 +7169,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -7188,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="5">
         <v>10</v>
@@ -7215,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
         <v>2</v>
@@ -7242,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
@@ -7269,7 +7277,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
@@ -7296,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="15">
         <v>0</v>
@@ -7323,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -7350,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" s="15">
         <v>0</v>
@@ -7377,7 +7385,7 @@
         <v>7</v>
       </c>
       <c r="H22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="5">
         <v>7</v>
@@ -7404,7 +7412,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" s="15">
         <v>0</v>
@@ -7431,7 +7439,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" s="5">
         <v>8</v>
@@ -7458,7 +7466,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5">
         <v>0</v>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="325">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1317,6 +1317,18 @@
   </si>
   <si>
     <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 괜찮아! 여긴 '너의 꿈'이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 '너의 꿈'이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">있을까'가 아니야! 이길수'있어'! </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1479,7 +1491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1551,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2051,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H68" sqref="A1:H68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2464,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
@@ -2750,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="E27" s="5">
         <v>8</v>
@@ -3451,8 +3466,8 @@
       <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>80</v>
+      <c r="D54" s="20" t="s">
+        <v>324</v>
       </c>
       <c r="E54" s="5">
         <v>8</v>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="358">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1320,15 +1320,147 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하지만 괜찮아! 여긴 '너의 꿈'이야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여긴 '너의 꿈'이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">있을까'가 아니야! 이길수'있어'! </t>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1491,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,9 +1683,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2066,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2120,8 +2249,8 @@
       <c r="E2" s="5">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
+      <c r="F2" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
@@ -2143,8 +2272,8 @@
       <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="5">
-        <v>8</v>
+      <c r="E3" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="F3" s="5">
         <v>6</v>
@@ -2172,8 +2301,8 @@
       <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
-        <v>6</v>
+      <c r="F4" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -2193,13 +2322,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="E5" s="5">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
-        <v>6</v>
+      <c r="F5" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -2221,11 +2350,11 @@
       <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6</v>
+      <c r="E6" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="G6" s="5">
         <v>2</v>
@@ -2247,8 +2376,8 @@
       <c r="D7" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="5">
-        <v>8</v>
+      <c r="E7" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
@@ -2276,8 +2405,8 @@
       <c r="E8" s="5">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
-        <v>3</v>
+      <c r="F8" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -2302,8 +2431,8 @@
       <c r="E9" s="5">
         <v>8</v>
       </c>
-      <c r="F9" s="5">
-        <v>3</v>
+      <c r="F9" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G9" s="5">
         <v>2</v>
@@ -2325,8 +2454,8 @@
       <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5">
-        <v>8</v>
+      <c r="E10" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -2354,8 +2483,8 @@
       <c r="E11" s="5">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
-        <v>3</v>
+      <c r="F11" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -2377,8 +2506,8 @@
       <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="5">
-        <v>8</v>
+      <c r="E12" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="F12" s="5">
         <v>6</v>
@@ -2406,8 +2535,8 @@
       <c r="E13" s="5">
         <v>8</v>
       </c>
-      <c r="F13" s="5">
-        <v>1</v>
+      <c r="F13" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2432,8 +2561,8 @@
       <c r="E14" s="5">
         <v>8</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
+      <c r="F14" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
@@ -2455,8 +2584,8 @@
       <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5">
-        <v>8</v>
+      <c r="E15" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F15" s="5">
         <v>6</v>
@@ -2479,13 +2608,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>322</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <v>8</v>
       </c>
-      <c r="F16" s="5">
-        <v>3</v>
+      <c r="F16" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="G16" s="5">
         <v>2</v>
@@ -2510,8 +2639,8 @@
       <c r="E17" s="5">
         <v>8</v>
       </c>
-      <c r="F17" s="5">
-        <v>3</v>
+      <c r="F17" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="G17" s="5">
         <v>2</v>
@@ -2533,8 +2662,8 @@
       <c r="D18" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="5">
-        <v>8</v>
+      <c r="E18" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2562,8 +2691,8 @@
       <c r="E19" s="5">
         <v>8</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
+      <c r="F19" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -2588,8 +2717,8 @@
       <c r="E20" s="5">
         <v>8</v>
       </c>
-      <c r="F20" s="5">
-        <v>0</v>
+      <c r="F20" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
@@ -2611,8 +2740,8 @@
       <c r="D21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="5">
-        <v>8</v>
+      <c r="E21" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -2637,8 +2766,8 @@
       <c r="D22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="5">
-        <v>8</v>
+      <c r="E22" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -2666,8 +2795,8 @@
       <c r="E23" s="5">
         <v>8</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
+      <c r="F23" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="G23" s="5">
         <v>2</v>
@@ -2692,8 +2821,8 @@
       <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="F24" s="5">
-        <v>1</v>
+      <c r="F24" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="G24" s="5">
         <v>2</v>
@@ -2715,8 +2844,8 @@
       <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="5">
-        <v>8</v>
+      <c r="E25" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="F25" s="5">
         <v>2</v>
@@ -2741,8 +2870,8 @@
       <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5">
-        <v>8</v>
+      <c r="E26" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="F26" s="5">
         <v>3</v>
@@ -2765,13 +2894,13 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E27" s="5">
         <v>8</v>
       </c>
-      <c r="F27" s="5">
-        <v>1</v>
+      <c r="F27" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="G27" s="5">
         <v>2</v>
@@ -2796,8 +2925,8 @@
       <c r="E28" s="5">
         <v>8</v>
       </c>
-      <c r="F28" s="5">
-        <v>1</v>
+      <c r="F28" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
@@ -2819,8 +2948,8 @@
       <c r="D29" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="5">
-        <v>8</v>
+      <c r="E29" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F29" s="5">
         <v>3</v>
@@ -2845,8 +2974,8 @@
       <c r="D30" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="5">
-        <v>8</v>
+      <c r="E30" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
@@ -2874,8 +3003,8 @@
       <c r="E31" s="5">
         <v>8</v>
       </c>
-      <c r="F31" s="5">
-        <v>4</v>
+      <c r="F31" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -2897,8 +3026,8 @@
       <c r="D32" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E32" s="5">
-        <v>8</v>
+      <c r="E32" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="F32" s="5">
         <v>4</v>
@@ -2926,8 +3055,8 @@
       <c r="E33" s="5">
         <v>8</v>
       </c>
-      <c r="F33" s="5">
-        <v>3</v>
+      <c r="F33" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
@@ -2952,8 +3081,8 @@
       <c r="E34" s="5">
         <v>8</v>
       </c>
-      <c r="F34" s="5">
-        <v>3</v>
+      <c r="F34" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G34" s="5">
         <v>2</v>
@@ -2978,8 +3107,8 @@
       <c r="E35" s="5">
         <v>8</v>
       </c>
-      <c r="F35" s="5">
-        <v>3</v>
+      <c r="F35" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G35" s="5">
         <v>2</v>
@@ -3004,8 +3133,8 @@
       <c r="E36" s="5">
         <v>8</v>
       </c>
-      <c r="F36" s="5">
-        <v>3</v>
+      <c r="F36" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="G36" s="5">
         <v>2</v>
@@ -3030,8 +3159,8 @@
       <c r="E37" s="5">
         <v>8</v>
       </c>
-      <c r="F37" s="5">
-        <v>3</v>
+      <c r="F37" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="G37" s="5">
         <v>2</v>
@@ -3051,13 +3180,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E38" s="5">
         <v>8</v>
       </c>
-      <c r="F38" s="5">
-        <v>3</v>
+      <c r="F38" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="G38" s="5">
         <v>2</v>
@@ -3079,8 +3208,8 @@
       <c r="D39" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="5">
-        <v>8</v>
+      <c r="E39" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="F39" s="5">
         <v>3</v>
@@ -3108,8 +3237,8 @@
       <c r="E40" s="5">
         <v>8</v>
       </c>
-      <c r="F40" s="5">
-        <v>3</v>
+      <c r="F40" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="G40" s="5">
         <v>2</v>
@@ -3134,8 +3263,8 @@
       <c r="E41" s="5">
         <v>8</v>
       </c>
-      <c r="F41" s="5">
-        <v>3</v>
+      <c r="F41" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G41" s="5">
         <v>2</v>
@@ -3160,8 +3289,8 @@
       <c r="E42" s="5">
         <v>8</v>
       </c>
-      <c r="F42" s="5">
-        <v>3</v>
+      <c r="F42" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
@@ -3183,8 +3312,8 @@
       <c r="D43" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="5">
-        <v>8</v>
+      <c r="E43" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F43" s="5">
         <v>3</v>
@@ -3212,8 +3341,8 @@
       <c r="E44" s="5">
         <v>8</v>
       </c>
-      <c r="F44" s="5">
-        <v>1</v>
+      <c r="F44" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G44" s="5">
         <v>2</v>
@@ -3238,8 +3367,8 @@
       <c r="E45" s="5">
         <v>8</v>
       </c>
-      <c r="F45" s="5">
-        <v>3</v>
+      <c r="F45" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="G45" s="5">
         <v>2</v>
@@ -3259,10 +3388,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="5">
-        <v>8</v>
+        <v>304</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="F46" s="5">
         <v>5</v>
@@ -3290,8 +3419,8 @@
       <c r="E47" s="5">
         <v>8</v>
       </c>
-      <c r="F47" s="5">
-        <v>3</v>
+      <c r="F47" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
@@ -3313,8 +3442,8 @@
       <c r="D48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="5">
-        <v>8</v>
+      <c r="E48" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="F48" s="5">
         <v>5</v>
@@ -3342,8 +3471,8 @@
       <c r="E49" s="5">
         <v>8</v>
       </c>
-      <c r="F49" s="5">
-        <v>3</v>
+      <c r="F49" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G49" s="5">
         <v>2</v>
@@ -3365,8 +3494,8 @@
       <c r="D50" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="5">
-        <v>8</v>
+      <c r="E50" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F50" s="5">
         <v>6</v>
@@ -3394,8 +3523,8 @@
       <c r="E51" s="5">
         <v>8</v>
       </c>
-      <c r="F51" s="5">
-        <v>1</v>
+      <c r="F51" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G51" s="5">
         <v>2</v>
@@ -3420,8 +3549,8 @@
       <c r="E52" s="5">
         <v>8</v>
       </c>
-      <c r="F52" s="5">
-        <v>1</v>
+      <c r="F52" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
@@ -3443,8 +3572,8 @@
       <c r="D53" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E53" s="5">
-        <v>8</v>
+      <c r="E53" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -3466,14 +3595,14 @@
       <c r="C54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>324</v>
+      <c r="D54" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E54" s="5">
         <v>8</v>
       </c>
-      <c r="F54" s="5">
-        <v>3</v>
+      <c r="F54" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="G54" s="5">
         <v>2</v>
@@ -3495,8 +3624,8 @@
       <c r="D55" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E55" s="5">
-        <v>8</v>
+      <c r="E55" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="F55" s="5">
         <v>2</v>
@@ -3519,13 +3648,13 @@
         <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="E56" s="5">
         <v>8</v>
       </c>
-      <c r="F56" s="5">
-        <v>1</v>
+      <c r="F56" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="G56" s="5">
         <v>2</v>
@@ -3545,13 +3674,13 @@
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="E57" s="5">
         <v>10</v>
       </c>
-      <c r="F57" s="5">
-        <v>1</v>
+      <c r="F57" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -3573,8 +3702,8 @@
       <c r="D58" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E58" s="5">
-        <v>9</v>
+      <c r="E58" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="F58" s="5">
         <v>7</v>
@@ -3599,8 +3728,8 @@
       <c r="D59" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="5">
-        <v>9</v>
+      <c r="E59" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="F59" s="5">
         <v>2</v>
@@ -3628,8 +3757,8 @@
       <c r="E60" s="5">
         <v>10</v>
       </c>
-      <c r="F60" s="5">
-        <v>1</v>
+      <c r="F60" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G60" s="15">
         <v>0</v>
@@ -3654,8 +3783,8 @@
       <c r="E61" s="5">
         <v>10</v>
       </c>
-      <c r="F61" s="5">
-        <v>1</v>
+      <c r="F61" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -3680,8 +3809,8 @@
       <c r="E62" s="5">
         <v>10</v>
       </c>
-      <c r="F62" s="5">
-        <v>1</v>
+      <c r="F62" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -3703,8 +3832,8 @@
       <c r="D63" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="5">
-        <v>9</v>
+      <c r="E63" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -3727,13 +3856,13 @@
         <v>26</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="E64" s="5">
         <v>10</v>
       </c>
-      <c r="F64" s="5">
-        <v>1</v>
+      <c r="F64" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -3750,13 +3879,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="5">
-        <v>9</v>
+      <c r="E65" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="F65" s="5">
         <v>7</v>
@@ -3784,8 +3913,8 @@
       <c r="E66" s="5">
         <v>10</v>
       </c>
-      <c r="F66" s="5">
-        <v>1</v>
+      <c r="F66" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="G66" s="15">
         <v>0</v>
@@ -3807,8 +3936,8 @@
       <c r="D67" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="5">
-        <v>9</v>
+      <c r="E67" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="F67" s="5">
         <v>7</v>
@@ -3833,8 +3962,8 @@
       <c r="D68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="5">
-        <v>9</v>
+      <c r="E68" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="F68" s="5">
         <v>2</v>
@@ -4018,8 +4147,8 @@
       <c r="F24" s="5">
         <v>8</v>
       </c>
-      <c r="G24" s="5">
-        <v>1</v>
+      <c r="G24" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
@@ -4042,8 +4171,8 @@
       <c r="E25" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="5">
-        <v>8</v>
+      <c r="F25" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="G25" s="5">
         <v>6</v>
@@ -4072,8 +4201,8 @@
       <c r="F26" s="5">
         <v>8</v>
       </c>
-      <c r="G26" s="5">
-        <v>6</v>
+      <c r="G26" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
@@ -4099,8 +4228,8 @@
       <c r="F27" s="5">
         <v>8</v>
       </c>
-      <c r="G27" s="5">
-        <v>6</v>
+      <c r="G27" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
@@ -4123,11 +4252,11 @@
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="5">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5">
-        <v>6</v>
+      <c r="F28" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -4150,8 +4279,8 @@
       <c r="E29" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="5">
-        <v>8</v>
+      <c r="F29" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G29" s="5">
         <v>6</v>
@@ -4180,8 +4309,8 @@
       <c r="F30" s="5">
         <v>8</v>
       </c>
-      <c r="G30" s="5">
-        <v>3</v>
+      <c r="G30" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -4207,8 +4336,8 @@
       <c r="F31" s="5">
         <v>8</v>
       </c>
-      <c r="G31" s="5">
-        <v>3</v>
+      <c r="G31" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
@@ -4231,8 +4360,8 @@
       <c r="E32" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F32" s="5">
-        <v>8</v>
+      <c r="F32" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G32" s="5">
         <v>3</v>
@@ -4261,8 +4390,8 @@
       <c r="F33" s="5">
         <v>8</v>
       </c>
-      <c r="G33" s="5">
-        <v>3</v>
+      <c r="G33" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
@@ -4285,8 +4414,8 @@
       <c r="E34" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F34" s="5">
-        <v>8</v>
+      <c r="F34" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="G34" s="5">
         <v>6</v>
@@ -4315,8 +4444,8 @@
       <c r="F35" s="5">
         <v>8</v>
       </c>
-      <c r="G35" s="5">
-        <v>1</v>
+      <c r="G35" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
@@ -4342,8 +4471,8 @@
       <c r="F36" s="5">
         <v>8</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
+      <c r="G36" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
@@ -4366,8 +4495,8 @@
       <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="5">
-        <v>8</v>
+      <c r="F37" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G37" s="5">
         <v>6</v>
@@ -4396,8 +4525,8 @@
       <c r="F38" s="5">
         <v>8</v>
       </c>
-      <c r="G38" s="5">
-        <v>3</v>
+      <c r="G38" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
@@ -4423,8 +4552,8 @@
       <c r="F39" s="5">
         <v>8</v>
       </c>
-      <c r="G39" s="5">
-        <v>3</v>
+      <c r="G39" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="H39" s="5">
         <v>2</v>
@@ -4447,8 +4576,8 @@
       <c r="E40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="5">
-        <v>8</v>
+      <c r="F40" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -4477,8 +4606,8 @@
       <c r="F41" s="5">
         <v>8</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
+      <c r="G41" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
@@ -4504,8 +4633,8 @@
       <c r="F42" s="5">
         <v>8</v>
       </c>
-      <c r="G42" s="5">
-        <v>0</v>
+      <c r="G42" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -4528,8 +4657,8 @@
       <c r="E43" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="5">
-        <v>8</v>
+      <c r="F43" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -4555,8 +4684,8 @@
       <c r="E44" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="5">
-        <v>8</v>
+      <c r="F44" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="G44" s="5">
         <v>2</v>
@@ -4585,8 +4714,8 @@
       <c r="F45" s="5">
         <v>8</v>
       </c>
-      <c r="G45" s="5">
-        <v>1</v>
+      <c r="G45" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
@@ -4612,8 +4741,8 @@
       <c r="F46" s="5">
         <v>8</v>
       </c>
-      <c r="G46" s="5">
-        <v>1</v>
+      <c r="G46" s="5" t="s">
+        <v>338</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
@@ -4636,8 +4765,8 @@
       <c r="E47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="5">
-        <v>8</v>
+      <c r="F47" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
@@ -4800,8 +4929,8 @@
       <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="5">
-        <v>8</v>
+      <c r="F18" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G18" s="5">
         <v>3</v>
@@ -4830,8 +4959,8 @@
       <c r="F19" s="5">
         <v>8</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
+      <c r="G19" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -4857,8 +4986,8 @@
       <c r="F20" s="5">
         <v>8</v>
       </c>
-      <c r="G20" s="5">
-        <v>1</v>
+      <c r="G20" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
@@ -4881,8 +5010,8 @@
       <c r="E21" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="5">
-        <v>8</v>
+      <c r="F21" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
@@ -4908,8 +5037,8 @@
       <c r="E22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="5">
-        <v>8</v>
+      <c r="F22" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G22" s="5">
         <v>4</v>
@@ -4938,8 +5067,8 @@
       <c r="F23" s="5">
         <v>8</v>
       </c>
-      <c r="G23" s="5">
-        <v>4</v>
+      <c r="G23" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
@@ -4962,8 +5091,8 @@
       <c r="E24" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F24" s="5">
-        <v>8</v>
+      <c r="F24" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="G24" s="5">
         <v>4</v>
@@ -4992,8 +5121,8 @@
       <c r="F25" s="5">
         <v>8</v>
       </c>
-      <c r="G25" s="5">
-        <v>3</v>
+      <c r="G25" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
@@ -5019,8 +5148,8 @@
       <c r="F26" s="5">
         <v>8</v>
       </c>
-      <c r="G26" s="5">
-        <v>3</v>
+      <c r="G26" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
@@ -5059,8 +5188,8 @@
       <c r="F28" s="5">
         <v>8</v>
       </c>
-      <c r="G28" s="5">
-        <v>3</v>
+      <c r="G28" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -5086,8 +5215,8 @@
       <c r="F29" s="5">
         <v>8</v>
       </c>
-      <c r="G29" s="5">
-        <v>3</v>
+      <c r="G29" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
@@ -5113,8 +5242,8 @@
       <c r="F30" s="5">
         <v>8</v>
       </c>
-      <c r="G30" s="5">
-        <v>3</v>
+      <c r="G30" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -5153,8 +5282,8 @@
       <c r="F32" s="5">
         <v>8</v>
       </c>
-      <c r="G32" s="5">
-        <v>3</v>
+      <c r="G32" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
@@ -5177,8 +5306,8 @@
       <c r="E33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="5">
-        <v>8</v>
+      <c r="F33" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="G33" s="5">
         <v>3</v>
@@ -5207,8 +5336,8 @@
       <c r="F34" s="5">
         <v>8</v>
       </c>
-      <c r="G34" s="5">
-        <v>3</v>
+      <c r="G34" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
@@ -5234,8 +5363,8 @@
       <c r="F35" s="5">
         <v>8</v>
       </c>
-      <c r="G35" s="5">
-        <v>3</v>
+      <c r="G35" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
@@ -5261,8 +5390,8 @@
       <c r="F36" s="5">
         <v>8</v>
       </c>
-      <c r="G36" s="5">
-        <v>3</v>
+      <c r="G36" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
@@ -5285,8 +5414,8 @@
       <c r="E37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="5">
-        <v>8</v>
+      <c r="F37" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G37" s="5">
         <v>3</v>
@@ -6600,8 +6729,8 @@
       <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
+      <c r="G16" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -6627,8 +6756,8 @@
       <c r="F17" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="5">
-        <v>3</v>
+      <c r="G17" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
@@ -6651,8 +6780,8 @@
       <c r="E18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="5">
-        <v>8</v>
+      <c r="F18" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
@@ -6681,8 +6810,8 @@
       <c r="F19" s="5">
         <v>8</v>
       </c>
-      <c r="G19" s="5">
-        <v>3</v>
+      <c r="G19" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -6705,8 +6834,8 @@
       <c r="E20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="5">
-        <v>8</v>
+      <c r="F20" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="G20" s="5">
         <v>5</v>
@@ -6735,7 +6864,7 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B14" sqref="B14:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6850,8 +6979,8 @@
       <c r="F14" s="5">
         <v>8</v>
       </c>
-      <c r="G14" s="5">
-        <v>3</v>
+      <c r="G14" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -6874,8 +7003,8 @@
       <c r="E15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F15" s="5">
-        <v>8</v>
+      <c r="F15" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G15" s="5">
         <v>6</v>
@@ -6904,8 +7033,8 @@
       <c r="F16" s="5">
         <v>8</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
+      <c r="G16" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -6931,8 +7060,8 @@
       <c r="F17" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
+      <c r="G17" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
@@ -6955,8 +7084,8 @@
       <c r="E18" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F18" s="5">
-        <v>8</v>
+      <c r="F18" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -6985,8 +7114,8 @@
       <c r="F19" s="5">
         <v>8</v>
       </c>
-      <c r="G19" s="5">
-        <v>3</v>
+      <c r="G19" s="5" t="s">
+        <v>350</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -7009,8 +7138,8 @@
       <c r="E20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="5">
-        <v>8</v>
+      <c r="F20" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
@@ -7039,8 +7168,8 @@
       <c r="F21" s="5">
         <v>8</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
+      <c r="G21" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
@@ -7065,7 +7194,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B14" sqref="B14:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7180,8 +7309,8 @@
       <c r="F14" s="5">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
-        <v>1</v>
+      <c r="G14" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -7204,8 +7333,8 @@
       <c r="E15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="5">
-        <v>9</v>
+      <c r="F15" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="G15" s="5">
         <v>7</v>
@@ -7231,8 +7360,8 @@
       <c r="E16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="5">
-        <v>9</v>
+      <c r="F16" s="5" t="s">
+        <v>353</v>
       </c>
       <c r="G16" s="5">
         <v>2</v>
@@ -7261,8 +7390,8 @@
       <c r="F17" s="5">
         <v>10</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
+      <c r="G17" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -7288,8 +7417,8 @@
       <c r="F18" s="5">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
-        <v>1</v>
+      <c r="G18" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -7315,8 +7444,8 @@
       <c r="F19" s="5">
         <v>10</v>
       </c>
-      <c r="G19" s="5">
-        <v>1</v>
+      <c r="G19" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -7339,8 +7468,8 @@
       <c r="E20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="5">
-        <v>9</v>
+      <c r="F20" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="G20" s="5">
         <v>1</v>
@@ -7369,8 +7498,8 @@
       <c r="F21" s="5">
         <v>10</v>
       </c>
-      <c r="G21" s="5">
-        <v>1</v>
+      <c r="G21" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -7393,8 +7522,8 @@
       <c r="E22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="5">
-        <v>9</v>
+      <c r="F22" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="G22" s="5">
         <v>7</v>
@@ -7423,8 +7552,8 @@
       <c r="F23" s="5">
         <v>10</v>
       </c>
-      <c r="G23" s="5">
-        <v>1</v>
+      <c r="G23" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="H23" s="15">
         <v>0</v>
@@ -7447,8 +7576,8 @@
       <c r="E24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="5">
-        <v>9</v>
+      <c r="F24" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="G24" s="5">
         <v>7</v>
@@ -7474,8 +7603,8 @@
       <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="5">
-        <v>9</v>
+      <c r="F25" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="G25" s="5">
         <v>2</v>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1317,150 +1317,6 @@
   </si>
   <si>
     <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2195,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2247,10 +2103,10 @@
         <v>37</v>
       </c>
       <c r="E2" s="5">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
       </c>
       <c r="G2" s="5">
         <v>2</v>
@@ -2270,13 +2126,13 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>323</v>
+        <v>272</v>
+      </c>
+      <c r="E3" s="5">
+        <v>17</v>
       </c>
       <c r="F3" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5">
         <v>1</v>
@@ -2293,16 +2149,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E4" s="5">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>324</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="5">
+        <v>14</v>
       </c>
       <c r="G4" s="5">
         <v>2</v>
@@ -2322,13 +2178,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>274</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>325</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14</v>
       </c>
       <c r="G5" s="5">
         <v>2</v>
@@ -2350,11 +2206,11 @@
       <c r="D6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>325</v>
+      <c r="E6" s="5">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5">
+        <v>14</v>
       </c>
       <c r="G6" s="5">
         <v>2</v>
@@ -2376,11 +2232,11 @@
       <c r="D7" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>327</v>
+      <c r="E7" s="5">
+        <v>17</v>
       </c>
       <c r="F7" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G7" s="5">
         <v>1</v>
@@ -2403,10 +2259,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="5">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>2</v>
@@ -2429,10 +2285,10 @@
         <v>276</v>
       </c>
       <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7</v>
       </c>
       <c r="G9" s="5">
         <v>2</v>
@@ -2452,13 +2308,13 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>327</v>
+        <v>277</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
       </c>
       <c r="F10" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -2481,10 +2337,10 @@
         <v>278</v>
       </c>
       <c r="E11" s="5">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>329</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7</v>
       </c>
       <c r="G11" s="5">
         <v>2</v>
@@ -2504,13 +2360,13 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>326</v>
+        <v>279</v>
+      </c>
+      <c r="E12" s="5">
+        <v>17</v>
       </c>
       <c r="F12" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -2533,10 +2389,10 @@
         <v>280</v>
       </c>
       <c r="E13" s="5">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
       </c>
       <c r="G13" s="5">
         <v>2</v>
@@ -2559,10 +2415,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="5">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>331</v>
+        <v>16</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
       </c>
       <c r="G14" s="5">
         <v>2</v>
@@ -2584,11 +2440,11 @@
       <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>327</v>
+      <c r="E15" s="5">
+        <v>17</v>
       </c>
       <c r="F15" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G15" s="5">
         <v>1</v>
@@ -2608,13 +2464,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="E16" s="5">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>332</v>
+        <v>16</v>
+      </c>
+      <c r="F16" s="5">
+        <v>7</v>
       </c>
       <c r="G16" s="5">
         <v>2</v>
@@ -2637,10 +2493,10 @@
         <v>283</v>
       </c>
       <c r="E17" s="5">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>333</v>
+        <v>16</v>
+      </c>
+      <c r="F17" s="5">
+        <v>7</v>
       </c>
       <c r="G17" s="5">
         <v>2</v>
@@ -2662,8 +2518,8 @@
       <c r="D18" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>334</v>
+      <c r="E18" s="5">
+        <v>17</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2686,13 +2542,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
       <c r="E19" s="5">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>335</v>
+        <v>16</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -2712,13 +2568,13 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="E20" s="5">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>336</v>
+        <v>16</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
       </c>
       <c r="G20" s="5">
         <v>2</v>
@@ -2740,11 +2596,11 @@
       <c r="D21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>334</v>
+      <c r="E21" s="5">
+        <v>17</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5">
         <v>1</v>
@@ -2766,11 +2622,11 @@
       <c r="D22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>334</v>
+      <c r="E22" s="5">
+        <v>17</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="5">
         <v>1</v>
@@ -2787,16 +2643,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>288</v>
       </c>
       <c r="E23" s="5">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>337</v>
+        <v>16</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
       </c>
       <c r="G23" s="5">
         <v>2</v>
@@ -2813,16 +2669,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E24" s="5">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>338</v>
+        <v>16</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
       </c>
       <c r="G24" s="5">
         <v>2</v>
@@ -2842,13 +2698,13 @@
         <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>339</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="5">
+        <v>17</v>
       </c>
       <c r="F25" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5">
         <v>1</v>
@@ -2870,11 +2726,11 @@
       <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>340</v>
+      <c r="E26" s="5">
+        <v>17</v>
       </c>
       <c r="F26" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
@@ -2897,10 +2753,10 @@
         <v>289</v>
       </c>
       <c r="E27" s="5">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="F27" s="5">
+        <v>3</v>
       </c>
       <c r="G27" s="5">
         <v>2</v>
@@ -2923,10 +2779,10 @@
         <v>290</v>
       </c>
       <c r="E28" s="5">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="F28" s="5">
+        <v>3</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
@@ -2948,11 +2804,11 @@
       <c r="D29" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>327</v>
+      <c r="E29" s="5">
+        <v>17</v>
       </c>
       <c r="F29" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G29" s="5">
         <v>1</v>
@@ -2974,11 +2830,11 @@
       <c r="D30" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>327</v>
+      <c r="E30" s="5">
+        <v>17</v>
       </c>
       <c r="F30" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G30" s="5">
         <v>1</v>
@@ -2995,16 +2851,16 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E31" s="5">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>341</v>
+        <v>16</v>
+      </c>
+      <c r="F31" s="5">
+        <v>9</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -3021,16 +2877,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>326</v>
+      <c r="E32" s="5">
+        <v>17</v>
       </c>
       <c r="F32" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G32" s="5">
         <v>1</v>
@@ -3053,10 +2909,10 @@
         <v>295</v>
       </c>
       <c r="E33" s="5">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>342</v>
+        <v>16</v>
+      </c>
+      <c r="F33" s="5">
+        <v>7</v>
       </c>
       <c r="G33" s="5">
         <v>2</v>
@@ -3079,10 +2935,10 @@
         <v>266</v>
       </c>
       <c r="E34" s="5">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F34" s="5">
+        <v>7</v>
       </c>
       <c r="G34" s="5">
         <v>2</v>
@@ -3105,10 +2961,10 @@
         <v>296</v>
       </c>
       <c r="E35" s="5">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F35" s="5">
+        <v>7</v>
       </c>
       <c r="G35" s="5">
         <v>2</v>
@@ -3131,10 +2987,10 @@
         <v>267</v>
       </c>
       <c r="E36" s="5">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>343</v>
+        <v>16</v>
+      </c>
+      <c r="F36" s="5">
+        <v>7</v>
       </c>
       <c r="G36" s="5">
         <v>2</v>
@@ -3157,10 +3013,10 @@
         <v>297</v>
       </c>
       <c r="E37" s="5">
-        <v>8</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7</v>
       </c>
       <c r="G37" s="5">
         <v>2</v>
@@ -3180,13 +3036,13 @@
         <v>13</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E38" s="5">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="F38" s="5">
+        <v>7</v>
       </c>
       <c r="G38" s="5">
         <v>2</v>
@@ -3203,16 +3059,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>345</v>
+      <c r="E39" s="5">
+        <v>17</v>
       </c>
       <c r="F39" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G39" s="5">
         <v>2</v>
@@ -3235,10 +3091,10 @@
         <v>299</v>
       </c>
       <c r="E40" s="5">
-        <v>8</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="F40" s="5">
+        <v>7</v>
       </c>
       <c r="G40" s="5">
         <v>2</v>
@@ -3261,10 +3117,10 @@
         <v>300</v>
       </c>
       <c r="E41" s="5">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F41" s="5">
+        <v>7</v>
       </c>
       <c r="G41" s="5">
         <v>2</v>
@@ -3287,10 +3143,10 @@
         <v>301</v>
       </c>
       <c r="E42" s="5">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F42" s="5">
+        <v>7</v>
       </c>
       <c r="G42" s="5">
         <v>2</v>
@@ -3307,16 +3163,16 @@
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>327</v>
+        <v>60</v>
+      </c>
+      <c r="E43" s="5">
+        <v>17</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G43" s="5">
         <v>2</v>
@@ -3339,10 +3195,10 @@
         <v>302</v>
       </c>
       <c r="E44" s="5">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="F44" s="5">
+        <v>3</v>
       </c>
       <c r="G44" s="5">
         <v>2</v>
@@ -3365,10 +3221,10 @@
         <v>303</v>
       </c>
       <c r="E45" s="5">
-        <v>8</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>346</v>
+        <v>16</v>
+      </c>
+      <c r="F45" s="5">
+        <v>7</v>
       </c>
       <c r="G45" s="5">
         <v>2</v>
@@ -3385,16 +3241,16 @@
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>347</v>
+        <v>70</v>
+      </c>
+      <c r="E46" s="5">
+        <v>17</v>
       </c>
       <c r="F46" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
@@ -3417,10 +3273,10 @@
         <v>71</v>
       </c>
       <c r="E47" s="5">
-        <v>8</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F47" s="5">
+        <v>7</v>
       </c>
       <c r="G47" s="5">
         <v>2</v>
@@ -3440,13 +3296,13 @@
         <v>12</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>348</v>
+        <v>60</v>
+      </c>
+      <c r="E48" s="5">
+        <v>17</v>
       </c>
       <c r="F48" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G48" s="5">
         <v>1</v>
@@ -3463,16 +3319,16 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>305</v>
       </c>
       <c r="E49" s="5">
-        <v>8</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="F49" s="5">
+        <v>7</v>
       </c>
       <c r="G49" s="5">
         <v>2</v>
@@ -3489,16 +3345,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>327</v>
+      <c r="E50" s="5">
+        <v>17</v>
       </c>
       <c r="F50" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G50" s="5">
         <v>1</v>
@@ -3515,16 +3371,16 @@
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>307</v>
       </c>
       <c r="E51" s="5">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3</v>
       </c>
       <c r="G51" s="5">
         <v>2</v>
@@ -3549,8 +3405,8 @@
       <c r="E52" s="5">
         <v>8</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>349</v>
+      <c r="F52" s="5">
+        <v>3</v>
       </c>
       <c r="G52" s="5">
         <v>2</v>
@@ -3572,8 +3428,8 @@
       <c r="D53" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>327</v>
+      <c r="E53" s="5">
+        <v>17</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -3593,16 +3449,16 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E54" s="5">
-        <v>8</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>350</v>
+        <v>16</v>
+      </c>
+      <c r="F54" s="5">
+        <v>7</v>
       </c>
       <c r="G54" s="5">
         <v>2</v>
@@ -3619,16 +3475,16 @@
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>327</v>
+      <c r="E55" s="5">
+        <v>17</v>
       </c>
       <c r="F55" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="5">
         <v>1</v>
@@ -3645,16 +3501,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>311</v>
+        <v>82</v>
       </c>
       <c r="E56" s="5">
-        <v>8</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>351</v>
+        <v>6</v>
+      </c>
+      <c r="F56" s="5">
+        <v>3</v>
       </c>
       <c r="G56" s="5">
         <v>2</v>
@@ -3674,13 +3530,13 @@
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="E57" s="5">
-        <v>10</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>349</v>
+        <v>20</v>
+      </c>
+      <c r="F57" s="5">
+        <v>3</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -3697,16 +3553,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>352</v>
+      <c r="E58" s="5">
+        <v>19</v>
       </c>
       <c r="F58" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G58" s="5">
         <v>2</v>
@@ -3728,11 +3584,11 @@
       <c r="D59" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>353</v>
+      <c r="E59" s="5">
+        <v>19</v>
       </c>
       <c r="F59" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G59" s="5">
         <v>1</v>
@@ -3749,16 +3605,16 @@
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>315</v>
       </c>
       <c r="E60" s="5">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>354</v>
+        <v>20</v>
+      </c>
+      <c r="F60" s="5">
+        <v>3</v>
       </c>
       <c r="G60" s="15">
         <v>0</v>
@@ -3781,10 +3637,10 @@
         <v>316</v>
       </c>
       <c r="E61" s="5">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>349</v>
+        <v>20</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3</v>
       </c>
       <c r="G61" s="15">
         <v>0</v>
@@ -3807,10 +3663,10 @@
         <v>317</v>
       </c>
       <c r="E62" s="5">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>330</v>
+        <v>20</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3</v>
       </c>
       <c r="G62" s="15">
         <v>0</v>
@@ -3832,11 +3688,11 @@
       <c r="D63" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>352</v>
+      <c r="E63" s="5">
+        <v>19</v>
       </c>
       <c r="F63" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" s="5">
         <v>1</v>
@@ -3856,13 +3712,13 @@
         <v>26</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="E64" s="5">
-        <v>10</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>322</v>
+        <v>20</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
       </c>
       <c r="G64" s="15">
         <v>0</v>
@@ -3884,11 +3740,11 @@
       <c r="D65" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>355</v>
+      <c r="E65" s="5">
+        <v>19</v>
       </c>
       <c r="F65" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G65" s="5">
         <v>2</v>
@@ -3911,10 +3767,10 @@
         <v>98</v>
       </c>
       <c r="E66" s="5">
-        <v>10</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>356</v>
+        <v>20</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3</v>
       </c>
       <c r="G66" s="15">
         <v>0</v>
@@ -3936,11 +3792,11 @@
       <c r="D67" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>352</v>
+      <c r="E67" s="5">
+        <v>19</v>
       </c>
       <c r="F67" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G67" s="5">
         <v>2</v>
@@ -3957,16 +3813,16 @@
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>357</v>
+      <c r="E68" s="5">
+        <v>19</v>
       </c>
       <c r="F68" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="5">
         <v>1</v>
@@ -3986,7 +3842,7 @@
   <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:I47"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4145,10 +4001,10 @@
         <v>37</v>
       </c>
       <c r="F24" s="5">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
@@ -4171,11 +4027,11 @@
       <c r="E25" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>323</v>
+      <c r="F25" s="5">
+        <v>17</v>
       </c>
       <c r="G25" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
@@ -4199,10 +4055,10 @@
         <v>273</v>
       </c>
       <c r="F26" s="5">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>324</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="5">
+        <v>14</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
@@ -4226,10 +4082,10 @@
         <v>274</v>
       </c>
       <c r="F27" s="5">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>325</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="5">
+        <v>14</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
@@ -4252,11 +4108,11 @@
       <c r="E28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>325</v>
+      <c r="F28" s="5">
+        <v>17</v>
+      </c>
+      <c r="G28" s="5">
+        <v>14</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -4279,11 +4135,11 @@
       <c r="E29" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>327</v>
+      <c r="F29" s="5">
+        <v>17</v>
       </c>
       <c r="G29" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H29" s="5">
         <v>1</v>
@@ -4307,10 +4163,10 @@
         <v>44</v>
       </c>
       <c r="F30" s="5">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="5">
+        <v>7</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -4334,10 +4190,10 @@
         <v>276</v>
       </c>
       <c r="F31" s="5">
-        <v>8</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G31" s="5">
+        <v>7</v>
       </c>
       <c r="H31" s="5">
         <v>2</v>
@@ -4360,11 +4216,11 @@
       <c r="E32" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>327</v>
+      <c r="F32" s="5">
+        <v>17</v>
       </c>
       <c r="G32" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H32" s="5">
         <v>1</v>
@@ -4388,10 +4244,10 @@
         <v>278</v>
       </c>
       <c r="F33" s="5">
-        <v>8</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>329</v>
+        <v>16</v>
+      </c>
+      <c r="G33" s="5">
+        <v>7</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
@@ -4414,11 +4270,11 @@
       <c r="E34" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>326</v>
+      <c r="F34" s="5">
+        <v>17</v>
       </c>
       <c r="G34" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H34" s="5">
         <v>1</v>
@@ -4442,10 +4298,10 @@
         <v>280</v>
       </c>
       <c r="F35" s="5">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="5">
+        <v>3</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
@@ -4469,10 +4325,10 @@
         <v>281</v>
       </c>
       <c r="F36" s="5">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>331</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
@@ -4495,11 +4351,11 @@
       <c r="E37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>327</v>
+      <c r="F37" s="5">
+        <v>17</v>
       </c>
       <c r="G37" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H37" s="5">
         <v>1</v>
@@ -4523,10 +4379,10 @@
         <v>282</v>
       </c>
       <c r="F38" s="5">
-        <v>8</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>332</v>
+        <v>16</v>
+      </c>
+      <c r="G38" s="5">
+        <v>7</v>
       </c>
       <c r="H38" s="5">
         <v>2</v>
@@ -4550,10 +4406,10 @@
         <v>283</v>
       </c>
       <c r="F39" s="5">
-        <v>8</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>333</v>
+        <v>16</v>
+      </c>
+      <c r="G39" s="5">
+        <v>7</v>
       </c>
       <c r="H39" s="5">
         <v>2</v>
@@ -4576,8 +4432,8 @@
       <c r="E40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>334</v>
+      <c r="F40" s="5">
+        <v>17</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -4604,10 +4460,10 @@
         <v>285</v>
       </c>
       <c r="F41" s="5">
-        <v>8</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>335</v>
+        <v>16</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1</v>
       </c>
       <c r="H41" s="5">
         <v>2</v>
@@ -4631,10 +4487,10 @@
         <v>286</v>
       </c>
       <c r="F42" s="5">
-        <v>8</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>336</v>
+        <v>16</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1</v>
       </c>
       <c r="H42" s="5">
         <v>2</v>
@@ -4657,11 +4513,11 @@
       <c r="E43" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>334</v>
+      <c r="F43" s="5">
+        <v>17</v>
       </c>
       <c r="G43" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
@@ -4684,11 +4540,11 @@
       <c r="E44" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>334</v>
+      <c r="F44" s="5">
+        <v>17</v>
       </c>
       <c r="G44" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H44" s="5">
         <v>1</v>
@@ -4712,10 +4568,10 @@
         <v>288</v>
       </c>
       <c r="F45" s="5">
-        <v>8</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>337</v>
+        <v>16</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3</v>
       </c>
       <c r="H45" s="5">
         <v>2</v>
@@ -4739,10 +4595,10 @@
         <v>199</v>
       </c>
       <c r="F46" s="5">
-        <v>8</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>338</v>
+        <v>16</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
@@ -4765,11 +4621,11 @@
       <c r="E47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>339</v>
+      <c r="F47" s="5">
+        <v>17</v>
       </c>
       <c r="G47" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H47" s="5">
         <v>1</v>
@@ -4929,11 +4785,11 @@
       <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>340</v>
+      <c r="F18" s="5">
+        <v>17</v>
       </c>
       <c r="G18" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -4957,10 +4813,10 @@
         <v>289</v>
       </c>
       <c r="F19" s="5">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -4984,10 +4840,10 @@
         <v>290</v>
       </c>
       <c r="F20" s="5">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>330</v>
+        <v>16</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
       </c>
       <c r="H20" s="5">
         <v>2</v>
@@ -5010,11 +4866,11 @@
       <c r="E21" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>327</v>
+      <c r="F21" s="5">
+        <v>17</v>
       </c>
       <c r="G21" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -5037,11 +4893,11 @@
       <c r="E22" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>327</v>
+      <c r="F22" s="5">
+        <v>17</v>
       </c>
       <c r="G22" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -5065,10 +4921,10 @@
         <v>293</v>
       </c>
       <c r="F23" s="5">
-        <v>8</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>341</v>
+        <v>16</v>
+      </c>
+      <c r="G23" s="5">
+        <v>9</v>
       </c>
       <c r="H23" s="5">
         <v>2</v>
@@ -5091,11 +4947,11 @@
       <c r="E24" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>326</v>
+      <c r="F24" s="5">
+        <v>17</v>
       </c>
       <c r="G24" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -5119,10 +4975,10 @@
         <v>295</v>
       </c>
       <c r="F25" s="5">
-        <v>8</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>342</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="5">
+        <v>7</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
@@ -5146,10 +5002,10 @@
         <v>266</v>
       </c>
       <c r="F26" s="5">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7</v>
       </c>
       <c r="H26" s="5">
         <v>2</v>
@@ -5186,10 +5042,10 @@
         <v>296</v>
       </c>
       <c r="F28" s="5">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G28" s="5">
+        <v>7</v>
       </c>
       <c r="H28" s="5">
         <v>2</v>
@@ -5213,10 +5069,10 @@
         <v>267</v>
       </c>
       <c r="F29" s="5">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>343</v>
+        <v>16</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
@@ -5240,10 +5096,10 @@
         <v>297</v>
       </c>
       <c r="F30" s="5">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="G30" s="5">
+        <v>7</v>
       </c>
       <c r="H30" s="5">
         <v>2</v>
@@ -5280,10 +5136,10 @@
         <v>298</v>
       </c>
       <c r="F32" s="5">
-        <v>8</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="G32" s="5">
+        <v>7</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
@@ -5306,11 +5162,11 @@
       <c r="E33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>345</v>
+      <c r="F33" s="5">
+        <v>17</v>
       </c>
       <c r="G33" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H33" s="5">
         <v>2</v>
@@ -5334,10 +5190,10 @@
         <v>299</v>
       </c>
       <c r="F34" s="5">
-        <v>8</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>344</v>
+        <v>16</v>
+      </c>
+      <c r="G34" s="5">
+        <v>7</v>
       </c>
       <c r="H34" s="5">
         <v>2</v>
@@ -5361,10 +5217,10 @@
         <v>300</v>
       </c>
       <c r="F35" s="5">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="5">
+        <v>7</v>
       </c>
       <c r="H35" s="5">
         <v>2</v>
@@ -5388,10 +5244,10 @@
         <v>301</v>
       </c>
       <c r="F36" s="5">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="5">
+        <v>7</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
@@ -5414,11 +5270,11 @@
       <c r="E37" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>327</v>
+      <c r="F37" s="5">
+        <v>17</v>
       </c>
       <c r="G37" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H37" s="5">
         <v>2</v>
@@ -6727,10 +6583,10 @@
         <v>302</v>
       </c>
       <c r="F16" s="5">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -6754,10 +6610,10 @@
         <v>303</v>
       </c>
       <c r="F17" s="5">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>346</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="5">
+        <v>7</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
@@ -6780,11 +6636,11 @@
       <c r="E18" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>347</v>
+      <c r="F18" s="5">
+        <v>17</v>
       </c>
       <c r="G18" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -6808,10 +6664,10 @@
         <v>71</v>
       </c>
       <c r="F19" s="5">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -6834,11 +6690,11 @@
       <c r="E20" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>348</v>
+      <c r="F20" s="5">
+        <v>17</v>
       </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -6977,10 +6833,10 @@
         <v>305</v>
       </c>
       <c r="F14" s="5">
-        <v>8</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>328</v>
+        <v>16</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
@@ -7003,11 +6859,11 @@
       <c r="E15" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>327</v>
+      <c r="F15" s="5">
+        <v>17</v>
       </c>
       <c r="G15" s="5">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -7031,10 +6887,10 @@
         <v>307</v>
       </c>
       <c r="F16" s="5">
-        <v>8</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>322</v>
+        <v>16</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
       </c>
       <c r="H16" s="5">
         <v>2</v>
@@ -7060,8 +6916,8 @@
       <c r="F17" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>349</v>
+      <c r="G17" s="5">
+        <v>3</v>
       </c>
       <c r="H17" s="5">
         <v>2</v>
@@ -7084,8 +6940,8 @@
       <c r="E18" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>327</v>
+      <c r="F18" s="5">
+        <v>17</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -7112,10 +6968,10 @@
         <v>80</v>
       </c>
       <c r="F19" s="5">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>350</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="5">
+        <v>7</v>
       </c>
       <c r="H19" s="5">
         <v>2</v>
@@ -7138,11 +6994,11 @@
       <c r="E20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>327</v>
+      <c r="F20" s="5">
+        <v>17</v>
       </c>
       <c r="G20" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -7166,10 +7022,10 @@
         <v>311</v>
       </c>
       <c r="F21" s="5">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>351</v>
+        <v>6</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
       </c>
       <c r="H21" s="5">
         <v>2</v>
@@ -7194,7 +7050,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:I25"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7307,10 +7163,10 @@
         <v>312</v>
       </c>
       <c r="F14" s="5">
-        <v>10</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>349</v>
+        <v>20</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -7333,11 +7189,11 @@
       <c r="E15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>352</v>
+      <c r="F15" s="5">
+        <v>19</v>
       </c>
       <c r="G15" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -7360,11 +7216,11 @@
       <c r="E16" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>353</v>
+      <c r="F16" s="5">
+        <v>19</v>
       </c>
       <c r="G16" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -7388,10 +7244,10 @@
         <v>315</v>
       </c>
       <c r="F17" s="5">
-        <v>10</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>354</v>
+        <v>20</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -7415,10 +7271,10 @@
         <v>316</v>
       </c>
       <c r="F18" s="5">
-        <v>10</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>349</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
       </c>
       <c r="H18" s="15">
         <v>0</v>
@@ -7442,10 +7298,10 @@
         <v>317</v>
       </c>
       <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>330</v>
+        <v>20</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3</v>
       </c>
       <c r="H19" s="15">
         <v>0</v>
@@ -7468,11 +7324,11 @@
       <c r="E20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>352</v>
+      <c r="F20" s="5">
+        <v>19</v>
       </c>
       <c r="G20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -7496,10 +7352,10 @@
         <v>319</v>
       </c>
       <c r="F21" s="5">
-        <v>10</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>322</v>
+        <v>20</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -7522,11 +7378,11 @@
       <c r="E22" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>355</v>
+      <c r="F22" s="5">
+        <v>19</v>
       </c>
       <c r="G22" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
@@ -7550,10 +7406,10 @@
         <v>321</v>
       </c>
       <c r="F23" s="5">
-        <v>10</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>356</v>
+        <v>20</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
       </c>
       <c r="H23" s="15">
         <v>0</v>
@@ -7576,11 +7432,11 @@
       <c r="E24" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>352</v>
+      <c r="F24" s="5">
+        <v>19</v>
       </c>
       <c r="G24" s="5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
@@ -7603,11 +7459,11 @@
       <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>357</v>
+      <c r="F25" s="5">
+        <v>19</v>
       </c>
       <c r="G25" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2051,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2103,7 +2103,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5">
         <v>3</v>
@@ -2126,10 +2126,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5">
         <v>13</v>
@@ -2149,13 +2149,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="5">
         <v>14</v>
@@ -2181,7 +2181,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="5">
         <v>14</v>
@@ -2207,7 +2207,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="5">
         <v>14</v>
@@ -2233,7 +2233,7 @@
         <v>275</v>
       </c>
       <c r="E7" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>13</v>
@@ -2259,7 +2259,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5">
         <v>7</v>
@@ -2285,7 +2285,7 @@
         <v>276</v>
       </c>
       <c r="E9" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5">
         <v>7</v>
@@ -2308,10 +2308,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <v>6</v>
@@ -2337,7 +2337,7 @@
         <v>278</v>
       </c>
       <c r="E11" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="5">
         <v>7</v>
@@ -2360,10 +2360,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>279</v>
+        <v>48</v>
       </c>
       <c r="E12" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="5">
         <v>12</v>
@@ -2389,7 +2389,7 @@
         <v>280</v>
       </c>
       <c r="E13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="5">
         <v>3</v>
@@ -2415,7 +2415,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="5">
         <v>3</v>
@@ -2441,7 +2441,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5">
         <v>12</v>
@@ -2464,10 +2464,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="5">
         <v>7</v>
@@ -2493,7 +2493,7 @@
         <v>283</v>
       </c>
       <c r="E17" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="5">
         <v>7</v>
@@ -2519,7 +2519,7 @@
         <v>284</v>
       </c>
       <c r="E18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -2568,10 +2568,10 @@
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="5">
         <v>2</v>
@@ -2614,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -2623,7 +2623,7 @@
         <v>134</v>
       </c>
       <c r="E22" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="5">
         <v>4</v>
@@ -2640,16 +2640,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>288</v>
       </c>
       <c r="E23" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
@@ -2669,13 +2669,13 @@
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>199</v>
       </c>
       <c r="E24" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
@@ -2698,10 +2698,10 @@
         <v>12</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
@@ -2727,7 +2727,7 @@
         <v>61</v>
       </c>
       <c r="E26" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="5">
         <v>6</v>
@@ -2750,10 +2750,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="E27" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" s="5">
         <v>3</v>
@@ -2779,7 +2779,7 @@
         <v>290</v>
       </c>
       <c r="E28" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="5">
         <v>3</v>
@@ -2805,7 +2805,7 @@
         <v>291</v>
       </c>
       <c r="E29" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F29" s="5">
         <v>6</v>
@@ -2831,7 +2831,7 @@
         <v>292</v>
       </c>
       <c r="E30" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F30" s="5">
         <v>8</v>
@@ -2851,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>293</v>
       </c>
       <c r="E31" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" s="5">
         <v>9</v>
@@ -2877,13 +2877,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>294</v>
       </c>
       <c r="E32" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" s="5">
         <v>8</v>
@@ -2909,7 +2909,7 @@
         <v>295</v>
       </c>
       <c r="E33" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" s="5">
         <v>7</v>
@@ -2935,7 +2935,7 @@
         <v>266</v>
       </c>
       <c r="E34" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" s="5">
         <v>7</v>
@@ -2961,7 +2961,7 @@
         <v>296</v>
       </c>
       <c r="E35" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="5">
         <v>7</v>
@@ -2987,7 +2987,7 @@
         <v>267</v>
       </c>
       <c r="E36" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" s="5">
         <v>7</v>
@@ -3013,7 +3013,7 @@
         <v>297</v>
       </c>
       <c r="E37" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" s="5">
         <v>7</v>
@@ -3039,7 +3039,7 @@
         <v>296</v>
       </c>
       <c r="E38" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" s="5">
         <v>7</v>
@@ -3059,13 +3059,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>236</v>
       </c>
       <c r="E39" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F39" s="5">
         <v>6</v>
@@ -3091,7 +3091,7 @@
         <v>299</v>
       </c>
       <c r="E40" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" s="5">
         <v>7</v>
@@ -3117,7 +3117,7 @@
         <v>300</v>
       </c>
       <c r="E41" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F41" s="5">
         <v>7</v>
@@ -3143,7 +3143,7 @@
         <v>301</v>
       </c>
       <c r="E42" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="5">
         <v>7</v>
@@ -3163,13 +3163,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F43" s="5">
         <v>6</v>
@@ -3195,7 +3195,7 @@
         <v>302</v>
       </c>
       <c r="E44" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5">
         <v>3</v>
@@ -3221,7 +3221,7 @@
         <v>303</v>
       </c>
       <c r="E45" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5">
         <v>7</v>
@@ -3241,13 +3241,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E46" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5">
         <v>10</v>
@@ -3273,7 +3273,7 @@
         <v>71</v>
       </c>
       <c r="E47" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F47" s="5">
         <v>7</v>
@@ -3296,10 +3296,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" s="5">
         <v>10</v>
@@ -3319,13 +3319,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>305</v>
       </c>
       <c r="E49" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="5">
         <v>7</v>
@@ -3345,13 +3345,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>306</v>
       </c>
       <c r="E50" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F50" s="5">
         <v>12</v>
@@ -3371,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>307</v>
       </c>
       <c r="E51" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F51" s="5">
         <v>3</v>
@@ -3403,7 +3403,7 @@
         <v>308</v>
       </c>
       <c r="E52" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F52" s="5">
         <v>3</v>
@@ -3429,7 +3429,7 @@
         <v>309</v>
       </c>
       <c r="E53" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -3449,13 +3449,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E54" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F54" s="5">
         <v>7</v>
@@ -3475,13 +3475,13 @@
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>310</v>
       </c>
       <c r="E55" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F55" s="5">
         <v>4</v>
@@ -3501,13 +3501,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F56" s="5">
         <v>3</v>
@@ -3553,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>313</v>
@@ -3562,7 +3562,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" s="5">
         <v>2</v>
@@ -3605,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>315</v>
@@ -3735,7 +3735,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>320</v>
@@ -3744,7 +3744,7 @@
         <v>19</v>
       </c>
       <c r="F65" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="5">
         <v>2</v>
@@ -3796,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="F67" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" s="5">
         <v>2</v>
@@ -3813,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>59</v>
@@ -3842,7 +3842,7 @@
   <dimension ref="B1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B24" sqref="B24:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4001,7 +4001,7 @@
         <v>37</v>
       </c>
       <c r="F24" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G24" s="5">
         <v>3</v>
@@ -4028,7 +4028,7 @@
         <v>272</v>
       </c>
       <c r="F25" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" s="5">
         <v>13</v>
@@ -4055,7 +4055,7 @@
         <v>273</v>
       </c>
       <c r="F26" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5">
         <v>14</v>
@@ -4082,7 +4082,7 @@
         <v>274</v>
       </c>
       <c r="F27" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="5">
         <v>14</v>
@@ -4109,7 +4109,7 @@
         <v>42</v>
       </c>
       <c r="F28" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5">
         <v>14</v>
@@ -4136,7 +4136,7 @@
         <v>275</v>
       </c>
       <c r="F29" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" s="5">
         <v>13</v>
@@ -4163,7 +4163,7 @@
         <v>44</v>
       </c>
       <c r="F30" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="5">
         <v>7</v>
@@ -4190,7 +4190,7 @@
         <v>276</v>
       </c>
       <c r="F31" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G31" s="5">
         <v>7</v>
@@ -4217,7 +4217,7 @@
         <v>277</v>
       </c>
       <c r="F32" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G32" s="5">
         <v>6</v>
@@ -4244,7 +4244,7 @@
         <v>278</v>
       </c>
       <c r="F33" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G33" s="5">
         <v>7</v>
@@ -4271,7 +4271,7 @@
         <v>279</v>
       </c>
       <c r="F34" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" s="5">
         <v>12</v>
@@ -4298,7 +4298,7 @@
         <v>280</v>
       </c>
       <c r="F35" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="5">
         <v>3</v>
@@ -4325,7 +4325,7 @@
         <v>281</v>
       </c>
       <c r="F36" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="5">
         <v>3</v>
@@ -4352,7 +4352,7 @@
         <v>51</v>
       </c>
       <c r="F37" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="5">
         <v>12</v>
@@ -4379,7 +4379,7 @@
         <v>282</v>
       </c>
       <c r="F38" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G38" s="5">
         <v>7</v>
@@ -4406,7 +4406,7 @@
         <v>283</v>
       </c>
       <c r="F39" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G39" s="5">
         <v>7</v>
@@ -4433,7 +4433,7 @@
         <v>284</v>
       </c>
       <c r="F40" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>285</v>
       </c>
       <c r="F41" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G41" s="5">
         <v>1</v>
@@ -4487,7 +4487,7 @@
         <v>286</v>
       </c>
       <c r="F42" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G42" s="5">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         <v>133</v>
       </c>
       <c r="F43" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G43" s="5">
         <v>2</v>
@@ -4532,7 +4532,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>12</v>
@@ -4541,7 +4541,7 @@
         <v>287</v>
       </c>
       <c r="F44" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G44" s="5">
         <v>4</v>
@@ -4559,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
@@ -4568,7 +4568,7 @@
         <v>288</v>
       </c>
       <c r="F45" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G45" s="5">
         <v>3</v>
@@ -4595,7 +4595,7 @@
         <v>199</v>
       </c>
       <c r="F46" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" s="5">
         <v>3</v>
@@ -4622,7 +4622,7 @@
         <v>60</v>
       </c>
       <c r="F47" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G47" s="5">
         <v>4</v>
@@ -4786,7 +4786,7 @@
         <v>61</v>
       </c>
       <c r="F18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5">
         <v>6</v>
@@ -4813,7 +4813,7 @@
         <v>289</v>
       </c>
       <c r="F19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5">
         <v>3</v>
@@ -4840,7 +4840,7 @@
         <v>290</v>
       </c>
       <c r="F20" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" s="5">
         <v>3</v>
@@ -4867,7 +4867,7 @@
         <v>291</v>
       </c>
       <c r="F21" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="5">
         <v>6</v>
@@ -4894,7 +4894,7 @@
         <v>292</v>
       </c>
       <c r="F22" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G22" s="5">
         <v>8</v>
@@ -4921,7 +4921,7 @@
         <v>293</v>
       </c>
       <c r="F23" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="5">
         <v>9</v>
@@ -4948,7 +4948,7 @@
         <v>294</v>
       </c>
       <c r="F24" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="5">
         <v>8</v>
@@ -4975,7 +4975,7 @@
         <v>295</v>
       </c>
       <c r="F25" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G25" s="5">
         <v>7</v>
@@ -5002,7 +5002,7 @@
         <v>266</v>
       </c>
       <c r="F26" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="5">
         <v>7</v>
@@ -5042,7 +5042,7 @@
         <v>296</v>
       </c>
       <c r="F28" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5">
         <v>7</v>
@@ -5069,7 +5069,7 @@
         <v>267</v>
       </c>
       <c r="F29" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G29" s="5">
         <v>7</v>
@@ -5096,7 +5096,7 @@
         <v>297</v>
       </c>
       <c r="F30" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="5">
         <v>7</v>
@@ -5136,7 +5136,7 @@
         <v>298</v>
       </c>
       <c r="F32" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G32" s="5">
         <v>7</v>
@@ -5163,7 +5163,7 @@
         <v>236</v>
       </c>
       <c r="F33" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" s="5">
         <v>6</v>
@@ -5190,7 +5190,7 @@
         <v>299</v>
       </c>
       <c r="F34" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" s="5">
         <v>7</v>
@@ -5217,7 +5217,7 @@
         <v>300</v>
       </c>
       <c r="F35" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G35" s="5">
         <v>7</v>
@@ -5244,7 +5244,7 @@
         <v>301</v>
       </c>
       <c r="F36" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G36" s="5">
         <v>7</v>
@@ -5271,7 +5271,7 @@
         <v>269</v>
       </c>
       <c r="F37" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G37" s="5">
         <v>6</v>
@@ -6583,7 +6583,7 @@
         <v>302</v>
       </c>
       <c r="F16" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
@@ -6610,7 +6610,7 @@
         <v>303</v>
       </c>
       <c r="F17" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5">
         <v>7</v>
@@ -6637,7 +6637,7 @@
         <v>304</v>
       </c>
       <c r="F18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5">
         <v>10</v>
@@ -6664,7 +6664,7 @@
         <v>71</v>
       </c>
       <c r="F19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5">
         <v>7</v>
@@ -6691,7 +6691,7 @@
         <v>152</v>
       </c>
       <c r="F20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5">
         <v>10</v>
@@ -6833,7 +6833,7 @@
         <v>305</v>
       </c>
       <c r="F14" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="5">
         <v>7</v>
@@ -6860,7 +6860,7 @@
         <v>306</v>
       </c>
       <c r="F15" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="5">
         <v>12</v>
@@ -6887,7 +6887,7 @@
         <v>307</v>
       </c>
       <c r="F16" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="5">
         <v>3</v>
@@ -6914,7 +6914,7 @@
         <v>308</v>
       </c>
       <c r="F17" s="5">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G17" s="5">
         <v>3</v>
@@ -6941,7 +6941,7 @@
         <v>309</v>
       </c>
       <c r="F18" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -6968,7 +6968,7 @@
         <v>80</v>
       </c>
       <c r="F19" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" s="5">
         <v>7</v>
@@ -6995,7 +6995,7 @@
         <v>310</v>
       </c>
       <c r="F20" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="5">
         <v>4</v>
@@ -7022,7 +7022,7 @@
         <v>311</v>
       </c>
       <c r="F21" s="5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G21" s="5">
         <v>3</v>
@@ -7042,6 +7042,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7050,7 +7051,7 @@
   <dimension ref="B1:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B14" sqref="B14:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7193,7 +7194,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" s="5">
         <v>2</v>
@@ -7382,7 +7383,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" s="5">
         <v>2</v>
@@ -7436,7 +7437,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
@@ -10617,7 +10618,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/리스트/텍스트 리스트.xlsx
+++ b/Document/리스트/텍스트 리스트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="363">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1317,6 +1317,170 @@
   </si>
   <si>
     <t>하암~[하픔] 음~[기지개] 슬슬 지루한데 마지막 여흥 거리를 즐겨 볼까요? 후후후</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 지팡이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 은하야! 만나서 반가워!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이가…말을?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 근처와 나를 보면 알겠지만 여긴 너의 꿈속이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[대충 근처를 둘러보며 놀라는 은하]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬이…. 떠다니고 있어?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아~ 그리고 지금 리리스란 악마가 와서 너의 꿈을 망치고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각내서 꿈의 주인인 너를 잡아 꿈을 차지하려고 하고 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈? 꿈이라면 그냥 주는 것도…</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어째서?....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 빼앗기면 리리스가 꿈을 조종할 수 있게 돼! 그러면 리리스는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너를 영원히 꿈속에서 재우고 현실의 몸을 차지할 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!![놀람]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 괜찮아! 여긴 "너의 꿈"이야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가?.... 할 수 있을까? 상대는 악마잖아?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮아! 내가 있잖아! 그리고 너두!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너에겐 이루고 싶은 꿈이 있잖아! 여기서 멈출 거야?.....</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 있게 말하긴 했는데….. 어떻게… 싸워?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 "너의 꿈"이기 때문에 대항하기 위해 악과 싸우는 이미지로 힘이 구현화돼있을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 생각하는 이미지를 생각하며 싸우면 좀 더 좋을 거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 모습이…윽! [옷을 보고 부끄러워함]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 간단한 하게 조작에 대해 설명해 줄게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면에 표시된 키들을 눌러 이동과 대쉬를 사용해봐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘했어 은하야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번엔 전투를 배워보자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워 지팡아~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 연습하고 싶다면 남아서 더 연습해도 괜찮아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비가 끝나면 포탈로 들어가 영향력을 찾으러 가자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 리리스와 싸우기에 충분한 힘이 모인 것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 아직 조금 더 영향력을 모을 시간이 있을 것 같으니 조금 더 힘을 모아도 좋아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하야! 이제 더 이상 영향력을 못 모을 것 같아!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 영향력을 다 찾은 거야?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 그렇게 되기 전에 우리가 먼저 힘을 모아 공격한다면 충분히 승산이 있어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금의 나로…. 이길 수 있을까?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아 할 수 있어! 해야만 해! 고마워 지팡아 이제 됐어 포탈을 열어줘!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋았어! 그럼 리리스에게로 가는 포탈을 열게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 쓸데없는 저항은 그만두고 항복하러 오셨나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리스 어째서 내 꿈에 들어온 거야?!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>음~~너무 당연한 걸 질문하시는군요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틈이 있길래 들어와서 '식사'를 하고 있을 뿐이에요~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 더미를 소환할게! 전투를 배워보자!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2049,18 +2213,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69:Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="8" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="73.5" customWidth="1"/>
+    <col min="4" max="4" width="85.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -2093,14 +2257,14 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>323</v>
       </c>
       <c r="E2" s="5">
         <v>17</v>
@@ -2119,14 +2283,14 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="E3" s="5">
         <v>18</v>
@@ -2145,14 +2309,14 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="E4" s="5">
         <v>17</v>
@@ -2171,14 +2335,14 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="E5" s="5">
         <v>17</v>
@@ -2197,14 +2361,14 @@
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>187</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="E6" s="5">
         <v>18</v>
@@ -2223,14 +2387,14 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="E7" s="5">
         <v>18</v>
@@ -2249,14 +2413,14 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>328</v>
       </c>
       <c r="E8" s="5">
         <v>17</v>
@@ -2275,14 +2439,14 @@
       <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="E9" s="5">
         <v>17</v>
@@ -2301,14 +2465,14 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="E10" s="5">
         <v>18</v>
@@ -2327,7 +2491,7 @@
       <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2353,14 +2517,14 @@
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>331</v>
       </c>
       <c r="E12" s="5">
         <v>18</v>
@@ -2379,14 +2543,14 @@
       <c r="A13" s="5">
         <v>2</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="E13" s="5">
         <v>17</v>
@@ -2405,14 +2569,14 @@
       <c r="A14" s="5">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>50</v>
+        <v>333</v>
       </c>
       <c r="E14" s="5">
         <v>17</v>
@@ -2431,14 +2595,14 @@
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="E15" s="5">
         <v>18</v>
@@ -2457,14 +2621,14 @@
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="E16" s="5">
         <v>17</v>
@@ -2483,7 +2647,7 @@
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2509,14 +2673,14 @@
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="E18" s="5">
         <v>18</v>
@@ -2535,14 +2699,14 @@
       <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="E19" s="5">
         <v>17</v>
@@ -2561,14 +2725,14 @@
       <c r="A20" s="5">
         <v>2</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>56</v>
+        <v>338</v>
       </c>
       <c r="E20" s="5">
         <v>17</v>
@@ -2587,7 +2751,7 @@
       <c r="A21" s="5">
         <v>2</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2613,7 +2777,7 @@
       <c r="A22" s="5">
         <v>2</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>17</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2639,7 +2803,7 @@
       <c r="A23" s="5">
         <v>2</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2665,7 +2829,7 @@
       <c r="A24" s="5">
         <v>2</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2691,7 +2855,7 @@
       <c r="A25" s="5">
         <v>2</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2724,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>61</v>
+        <v>339</v>
       </c>
       <c r="E26" s="5">
         <v>18</v>
@@ -2750,7 +2914,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
       <c r="E27" s="5">
         <v>17</v>
@@ -2776,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="E28" s="5">
         <v>17</v>
@@ -2828,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="E30" s="5">
         <v>18</v>
@@ -2906,7 +3070,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="E33" s="5">
         <v>17</v>
@@ -2932,7 +3096,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="E34" s="5">
         <v>17</v>
@@ -2958,7 +3122,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>296</v>
+        <v>345</v>
       </c>
       <c r="E35" s="5">
         <v>17</v>
@@ -2984,7 +3148,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>267</v>
+        <v>346</v>
       </c>
       <c r="E36" s="5">
         <v>17</v>
@@ -3062,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>236</v>
+        <v>347</v>
       </c>
       <c r="E39" s="5">
         <v>18</v>
@@ -3114,7 +3278,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="E41" s="5">
         <v>17</v>
@@ -3140,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="E42" s="5">
         <v>17</v>
@@ -3185,14 +3349,14 @@
       <c r="A44" s="5">
         <v>6</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="E44" s="5">
         <v>17</v>
@@ -3211,14 +3375,14 @@
       <c r="A45" s="5">
         <v>6</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>2</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="E45" s="5">
         <v>17</v>
@@ -3237,7 +3401,7 @@
       <c r="A46" s="5">
         <v>6</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>3</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -3263,7 +3427,7 @@
       <c r="A47" s="5">
         <v>6</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>4</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3289,7 +3453,7 @@
       <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>5</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3315,14 +3479,14 @@
       <c r="A49" s="5">
         <v>7</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="5">
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="E49" s="5">
         <v>17</v>
@@ -3341,14 +3505,14 @@
       <c r="A50" s="5">
         <v>7</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="5">
         <v>2</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="E50" s="5">
         <v>18</v>
@@ -3367,7 +3531,7 @@
       <c r="A51" s="5">
         <v>7</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="5">
         <v>3</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -3393,14 +3557,14 @@
       <c r="A52" s="5">
         <v>7</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>4</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="E52" s="5">
         <v>17</v>
@@ -3419,14 +3583,14 @@
       <c r="A53" s="5">
         <v>7</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="5">
         <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="E53" s="5">
         <v>18</v>
@@ -3445,7 +3609,7 @@
       <c r="A54" s="5">
         <v>7</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="5">
         <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -3471,14 +3635,14 @@
       <c r="A55" s="5">
         <v>7</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="5">
         <v>7</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="E55" s="5">
         <v>18</v>
@@ -3497,14 +3661,14 @@
       <c r="A56" s="5">
         <v>7</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="5">
         <v>8</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>82</v>
+        <v>357</v>
       </c>
       <c r="E56" s="5">
         <v>17</v>
@@ -3523,14 +3687,14 @@
       <c r="A57" s="5">
         <v>8</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="5">
         <v>1</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>87</v>
+        <v>358</v>
       </c>
       <c r="E57" s="5">
         <v>20</v>
@@ -3549,7 +3713,7 @@
       <c r="A58" s="5">
         <v>8</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="5">
         <v>2</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3575,14 +3739,14 @@
       <c r="A59" s="5">
         <v>8</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="5">
         <v>3</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="E59" s="5">
         <v>19</v>
@@ -3601,14 +3765,14 @@
       <c r="A60" s="5">
         <v>8</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="5">
         <v>4</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="E60" s="5">
         <v>20</v>
@@ -3627,14 +3791,14 @@
       <c r="A61" s="5">
         <v>8</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="5">
         <v>5</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="E61" s="5">
         <v>20</v>
@@ -3653,7 +3817,7 @@
       <c r="A62" s="5">
         <v>8</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="5">
         <v>6</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3679,7 +3843,7 @@
       <c r="A63" s="5">
         <v>8</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="5">
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3705,7 +3869,7 @@
       <c r="A64" s="5">
         <v>8</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="5">
         <v>8</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3731,7 +3895,7 @@
       <c r="A65" s="5">
         <v>8</v>
       </c>
-      <c r="B65" s="7">
+      <c r="B65" s="5">
         <v>9</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3757,7 +3921,7 @@
       <c r="A66" s="5">
         <v>8</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="5">
         <v>10</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3783,7 +3947,7 @@
       <c r="A67" s="5">
         <v>8</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="5">
         <v>11</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3809,7 +3973,7 @@
       <c r="A68" s="5">
         <v>8</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="5">
         <v>12</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3829,11 +3993,38 @@
       </c>
       <c r="H68" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>9</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="5">
+        <v>17</v>
+      </c>
+      <c r="F69" s="5">
+        <v>7</v>
+      </c>
+      <c r="G69" s="5">
+        <v>2</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7489,7 +7680,7 @@
   <dimension ref="A3:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9046,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10617,7 +10808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
